--- a/__XLSX/Sample14 - MashUp.xlsx
+++ b/__XLSX/Sample14 - MashUp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\음악퀴즈\맵\Excel_Cutter\__XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422AA827-EFFB-4F97-8313-867E83B432AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1398F5A-DE9A-4AD4-BF9B-E8E228F45120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38820" yWindow="6000" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -48,6 +48,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -65,6 +66,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -84,6 +86,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -104,6 +107,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -121,6 +125,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -137,6 +142,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -153,6 +159,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -173,6 +180,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -190,6 +198,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -206,6 +215,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -222,6 +232,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -242,6 +253,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -259,6 +271,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -275,6 +288,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -291,6 +305,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -311,6 +326,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -332,7 +348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="881">
   <si>
     <t>노래 정보</t>
   </si>
@@ -415,6 +431,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
       </rPr>
       <t>・マザーグース</t>
     </r>
@@ -2556,126 +2574,6 @@
         <charset val="129"/>
       </rPr>
       <t>엔딩곡</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>はるまきごはん</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하루마키고한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>メルティランドナイトメア</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>멜티</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>랜드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나이트메어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2794,15 +2692,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>UP SIDE DOWN SIDE UP AND DOWN</t>
-  </si>
-  <si>
-    <t>LEFT RIGHT UP DOWN</t>
-  </si>
-  <si>
-    <t>YOU AND ME</t>
-  </si>
-  <si>
     <t>ときめく心のモーションが</t>
   </si>
   <si>
@@ -3037,62 +2926,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> ~</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>煮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ル果実</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(니루 카지츠)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>トラフィック・ジャム</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(트래픽 잼)</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3138,286 +2971,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>和田</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>たけあき</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>와다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타케아키)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>チュルリラ・チュルリラ・ダッダッダ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>！(츄루리라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>츄루리라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>땃땃따</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>!)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ライムライト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(라임 라이트)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>栗山夕璃(쿠리야마</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유리)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>じん</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(진)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>カゲロウデイズ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(아지랑이 데이즈)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>かいりきベア</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(괴력 베어)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ベノム</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(베놈)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">~ </t>
     </r>
     <r>
@@ -3441,420 +2994,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>てにをは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(테니오하)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ヴィラン</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(빌런)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chinozo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>グッバイ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>宣言(굿바이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선언)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ピノキオピー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피노키오피)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>神</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>っぽいな</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(신 같네)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>稲葉曇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(이나바 쿠모리)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ラグトレイン</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(래그 트레인)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二三(히후미)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>猛独が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>襲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>う</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(거센 고독이 덮쳐와)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aqu3ra</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アイボリー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(아이보리)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neru</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ロストワンの号哭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로스트 원의 호곡)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ナユタン</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>星人(나유탄 성인)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ダンスロボットダンス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>댄스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로봇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>댄스)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>UP SIDE UP SIDE DOWN</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEFT SIDE LEFT SIDE RIGHT</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Timing</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3872,6 +3011,186 @@
   </si>
   <si>
     <t>Millisec</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\leftメルティランドナイトメア(멜티 랜드 나이트메어)</t>
+  </si>
+  <si>
+    <t>\leftトラフィック・ジャム(트래픽 잼)</t>
+  </si>
+  <si>
+    <t>\leftチュルリラ・チュルリラ・ダッダッダ！(츄루리라・츄루리라・땃땃따!)</t>
+  </si>
+  <si>
+    <t>\leftライムライト(라임 라이트)</t>
+  </si>
+  <si>
+    <t>\leftカゲロウデイズ(아지랑이 데이즈)</t>
+  </si>
+  <si>
+    <t>\leftベノム(베놈)</t>
+  </si>
+  <si>
+    <t>\leftヴィラン(빌런)</t>
+  </si>
+  <si>
+    <t>\leftグッバイ宣言(굿바이 선언)</t>
+  </si>
+  <si>
+    <t>\left神っぽいな(신 같네)</t>
+  </si>
+  <si>
+    <t>\leftラグトレイン(래그 트레인)</t>
+  </si>
+  <si>
+    <t>\left猛独が襲う(거센 고독이 덮쳐와)</t>
+  </si>
+  <si>
+    <t>\leftアイボリー(아이보리)</t>
+  </si>
+  <si>
+    <t>\leftロストワンの号哭(로스트 원의 호곡)</t>
+  </si>
+  <si>
+    <t>\leftダンスロボットダンス(댄스 로봇 댄스)</t>
+  </si>
+  <si>
+    <t>\leftはるまきごはん(하루마키고한)</t>
+  </si>
+  <si>
+    <t>\left煮ル果実(니루 카지츠)</t>
+  </si>
+  <si>
+    <t>\left和田たけあき(와다 타케아키)</t>
+  </si>
+  <si>
+    <t>\left栗山夕璃(쿠리야마 유리)</t>
+  </si>
+  <si>
+    <t>\leftじん(진)</t>
+  </si>
+  <si>
+    <t>\leftかいりきベア(괴력 베어)</t>
+  </si>
+  <si>
+    <t>\leftてにをは(테니오하)</t>
+  </si>
+  <si>
+    <t>\leftChinozo</t>
+  </si>
+  <si>
+    <t>\leftピノキオピー (피노키오피)</t>
+  </si>
+  <si>
+    <t>\left稲葉曇(이나바 쿠모리)</t>
+  </si>
+  <si>
+    <t>\left一二三(히후미)</t>
+  </si>
+  <si>
+    <t>\leftAqu3ra</t>
+  </si>
+  <si>
+    <t>\leftNeru</t>
+  </si>
+  <si>
+    <t>\leftナユタン星人(나유탄 성인)</t>
+  </si>
+  <si>
+    <t>\x1BUP \x14SIDE UP SIDE DOWN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1EUP \x1BSIDE \x14UP SIDE DOWN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1EUP SIDE \x1BUP \x14SIDE DOWN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1EUP SIDE UP \x1BSIDE \x14DOWN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1EUP SIDE UP SIDE \x1BDOWN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1EUP SIDE DOWN SIDE UP AND \x1BDOWN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1EUP SIDE DOWN SIDE UP \x1BAND \x14DOWN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1EUP SIDE DOWN SIDE \x1BUP \x14AND DOWN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1EUP SIDE DOWN \x1BSIDE \x14UP AND DOWN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1EUP SIDE \x1BDOWN \x14SIDE UP AND DOWN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1EUP \x1BSIDE \x14DOWN SIDE UP AND DOWN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1BUP \x14SIDE DOWN SIDE UP AND DOWN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1EYOU AND \x1BME</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1EYOU \x1BAND \x14ME</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1BYOU \x14AND ME</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1ELEFT RIGHT UP \x1BDOWN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1ELEFT RIGHT \x1BUP \x14DOWN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1ELEFT \x1BRIGHT \x14UP DOWN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1BLEFT \x14RIGHT UP DOWN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1ELEFT SIDE LEFT SIDE \x1BRIGHT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1ELEFT SIDE LEFT \x1BSIDE \x14RIGHT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1ELEFT SIDE \x1BLEFT \x14SIDE RIGHT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1ELEFT \x1BSIDE \x14LEFT SIDE RIGHT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1BLEFT \x14SIDE LEFT SIDE RIGHT</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3882,7 +3201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3899,11 +3218,13 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF373A3C"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3916,6 +3237,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3929,6 +3251,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3960,23 +3284,9 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4533,21 +3843,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4574,22 +3869,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4597,6 +3886,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4814,11 +4124,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="3" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="3" topLeftCell="R91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
+      <selection pane="bottomRight" activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4837,154 +4147,154 @@
     <row r="1" spans="1:57" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="str">
         <f>CONCATENATE("총 ", MAX($A$4:$A$9943),"곡")</f>
-        <v>총 105곡</v>
+        <v>총 96곡</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="42" t="str">
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="63" t="str">
         <f>CONCATENATE("Total Time: ", (SUM(R:R)+SUM(U:U)+SUM(X:X)+SUM(AA:AA))- (SUM(Q:Q)+SUM(T:T)+SUM(W:W)+SUM(Z:Z)), "sec")</f>
-        <v>Total Time: 6282.82sec</v>
-      </c>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="42" t="s">
+        <v>Total Time: 10057.72sec</v>
+      </c>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43"/>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43"/>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="43"/>
-      <c r="BE1" s="44"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="64"/>
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="65"/>
     </row>
     <row r="2" spans="1:57" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="37" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="37" t="s">
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="40"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="61"/>
       <c r="O2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="37" t="s">
+      <c r="Q2" s="59"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="37" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="38"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="37" t="s">
+      <c r="W2" s="59"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="41" t="s">
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="41" t="s">
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="41" t="s">
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="38"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="40"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="59"/>
+      <c r="BC2" s="59"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="61"/>
     </row>
     <row r="3" spans="1:57" ht="16.5" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -11447,16 +10757,26 @@
       <c r="N64" s="22"/>
       <c r="O64" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P64" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="20"/>
-      <c r="U64" s="20"/>
+      <c r="Q64" s="20">
+        <v>30</v>
+      </c>
+      <c r="R64" s="20">
+        <v>80</v>
+      </c>
+      <c r="S64" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="T64" s="20">
+        <v>142.6</v>
+      </c>
+      <c r="U64" s="20">
+        <v>195</v>
+      </c>
       <c r="V64" s="19"/>
       <c r="W64" s="20"/>
       <c r="X64" s="24"/>
@@ -11537,16 +10857,26 @@
       <c r="N65" s="22"/>
       <c r="O65" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P65" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
+      <c r="Q65" s="20">
+        <v>29.2</v>
+      </c>
+      <c r="R65" s="20">
+        <v>81.7</v>
+      </c>
+      <c r="S65" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="T65" s="20">
+        <v>132</v>
+      </c>
+      <c r="U65" s="20">
+        <v>175</v>
+      </c>
       <c r="V65" s="19"/>
       <c r="W65" s="20"/>
       <c r="X65" s="24"/>
@@ -11629,16 +10959,26 @@
       <c r="N66" s="22"/>
       <c r="O66" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P66" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
+      <c r="Q66" s="20">
+        <v>43.1</v>
+      </c>
+      <c r="R66" s="20">
+        <v>96</v>
+      </c>
+      <c r="S66" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="T66" s="20">
+        <v>142.6</v>
+      </c>
+      <c r="U66" s="20">
+        <v>192.6</v>
+      </c>
       <c r="V66" s="19"/>
       <c r="W66" s="20"/>
       <c r="X66" s="24"/>
@@ -11719,16 +11059,26 @@
       <c r="N67" s="22"/>
       <c r="O67" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P67" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="20"/>
-      <c r="U67" s="20"/>
+      <c r="Q67" s="20">
+        <v>29.5</v>
+      </c>
+      <c r="R67" s="20">
+        <v>75</v>
+      </c>
+      <c r="S67" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="T67" s="20">
+        <v>114.3</v>
+      </c>
+      <c r="U67" s="20">
+        <v>171.3</v>
+      </c>
       <c r="V67" s="19"/>
       <c r="W67" s="20"/>
       <c r="X67" s="24"/>
@@ -11816,8 +11166,12 @@
       <c r="P68" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="20"/>
+      <c r="Q68" s="20">
+        <v>26.9</v>
+      </c>
+      <c r="R68" s="20">
+        <v>81.5</v>
+      </c>
       <c r="S68" s="19"/>
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
@@ -11905,16 +11259,26 @@
       <c r="N69" s="22"/>
       <c r="O69" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P69" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="19"/>
-      <c r="T69" s="20"/>
-      <c r="U69" s="20"/>
+      <c r="Q69" s="20">
+        <v>23.3</v>
+      </c>
+      <c r="R69" s="20">
+        <v>81.2</v>
+      </c>
+      <c r="S69" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="T69" s="20">
+        <v>139</v>
+      </c>
+      <c r="U69" s="20">
+        <v>183.7</v>
+      </c>
       <c r="V69" s="19"/>
       <c r="W69" s="20"/>
       <c r="X69" s="24"/>
@@ -11995,19 +11359,35 @@
       <c r="N70" s="22"/>
       <c r="O70" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P70" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="Q70" s="20"/>
-      <c r="R70" s="20"/>
-      <c r="S70" s="19"/>
-      <c r="T70" s="20"/>
-      <c r="U70" s="20"/>
-      <c r="V70" s="19"/>
-      <c r="W70" s="20"/>
-      <c r="X70" s="24"/>
+      <c r="Q70" s="20">
+        <v>18.5</v>
+      </c>
+      <c r="R70" s="20">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="S70" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="T70" s="20">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="U70" s="20">
+        <v>121.2</v>
+      </c>
+      <c r="V70" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="W70" s="20">
+        <v>124.9</v>
+      </c>
+      <c r="X70" s="24">
+        <v>167.9</v>
+      </c>
       <c r="Y70" s="20"/>
       <c r="Z70" s="20"/>
       <c r="AA70" s="20"/>
@@ -12085,16 +11465,26 @@
       <c r="N71" s="22"/>
       <c r="O71" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P71" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="19"/>
-      <c r="T71" s="20"/>
-      <c r="U71" s="20"/>
+      <c r="Q71" s="20">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="R71" s="20">
+        <v>69.7</v>
+      </c>
+      <c r="S71" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="T71" s="20">
+        <v>136.9</v>
+      </c>
+      <c r="U71" s="20">
+        <v>191.6</v>
+      </c>
       <c r="V71" s="19"/>
       <c r="W71" s="20"/>
       <c r="X71" s="24"/>
@@ -12177,16 +11567,26 @@
       <c r="N72" s="22"/>
       <c r="O72" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P72" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="20"/>
-      <c r="S72" s="19"/>
-      <c r="T72" s="20"/>
-      <c r="U72" s="20"/>
+      <c r="Q72" s="20">
+        <v>43.7</v>
+      </c>
+      <c r="R72" s="20">
+        <v>92.1</v>
+      </c>
+      <c r="S72" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="T72" s="20">
+        <v>147</v>
+      </c>
+      <c r="U72" s="20">
+        <v>199</v>
+      </c>
       <c r="V72" s="19"/>
       <c r="W72" s="20"/>
       <c r="X72" s="24"/>
@@ -12277,16 +11677,26 @@
       <c r="N73" s="22"/>
       <c r="O73" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P73" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="19"/>
-      <c r="T73" s="20"/>
-      <c r="U73" s="20"/>
+      <c r="Q73" s="20">
+        <v>27.9</v>
+      </c>
+      <c r="R73" s="20">
+        <v>77.7</v>
+      </c>
+      <c r="S73" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="T73" s="20">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="U73" s="20">
+        <v>206.7</v>
+      </c>
       <c r="V73" s="19"/>
       <c r="W73" s="20"/>
       <c r="X73" s="24"/>
@@ -12369,16 +11779,26 @@
       <c r="N74" s="22"/>
       <c r="O74" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P74" s="29" t="s">
         <v>498</v>
       </c>
-      <c r="Q74" s="20"/>
-      <c r="R74" s="20"/>
-      <c r="S74" s="19"/>
-      <c r="T74" s="20"/>
-      <c r="U74" s="20"/>
+      <c r="Q74" s="20">
+        <v>24</v>
+      </c>
+      <c r="R74" s="20">
+        <v>76.2</v>
+      </c>
+      <c r="S74" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="T74" s="20">
+        <v>144.5</v>
+      </c>
+      <c r="U74" s="20">
+        <v>200</v>
+      </c>
       <c r="V74" s="19"/>
       <c r="W74" s="20"/>
       <c r="X74" s="24"/>
@@ -12459,19 +11879,35 @@
       <c r="N75" s="22"/>
       <c r="O75" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P75" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="Q75" s="20"/>
-      <c r="R75" s="20"/>
-      <c r="S75" s="19"/>
-      <c r="T75" s="20"/>
-      <c r="U75" s="20"/>
-      <c r="V75" s="19"/>
-      <c r="W75" s="20"/>
-      <c r="X75" s="24"/>
+      <c r="Q75" s="20">
+        <v>41.4</v>
+      </c>
+      <c r="R75" s="20">
+        <v>100</v>
+      </c>
+      <c r="S75" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="T75" s="20">
+        <v>96</v>
+      </c>
+      <c r="U75" s="20">
+        <v>151.1</v>
+      </c>
+      <c r="V75" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="W75" s="20">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="X75" s="24">
+        <v>188.8</v>
+      </c>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
@@ -12557,16 +11993,26 @@
       <c r="N76" s="22"/>
       <c r="O76" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P76" s="29" t="s">
         <v>512</v>
       </c>
-      <c r="Q76" s="20"/>
-      <c r="R76" s="20"/>
-      <c r="S76" s="19"/>
-      <c r="T76" s="20"/>
-      <c r="U76" s="20"/>
+      <c r="Q76" s="20">
+        <v>18</v>
+      </c>
+      <c r="R76" s="20">
+        <v>76.5</v>
+      </c>
+      <c r="S76" s="29" t="s">
+        <v>512</v>
+      </c>
+      <c r="T76" s="20">
+        <v>88.1</v>
+      </c>
+      <c r="U76" s="20">
+        <v>140.5</v>
+      </c>
       <c r="V76" s="19"/>
       <c r="W76" s="20"/>
       <c r="X76" s="24"/>
@@ -12654,8 +12100,12 @@
       <c r="P77" s="29" t="s">
         <v>517</v>
       </c>
-      <c r="Q77" s="20"/>
-      <c r="R77" s="20"/>
+      <c r="Q77" s="20">
+        <v>42.9</v>
+      </c>
+      <c r="R77" s="20">
+        <v>92</v>
+      </c>
       <c r="S77" s="19"/>
       <c r="T77" s="20"/>
       <c r="U77" s="20"/>
@@ -12741,19 +12191,35 @@
       <c r="N78" s="22"/>
       <c r="O78" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P78" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="20"/>
-      <c r="S78" s="19"/>
-      <c r="T78" s="20"/>
-      <c r="U78" s="20"/>
-      <c r="V78" s="19"/>
-      <c r="W78" s="20"/>
-      <c r="X78" s="24"/>
+      <c r="Q78" s="20">
+        <v>19.5</v>
+      </c>
+      <c r="R78" s="20">
+        <v>66.5</v>
+      </c>
+      <c r="S78" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="T78" s="20">
+        <v>66.5</v>
+      </c>
+      <c r="U78" s="20">
+        <v>113.5</v>
+      </c>
+      <c r="V78" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="W78" s="20">
+        <v>141.9</v>
+      </c>
+      <c r="X78" s="24">
+        <v>182.9</v>
+      </c>
       <c r="Y78" s="20"/>
       <c r="Z78" s="20"/>
       <c r="AA78" s="20"/>
@@ -12835,16 +12301,26 @@
       <c r="N79" s="22"/>
       <c r="O79" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P79" s="29" t="s">
         <v>532</v>
       </c>
-      <c r="Q79" s="20"/>
-      <c r="R79" s="20"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="20"/>
-      <c r="U79" s="20"/>
+      <c r="Q79" s="20">
+        <v>29.7</v>
+      </c>
+      <c r="R79" s="20">
+        <v>76.7</v>
+      </c>
+      <c r="S79" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="T79" s="20">
+        <v>153</v>
+      </c>
+      <c r="U79" s="20">
+        <v>203</v>
+      </c>
       <c r="V79" s="19"/>
       <c r="W79" s="20"/>
       <c r="X79" s="24"/>
@@ -12936,8 +12412,12 @@
       <c r="P80" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="Q80" s="20"/>
-      <c r="R80" s="20"/>
+      <c r="Q80" s="20">
+        <v>50</v>
+      </c>
+      <c r="R80" s="20">
+        <v>92.7</v>
+      </c>
       <c r="S80" s="19"/>
       <c r="T80" s="20"/>
       <c r="U80" s="20"/>
@@ -13021,16 +12501,26 @@
       <c r="N81" s="22"/>
       <c r="O81" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P81" s="29" t="s">
         <v>543</v>
       </c>
-      <c r="Q81" s="20"/>
-      <c r="R81" s="20"/>
-      <c r="S81" s="19"/>
-      <c r="T81" s="20"/>
-      <c r="U81" s="20"/>
+      <c r="Q81" s="20">
+        <v>34</v>
+      </c>
+      <c r="R81" s="20">
+        <v>83</v>
+      </c>
+      <c r="S81" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="T81" s="20">
+        <v>135.6</v>
+      </c>
+      <c r="U81" s="20">
+        <v>194.8</v>
+      </c>
       <c r="V81" s="19"/>
       <c r="W81" s="20"/>
       <c r="X81" s="24"/>
@@ -13121,16 +12611,26 @@
       </c>
       <c r="O82" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P82" s="29" t="s">
         <v>551</v>
       </c>
-      <c r="Q82" s="20"/>
-      <c r="R82" s="20"/>
-      <c r="S82" s="19"/>
-      <c r="T82" s="20"/>
-      <c r="U82" s="20"/>
+      <c r="Q82" s="20">
+        <v>40.6</v>
+      </c>
+      <c r="R82" s="20">
+        <v>90.2</v>
+      </c>
+      <c r="S82" s="29" t="s">
+        <v>551</v>
+      </c>
+      <c r="T82" s="20">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="U82" s="20">
+        <v>192.3</v>
+      </c>
       <c r="V82" s="19"/>
       <c r="W82" s="20"/>
       <c r="X82" s="24"/>
@@ -13219,16 +12719,26 @@
       <c r="N83" s="22"/>
       <c r="O83" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P83" s="29" t="s">
         <v>558</v>
       </c>
-      <c r="Q83" s="20"/>
-      <c r="R83" s="20"/>
-      <c r="S83" s="19"/>
-      <c r="T83" s="20"/>
-      <c r="U83" s="20"/>
+      <c r="Q83" s="20">
+        <v>40.9</v>
+      </c>
+      <c r="R83" s="20">
+        <v>85.5</v>
+      </c>
+      <c r="S83" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="T83" s="20">
+        <v>130</v>
+      </c>
+      <c r="U83" s="20">
+        <v>185</v>
+      </c>
       <c r="V83" s="19"/>
       <c r="W83" s="20"/>
       <c r="X83" s="24"/>
@@ -13309,16 +12819,26 @@
       <c r="N84" s="22"/>
       <c r="O84" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P84" s="29" t="s">
         <v>559</v>
       </c>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
-      <c r="S84" s="19"/>
-      <c r="T84" s="20"/>
-      <c r="U84" s="20"/>
+      <c r="Q84" s="20">
+        <v>28</v>
+      </c>
+      <c r="R84" s="20">
+        <v>69.2</v>
+      </c>
+      <c r="S84" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="T84" s="20">
+        <v>96.1</v>
+      </c>
+      <c r="U84" s="20">
+        <v>138</v>
+      </c>
       <c r="V84" s="19"/>
       <c r="W84" s="20"/>
       <c r="X84" s="24"/>
@@ -13403,16 +12923,26 @@
       <c r="N85" s="22"/>
       <c r="O85" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P85" s="29" t="s">
         <v>567</v>
       </c>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="20"/>
-      <c r="S85" s="19"/>
-      <c r="T85" s="20"/>
-      <c r="U85" s="20"/>
+      <c r="Q85" s="20">
+        <v>47.9</v>
+      </c>
+      <c r="R85" s="20">
+        <v>92.7</v>
+      </c>
+      <c r="S85" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="T85" s="20">
+        <v>120.3</v>
+      </c>
+      <c r="U85" s="20">
+        <v>165</v>
+      </c>
       <c r="V85" s="19"/>
       <c r="W85" s="20"/>
       <c r="X85" s="24"/>
@@ -13504,8 +13034,12 @@
       <c r="P86" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="Q86" s="20"/>
-      <c r="R86" s="20"/>
+      <c r="Q86" s="20">
+        <v>56.6</v>
+      </c>
+      <c r="R86" s="20">
+        <v>101.6</v>
+      </c>
       <c r="S86" s="19"/>
       <c r="T86" s="20"/>
       <c r="U86" s="20"/>
@@ -13555,10 +13089,7 @@
       <c r="BE86" s="25"/>
     </row>
     <row r="87" spans="1:57" ht="16.5" customHeight="1">
-      <c r="A87" s="14">
-        <f t="shared" si="3"/>
-        <v>81</v>
-      </c>
+      <c r="A87" s="14"/>
       <c r="B87" s="15">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -13651,7 +13182,7 @@
     <row r="88" spans="1:57" ht="16.5" customHeight="1">
       <c r="A88" s="14">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88" s="15">
         <f t="shared" si="1"/>
@@ -13693,16 +13224,26 @@
       </c>
       <c r="O88" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P88" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="20"/>
-      <c r="S88" s="19"/>
-      <c r="T88" s="20"/>
-      <c r="U88" s="20"/>
+      <c r="Q88" s="20">
+        <v>46.5</v>
+      </c>
+      <c r="R88" s="20">
+        <v>95</v>
+      </c>
+      <c r="S88" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="T88" s="20">
+        <v>198</v>
+      </c>
+      <c r="U88" s="20">
+        <v>247.3</v>
+      </c>
       <c r="V88" s="19"/>
       <c r="W88" s="20"/>
       <c r="X88" s="24"/>
@@ -13755,7 +13296,7 @@
     <row r="89" spans="1:57" ht="16.5" customHeight="1">
       <c r="A89" s="14">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" si="1"/>
@@ -13791,16 +13332,26 @@
       <c r="N89" s="22"/>
       <c r="O89" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P89" s="29" t="s">
         <v>593</v>
       </c>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="20"/>
-      <c r="S89" s="19"/>
-      <c r="T89" s="20"/>
-      <c r="U89" s="20"/>
+      <c r="Q89" s="20">
+        <v>37</v>
+      </c>
+      <c r="R89" s="20">
+        <v>79.8</v>
+      </c>
+      <c r="S89" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="T89" s="20">
+        <v>156.5</v>
+      </c>
+      <c r="U89" s="20">
+        <v>209.2</v>
+      </c>
       <c r="V89" s="19"/>
       <c r="W89" s="20"/>
       <c r="X89" s="24"/>
@@ -13851,7 +13402,7 @@
     <row r="90" spans="1:57" ht="16.5" customHeight="1">
       <c r="A90" s="14">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B90" s="15">
         <f t="shared" si="1"/>
@@ -13887,16 +13438,26 @@
       <c r="N90" s="22"/>
       <c r="O90" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P90" s="29" t="s">
         <v>595</v>
       </c>
-      <c r="Q90" s="20"/>
-      <c r="R90" s="20"/>
-      <c r="S90" s="19"/>
-      <c r="T90" s="20"/>
-      <c r="U90" s="20"/>
+      <c r="Q90" s="20">
+        <v>41.4</v>
+      </c>
+      <c r="R90" s="20">
+        <v>88.1</v>
+      </c>
+      <c r="S90" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="T90" s="20">
+        <v>168.6</v>
+      </c>
+      <c r="U90" s="20">
+        <v>219.3</v>
+      </c>
       <c r="V90" s="19"/>
       <c r="W90" s="20"/>
       <c r="X90" s="24"/>
@@ -13945,7 +13506,7 @@
     <row r="91" spans="1:57" ht="16.5" customHeight="1">
       <c r="A91" s="14">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B91" s="15">
         <f t="shared" si="1"/>
@@ -13979,16 +13540,26 @@
       <c r="N91" s="22"/>
       <c r="O91" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P91" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="Q91" s="20"/>
-      <c r="R91" s="20"/>
-      <c r="S91" s="19"/>
-      <c r="T91" s="20"/>
-      <c r="U91" s="20"/>
+      <c r="Q91" s="20">
+        <v>45.5</v>
+      </c>
+      <c r="R91" s="20">
+        <v>94.1</v>
+      </c>
+      <c r="S91" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="T91" s="20">
+        <v>190</v>
+      </c>
+      <c r="U91" s="20">
+        <v>241.4</v>
+      </c>
       <c r="V91" s="19"/>
       <c r="W91" s="20"/>
       <c r="X91" s="24"/>
@@ -14037,7 +13608,7 @@
     <row r="92" spans="1:57" ht="16.5" customHeight="1">
       <c r="A92" s="14">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92" s="15">
         <f t="shared" si="1"/>
@@ -14073,16 +13644,26 @@
       <c r="N92" s="22"/>
       <c r="O92" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P92" s="29" t="s">
         <v>602</v>
       </c>
-      <c r="Q92" s="20"/>
-      <c r="R92" s="20"/>
-      <c r="S92" s="19"/>
-      <c r="T92" s="20"/>
-      <c r="U92" s="20"/>
+      <c r="Q92" s="20">
+        <v>36.9</v>
+      </c>
+      <c r="R92" s="20">
+        <v>85.2</v>
+      </c>
+      <c r="S92" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="T92" s="20">
+        <v>165.3</v>
+      </c>
+      <c r="U92" s="20">
+        <v>217.3</v>
+      </c>
       <c r="V92" s="19"/>
       <c r="W92" s="20"/>
       <c r="X92" s="24"/>
@@ -14129,10 +13710,7 @@
       <c r="BE92" s="25"/>
     </row>
     <row r="93" spans="1:57" ht="16.5" customHeight="1">
-      <c r="A93" s="14">
-        <f t="shared" si="3"/>
-        <v>87</v>
-      </c>
+      <c r="A93" s="14"/>
       <c r="B93" s="15">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -14225,7 +13803,7 @@
     <row r="94" spans="1:57" ht="16.5" customHeight="1">
       <c r="A94" s="14">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B94" s="15">
         <f t="shared" si="1"/>
@@ -14259,16 +13837,26 @@
       <c r="N94" s="22"/>
       <c r="O94" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P94" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="Q94" s="20"/>
-      <c r="R94" s="20"/>
-      <c r="S94" s="19"/>
-      <c r="T94" s="20"/>
-      <c r="U94" s="20"/>
+      <c r="Q94" s="20">
+        <v>20.5</v>
+      </c>
+      <c r="R94" s="20">
+        <v>79</v>
+      </c>
+      <c r="S94" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="T94" s="20">
+        <v>99.5</v>
+      </c>
+      <c r="U94" s="20">
+        <v>148</v>
+      </c>
       <c r="V94" s="19"/>
       <c r="W94" s="20"/>
       <c r="X94" s="24"/>
@@ -14321,7 +13909,7 @@
     <row r="95" spans="1:57" ht="16.5" customHeight="1">
       <c r="A95" s="14">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B95" s="15">
         <f t="shared" si="1"/>
@@ -14357,16 +13945,26 @@
       <c r="N95" s="22"/>
       <c r="O95" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P95" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="Q95" s="20"/>
-      <c r="R95" s="20"/>
-      <c r="S95" s="19"/>
-      <c r="T95" s="20"/>
-      <c r="U95" s="20"/>
+      <c r="Q95" s="20">
+        <v>46.2</v>
+      </c>
+      <c r="R95" s="20">
+        <v>94.2</v>
+      </c>
+      <c r="S95" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="T95" s="20">
+        <v>178.2</v>
+      </c>
+      <c r="U95" s="20">
+        <v>226.2</v>
+      </c>
       <c r="V95" s="19"/>
       <c r="W95" s="20"/>
       <c r="X95" s="24"/>
@@ -14411,11 +14009,8 @@
       <c r="BE95" s="25"/>
     </row>
     <row r="96" spans="1:57" ht="16.5" customHeight="1">
-      <c r="A96" s="14">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="B96" s="15">
+      <c r="A96" s="14"/>
+      <c r="B96" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -14501,11 +14096,8 @@
       <c r="BE96" s="25"/>
     </row>
     <row r="97" spans="1:57" ht="16.5" customHeight="1">
-      <c r="A97" s="14">
-        <f t="shared" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="B97" s="15">
+      <c r="A97" s="14"/>
+      <c r="B97" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -14593,11 +14185,8 @@
       <c r="BE97" s="25"/>
     </row>
     <row r="98" spans="1:57" ht="16.5" customHeight="1">
-      <c r="A98" s="14">
-        <f t="shared" si="3"/>
-        <v>92</v>
-      </c>
-      <c r="B98" s="15">
+      <c r="A98" s="14"/>
+      <c r="B98" s="23">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -14701,7 +14290,7 @@
     <row r="99" spans="1:57" ht="16.5" customHeight="1">
       <c r="A99" s="14">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B99" s="15">
         <f t="shared" si="1"/>
@@ -14735,16 +14324,26 @@
       <c r="N99" s="22"/>
       <c r="O99" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P99" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="Q99" s="20"/>
-      <c r="R99" s="20"/>
-      <c r="S99" s="19"/>
-      <c r="T99" s="20"/>
-      <c r="U99" s="20"/>
+      <c r="Q99" s="20">
+        <v>37</v>
+      </c>
+      <c r="R99" s="20">
+        <v>77.8</v>
+      </c>
+      <c r="S99" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="T99" s="20">
+        <v>140</v>
+      </c>
+      <c r="U99" s="20">
+        <v>189</v>
+      </c>
       <c r="V99" s="19"/>
       <c r="W99" s="20"/>
       <c r="X99" s="24"/>
@@ -14797,10 +14396,7 @@
       <c r="BE99" s="25"/>
     </row>
     <row r="100" spans="1:57" ht="16.5" customHeight="1">
-      <c r="A100" s="14">
-        <f t="shared" si="3"/>
-        <v>94</v>
-      </c>
+      <c r="A100" s="14"/>
       <c r="B100" s="15">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -14895,10 +14491,7 @@
       <c r="BE100" s="25"/>
     </row>
     <row r="101" spans="1:57" ht="16.5" customHeight="1">
-      <c r="A101" s="14">
-        <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
+      <c r="A101" s="14"/>
       <c r="B101" s="15">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -14989,10 +14582,7 @@
       <c r="BE101" s="25"/>
     </row>
     <row r="102" spans="1:57" ht="16.5" customHeight="1">
-      <c r="A102" s="14">
-        <f t="shared" si="3"/>
-        <v>96</v>
-      </c>
+      <c r="A102" s="14"/>
       <c r="B102" s="15">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -15085,7 +14675,7 @@
     <row r="103" spans="1:57" ht="16.5" customHeight="1">
       <c r="A103" s="14">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B103" s="15">
         <f t="shared" si="1"/>
@@ -15121,16 +14711,26 @@
       <c r="N103" s="22"/>
       <c r="O103" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P103" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="Q103" s="20"/>
-      <c r="R103" s="20"/>
-      <c r="S103" s="19"/>
-      <c r="T103" s="20"/>
-      <c r="U103" s="20"/>
+      <c r="Q103" s="20">
+        <v>37.6</v>
+      </c>
+      <c r="R103" s="20">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="S103" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="T103" s="20">
+        <v>126.2</v>
+      </c>
+      <c r="U103" s="20">
+        <v>177.8</v>
+      </c>
       <c r="V103" s="19"/>
       <c r="W103" s="20"/>
       <c r="X103" s="24"/>
@@ -15177,7 +14777,7 @@
     <row r="104" spans="1:57" ht="16.5" customHeight="1">
       <c r="A104" s="14">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B104" s="15">
         <f t="shared" si="1"/>
@@ -15213,16 +14813,26 @@
       <c r="N104" s="22"/>
       <c r="O104" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P104" s="15" t="s">
         <v>686</v>
       </c>
-      <c r="Q104" s="20"/>
-      <c r="R104" s="20"/>
-      <c r="S104" s="19"/>
-      <c r="T104" s="20"/>
-      <c r="U104" s="20"/>
+      <c r="Q104" s="20">
+        <v>43.9</v>
+      </c>
+      <c r="R104" s="20">
+        <v>90.2</v>
+      </c>
+      <c r="S104" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="T104" s="20">
+        <v>150.30000000000001</v>
+      </c>
+      <c r="U104" s="20">
+        <v>200</v>
+      </c>
       <c r="V104" s="19"/>
       <c r="W104" s="20"/>
       <c r="X104" s="24"/>
@@ -15269,7 +14879,7 @@
     <row r="105" spans="1:57" ht="16.5" customHeight="1">
       <c r="A105" s="14">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B105" s="15">
         <f t="shared" si="1"/>
@@ -15305,16 +14915,26 @@
       <c r="N105" s="22"/>
       <c r="O105" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P105" s="15" t="s">
         <v>695</v>
       </c>
-      <c r="Q105" s="20"/>
-      <c r="R105" s="20"/>
-      <c r="S105" s="19"/>
-      <c r="T105" s="20"/>
-      <c r="U105" s="20"/>
+      <c r="Q105" s="20">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="R105" s="20">
+        <v>114.7</v>
+      </c>
+      <c r="S105" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="T105" s="20">
+        <v>119.5</v>
+      </c>
+      <c r="U105" s="20">
+        <v>168</v>
+      </c>
       <c r="V105" s="19"/>
       <c r="W105" s="20"/>
       <c r="X105" s="24"/>
@@ -15359,7 +14979,7 @@
     <row r="106" spans="1:57" ht="16.5" customHeight="1">
       <c r="A106" s="14">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B106" s="15">
         <f t="shared" si="1"/>
@@ -15395,16 +15015,26 @@
       <c r="N106" s="22"/>
       <c r="O106" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P106" s="15" t="s">
         <v>704</v>
       </c>
-      <c r="Q106" s="20"/>
-      <c r="R106" s="20"/>
-      <c r="S106" s="19"/>
-      <c r="T106" s="20"/>
-      <c r="U106" s="20"/>
+      <c r="Q106" s="20">
+        <v>40.5</v>
+      </c>
+      <c r="R106" s="20">
+        <v>85.5</v>
+      </c>
+      <c r="S106" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="T106" s="20">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="U106" s="20">
+        <v>169.8</v>
+      </c>
       <c r="V106" s="19"/>
       <c r="W106" s="20"/>
       <c r="X106" s="24"/>
@@ -15453,7 +15083,7 @@
     <row r="107" spans="1:57" ht="16.5" customHeight="1">
       <c r="A107" s="14">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B107" s="15">
         <f t="shared" si="1"/>
@@ -15489,16 +15119,26 @@
       <c r="N107" s="22"/>
       <c r="O107" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P107" s="15" t="s">
         <v>710</v>
       </c>
-      <c r="Q107" s="20"/>
-      <c r="R107" s="20"/>
-      <c r="S107" s="19"/>
-      <c r="T107" s="20"/>
-      <c r="U107" s="20"/>
+      <c r="Q107" s="20">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="R107" s="20">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="S107" s="23" t="s">
+        <v>710</v>
+      </c>
+      <c r="T107" s="20">
+        <v>162.1</v>
+      </c>
+      <c r="U107" s="20">
+        <v>205.4</v>
+      </c>
       <c r="V107" s="19"/>
       <c r="W107" s="20"/>
       <c r="X107" s="24"/>
@@ -15543,10 +15183,7 @@
       <c r="BE107" s="25"/>
     </row>
     <row r="108" spans="1:57" ht="16.5" customHeight="1">
-      <c r="A108" s="14">
-        <f t="shared" si="3"/>
-        <v>102</v>
-      </c>
+      <c r="A108" s="14"/>
       <c r="B108" s="15">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -15639,7 +15276,7 @@
     <row r="109" spans="1:57" ht="16.5" customHeight="1">
       <c r="A109" s="14">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B109" s="15">
         <f t="shared" si="1"/>
@@ -15680,8 +15317,12 @@
       <c r="P109" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="Q109" s="20"/>
-      <c r="R109" s="20"/>
+      <c r="Q109" s="20">
+        <v>37.5</v>
+      </c>
+      <c r="R109" s="20">
+        <v>82.2</v>
+      </c>
       <c r="S109" s="19"/>
       <c r="T109" s="20"/>
       <c r="U109" s="20"/>
@@ -15729,7 +15370,7 @@
     <row r="110" spans="1:57" ht="16.5" customHeight="1">
       <c r="A110" s="14">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B110" s="15">
         <f t="shared" si="1"/>
@@ -15765,16 +15406,26 @@
       <c r="N110" s="22"/>
       <c r="O110" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P110" s="15" t="s">
         <v>718</v>
       </c>
-      <c r="Q110" s="20"/>
-      <c r="R110" s="20"/>
-      <c r="S110" s="19"/>
-      <c r="T110" s="20"/>
-      <c r="U110" s="20"/>
+      <c r="Q110" s="20">
+        <v>56</v>
+      </c>
+      <c r="R110" s="20">
+        <v>110.4</v>
+      </c>
+      <c r="S110" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="T110" s="20">
+        <v>140.6</v>
+      </c>
+      <c r="U110" s="20">
+        <v>183.8</v>
+      </c>
       <c r="V110" s="19"/>
       <c r="W110" s="20"/>
       <c r="X110" s="24"/>
@@ -15825,7 +15476,7 @@
     <row r="111" spans="1:57" ht="16.5" customHeight="1">
       <c r="A111" s="14">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B111" s="15">
         <f t="shared" si="1"/>
@@ -15861,19 +15512,35 @@
       <c r="N111" s="22"/>
       <c r="O111" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P111" s="29" t="s">
         <v>722</v>
       </c>
-      <c r="Q111" s="20"/>
-      <c r="R111" s="20"/>
-      <c r="S111" s="19"/>
-      <c r="T111" s="20"/>
-      <c r="U111" s="20"/>
-      <c r="V111" s="19"/>
-      <c r="W111" s="20"/>
-      <c r="X111" s="24"/>
+      <c r="Q111" s="20">
+        <v>61.3</v>
+      </c>
+      <c r="R111" s="20">
+        <v>105.7</v>
+      </c>
+      <c r="S111" s="29" t="s">
+        <v>722</v>
+      </c>
+      <c r="T111" s="20">
+        <v>120</v>
+      </c>
+      <c r="U111" s="20">
+        <v>163.4</v>
+      </c>
+      <c r="V111" s="29" t="s">
+        <v>722</v>
+      </c>
+      <c r="W111" s="20">
+        <v>192.6</v>
+      </c>
+      <c r="X111" s="24">
+        <v>242.6</v>
+      </c>
       <c r="Y111" s="20"/>
       <c r="Z111" s="20"/>
       <c r="AA111" s="20"/>
@@ -68392,4038 +68059,4039 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE4DC10-EF45-46E3-8482-CAFC42ADC8B1}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76:H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="48"/>
-    <col min="2" max="2" width="9.140625" style="68"/>
-    <col min="3" max="7" width="9.140625" style="48"/>
-    <col min="8" max="11" width="35.7109375" style="48" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="48"/>
+    <col min="1" max="1" width="9.140625" style="39"/>
+    <col min="2" max="2" width="9.140625" style="57"/>
+    <col min="3" max="7" width="9.140625" style="39"/>
+    <col min="8" max="11" width="35.7109375" style="39" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="46" t="str">
+      <c r="A1" s="37" t="str">
         <f>CONCATENATE("총 ", MAX($A$3:$A$12711),"곡")</f>
         <v>총 1곡</v>
       </c>
-      <c r="B1" s="64" t="s">
-        <v>857</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="B1" s="67" t="s">
+        <v>824</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>860</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>858</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>859</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>861</v>
-      </c>
-      <c r="F2" s="51" t="s">
+      <c r="B2" s="55" t="s">
+        <v>827</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>825</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>826</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>828</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>724</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="43" t="s">
         <v>725</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="44" t="s">
         <v>726</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="45" t="s">
         <v>727</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="44" t="s">
         <v>728</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="45" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18.75">
-      <c r="A4" s="57">
+    <row r="4" spans="1:13" ht="16.5">
+      <c r="A4" s="48">
         <f>IF(F4&lt;&gt;"",IF(F4&lt;&gt;F3,MAX($A$2:A3)+1,A3),"")</f>
         <v>1</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="56">
         <f>C4*60+D4+E4*0.001</f>
         <v>0.33900000000000002</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="39">
         <v>339</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H4" s="48" t="s">
-        <v>826</v>
-      </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="18.75">
-      <c r="A5" s="57">
+      <c r="H4" s="39" t="s">
+        <v>821</v>
+      </c>
+      <c r="I4" s="52"/>
+      <c r="J4" s="39" t="s">
+        <v>843</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5">
+      <c r="A5" s="48">
         <f>IF(F5&lt;&gt;"",IF(F5&lt;&gt;F4,MAX($A$2:A4)+1,A4),"")</f>
         <v>1</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="56">
         <f t="shared" ref="B5:B68" si="0">C5*60+D5+E5*0.001</f>
         <v>20.640999999999998</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="39">
         <v>20</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="39">
         <v>641</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H5" s="48" t="s">
-        <v>734</v>
-      </c>
-      <c r="J5" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="57">
+      <c r="H5" s="39" t="s">
+        <v>732</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5">
+      <c r="A6" s="48">
         <f>IF(F6&lt;&gt;"",IF(F6&lt;&gt;F5,MAX($A$2:A5)+1,A5),"")</f>
         <v>1</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="56">
         <f t="shared" si="0"/>
         <v>21.074000000000002</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="39">
         <v>21</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="39">
         <v>74</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H6" s="48" t="s">
-        <v>735</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>758</v>
-      </c>
-      <c r="J6" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="K6" s="56" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18.75">
-      <c r="A7" s="57">
+      <c r="H6" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>756</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5">
+      <c r="A7" s="48">
         <f>IF(F7&lt;&gt;"",IF(F7&lt;&gt;F6,MAX($A$2:A6)+1,A6),"")</f>
         <v>1</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="56">
         <f t="shared" si="0"/>
         <v>23.196000000000002</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="39">
         <v>23</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="39">
         <v>196</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H7" s="48" t="s">
-        <v>736</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>737</v>
-      </c>
-      <c r="J7" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="K7" s="56" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="18.75">
-      <c r="A8" s="57">
+      <c r="H7" s="39" t="s">
+        <v>734</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>735</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5">
+      <c r="A8" s="48">
         <f>IF(F8&lt;&gt;"",IF(F8&lt;&gt;F7,MAX($A$2:A7)+1,A7),"")</f>
         <v>1</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="56">
         <f t="shared" si="0"/>
         <v>25.620999999999999</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="39">
         <v>25</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="39">
         <v>621</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H8" s="48" t="s">
-        <v>738</v>
-      </c>
-      <c r="J8" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="K8" s="56" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="18.75">
-      <c r="A9" s="57">
+      <c r="H8" s="39" t="s">
+        <v>736</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5">
+      <c r="A9" s="48">
         <f>IF(F9&lt;&gt;"",IF(F9&lt;&gt;F8,MAX($A$2:A8)+1,A8),"")</f>
         <v>1</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="56">
         <f t="shared" si="0"/>
         <v>26.14</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="39">
         <v>26</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="39">
         <v>140</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H9" s="48" t="s">
-        <v>739</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>740</v>
-      </c>
-      <c r="J9" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="K9" s="56" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18.75">
-      <c r="A10" s="57">
+      <c r="H9" s="39" t="s">
+        <v>737</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>738</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5">
+      <c r="A10" s="48">
         <f>IF(F10&lt;&gt;"",IF(F10&lt;&gt;F9,MAX($A$2:A9)+1,A9),"")</f>
         <v>1</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="56">
         <f t="shared" si="0"/>
         <v>27.713999999999999</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="39">
         <v>27</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="39">
         <v>714</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H10" s="48" t="s">
-        <v>741</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>742</v>
-      </c>
-      <c r="J10" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="K10" s="56" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18.75">
-      <c r="A11" s="57">
+      <c r="H10" s="39" t="s">
+        <v>739</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>740</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.5">
+      <c r="A11" s="48">
         <f>IF(F11&lt;&gt;"",IF(F11&lt;&gt;F10,MAX($A$2:A10)+1,A10),"")</f>
         <v>1</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="56">
         <f t="shared" si="0"/>
         <v>29.922000000000001</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="39">
         <v>29</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="39">
         <v>922</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H11" s="48" t="s">
-        <v>743</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>744</v>
-      </c>
-      <c r="J11" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="K11" s="56" t="s">
-        <v>828</v>
-      </c>
-      <c r="M11" s="68"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75">
-      <c r="A12" s="57">
+      <c r="H11" s="39" t="s">
+        <v>741</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>742</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>830</v>
+      </c>
+      <c r="M11" s="57"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5">
+      <c r="A12" s="48">
         <f>IF(F12&lt;&gt;"",IF(F12&lt;&gt;F11,MAX($A$2:A11)+1,A11),"")</f>
         <v>1</v>
       </c>
-      <c r="B12" s="67">
+      <c r="B12" s="56">
         <f t="shared" si="0"/>
         <v>30.745000000000001</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="39">
         <v>30</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="39">
         <v>745</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H12" s="48" t="s">
-        <v>829</v>
-      </c>
-      <c r="J12" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="K12" s="56" t="s">
-        <v>828</v>
-      </c>
-      <c r="M12" s="68"/>
-    </row>
-    <row r="13" spans="1:13" ht="18.75">
-      <c r="A13" s="57">
+      <c r="H12" s="39" t="s">
+        <v>822</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>830</v>
+      </c>
+      <c r="M12" s="57"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5">
+      <c r="A13" s="48">
         <f>IF(F13&lt;&gt;"",IF(F13&lt;&gt;F12,MAX($A$2:A12)+1,A12),"")</f>
         <v>1</v>
       </c>
-      <c r="B13" s="67">
+      <c r="B13" s="56">
         <f t="shared" si="0"/>
         <v>31.292999999999999</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="39">
         <v>31</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="39">
         <v>293</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H13" s="60" t="s">
-        <v>825</v>
-      </c>
-      <c r="J13" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="K13" s="56" t="s">
-        <v>828</v>
-      </c>
-      <c r="M13" s="68"/>
-    </row>
-    <row r="14" spans="1:13" ht="18.75">
-      <c r="A14" s="57">
+      <c r="H13" s="51" t="s">
+        <v>820</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="K13" s="47" t="s">
+        <v>830</v>
+      </c>
+      <c r="M13" s="57"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5">
+      <c r="A14" s="48">
         <f>IF(F14&lt;&gt;"",IF(F14&lt;&gt;F13,MAX($A$2:A13)+1,A13),"")</f>
         <v>1</v>
       </c>
-      <c r="B14" s="67">
+      <c r="B14" s="56">
         <f t="shared" si="0"/>
         <v>31.965</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="39">
         <v>31</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="39">
         <v>965</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H14" s="48" t="s">
-        <v>829</v>
-      </c>
-      <c r="J14" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="K14" s="56" t="s">
-        <v>828</v>
-      </c>
-      <c r="M14" s="68"/>
-    </row>
-    <row r="15" spans="1:13" ht="18.75">
-      <c r="A15" s="57">
+      <c r="H14" s="39" t="s">
+        <v>822</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>830</v>
+      </c>
+      <c r="M14" s="57"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5">
+      <c r="A15" s="48">
         <f>IF(F15&lt;&gt;"",IF(F15&lt;&gt;F14,MAX($A$2:A14)+1,A14),"")</f>
         <v>1</v>
       </c>
-      <c r="B15" s="67">
+      <c r="B15" s="56">
         <f t="shared" si="0"/>
         <v>32.512999999999998</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="39">
         <v>32</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="39">
         <v>513</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H15" s="60" t="s">
-        <v>825</v>
-      </c>
-      <c r="J15" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="K15" s="56" t="s">
-        <v>828</v>
-      </c>
-      <c r="M15" s="68"/>
-    </row>
-    <row r="16" spans="1:13" ht="18.75">
-      <c r="A16" s="57">
+      <c r="H15" s="51" t="s">
+        <v>820</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="K15" s="47" t="s">
+        <v>830</v>
+      </c>
+      <c r="M15" s="57"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5">
+      <c r="A16" s="48">
         <f>IF(F16&lt;&gt;"",IF(F16&lt;&gt;F15,MAX($A$2:A15)+1,A15),"")</f>
         <v>1</v>
       </c>
-      <c r="B16" s="67">
+      <c r="B16" s="56">
         <f t="shared" si="0"/>
         <v>33.195</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="39">
         <v>33</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="39">
         <v>195</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H16" s="48" t="s">
-        <v>829</v>
-      </c>
-      <c r="J16" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="K16" s="56" t="s">
-        <v>828</v>
-      </c>
-      <c r="M16" s="68"/>
-    </row>
-    <row r="17" spans="1:13" ht="18.75">
-      <c r="A17" s="57">
+      <c r="H16" s="39" t="s">
+        <v>822</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>830</v>
+      </c>
+      <c r="M16" s="57"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5">
+      <c r="A17" s="48">
         <f>IF(F17&lt;&gt;"",IF(F17&lt;&gt;F16,MAX($A$2:A16)+1,A16),"")</f>
         <v>1</v>
       </c>
-      <c r="B17" s="67">
+      <c r="B17" s="56">
         <f t="shared" si="0"/>
         <v>33.776000000000003</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="39">
         <v>33</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="39">
         <v>776</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H17" s="60" t="s">
-        <v>825</v>
-      </c>
-      <c r="J17" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="K17" s="56" t="s">
-        <v>828</v>
-      </c>
-      <c r="M17" s="68"/>
-    </row>
-    <row r="18" spans="1:13" ht="18.75">
-      <c r="A18" s="57">
+      <c r="H17" s="51" t="s">
+        <v>820</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="K17" s="47" t="s">
+        <v>830</v>
+      </c>
+      <c r="M17" s="57"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5">
+      <c r="A18" s="48">
         <f>IF(F18&lt;&gt;"",IF(F18&lt;&gt;F17,MAX($A$2:A17)+1,A17),"")</f>
         <v>1</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="56">
         <f t="shared" si="0"/>
         <v>34.429000000000002</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="39">
         <v>34</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="39">
         <v>429</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H18" s="48" t="s">
-        <v>829</v>
-      </c>
-      <c r="J18" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="K18" s="56" t="s">
-        <v>828</v>
-      </c>
-      <c r="M18" s="68"/>
-    </row>
-    <row r="19" spans="1:13" ht="18.75">
-      <c r="A19" s="57">
+      <c r="H18" s="39" t="s">
+        <v>822</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>830</v>
+      </c>
+      <c r="M18" s="57"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5">
+      <c r="A19" s="48">
         <f>IF(F19&lt;&gt;"",IF(F19&lt;&gt;F18,MAX($A$2:A18)+1,A18),"")</f>
         <v>1</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="56">
         <f t="shared" si="0"/>
         <v>34.97</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="39">
         <v>34</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="39">
         <v>970</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H19" s="60" t="s">
-        <v>825</v>
-      </c>
-      <c r="J19" s="62" t="s">
-        <v>827</v>
-      </c>
-      <c r="K19" s="56" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="18.75">
-      <c r="A20" s="57">
+      <c r="H19" s="51" t="s">
+        <v>820</v>
+      </c>
+      <c r="J19" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="K19" s="47" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16.5">
+      <c r="A20" s="48">
         <f>IF(F20&lt;&gt;"",IF(F20&lt;&gt;F19,MAX($A$2:A19)+1,A19),"")</f>
         <v>1</v>
       </c>
-      <c r="B20" s="67">
+      <c r="B20" s="56">
         <f t="shared" si="0"/>
         <v>35.79</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="39">
         <v>35</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="39">
         <v>790</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H20" s="48" t="s">
-        <v>757</v>
-      </c>
-      <c r="J20" s="62" t="s">
-        <v>830</v>
-      </c>
-      <c r="K20" s="56" t="s">
+      <c r="H20" s="39" t="s">
+        <v>755</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>845</v>
+      </c>
+      <c r="K20" s="47" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18.75">
-      <c r="A21" s="57">
+    <row r="21" spans="1:13" ht="16.5">
+      <c r="A21" s="48">
         <f>IF(F21&lt;&gt;"",IF(F21&lt;&gt;F20,MAX($A$2:A20)+1,A20),"")</f>
         <v>1</v>
       </c>
-      <c r="B21" s="67">
+      <c r="B21" s="56">
         <f t="shared" si="0"/>
         <v>36.344999999999999</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="39">
         <v>36</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="39">
         <v>345</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H21" s="48" t="s">
-        <v>745</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>746</v>
-      </c>
-      <c r="J21" s="62" t="s">
-        <v>830</v>
-      </c>
-      <c r="K21" s="56" t="s">
+      <c r="H21" s="39" t="s">
+        <v>743</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>845</v>
+      </c>
+      <c r="K21" s="47" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18.75">
-      <c r="A22" s="57">
+    <row r="22" spans="1:13" ht="16.5">
+      <c r="A22" s="48">
         <f>IF(F22&lt;&gt;"",IF(F22&lt;&gt;F21,MAX($A$2:A21)+1,A21),"")</f>
         <v>1</v>
       </c>
-      <c r="B22" s="67">
+      <c r="B22" s="56">
         <f t="shared" si="0"/>
         <v>37.835999999999999</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="39">
         <v>37</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="39">
         <v>836</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H22" s="48" t="s">
-        <v>747</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>748</v>
-      </c>
-      <c r="J22" s="62" t="s">
-        <v>830</v>
-      </c>
-      <c r="K22" s="56" t="s">
+      <c r="H22" s="39" t="s">
+        <v>745</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>746</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>845</v>
+      </c>
+      <c r="K22" s="47" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.75">
-      <c r="A23" s="57">
+    <row r="23" spans="1:13" ht="16.5">
+      <c r="A23" s="48">
         <f>IF(F23&lt;&gt;"",IF(F23&lt;&gt;F22,MAX($A$2:A22)+1,A22),"")</f>
         <v>1</v>
       </c>
-      <c r="B23" s="67">
+      <c r="B23" s="56">
         <f t="shared" si="0"/>
         <v>40.783999999999999</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="39">
         <v>40</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="39">
         <v>784</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H23" s="48" t="s">
-        <v>749</v>
-      </c>
-      <c r="I23" s="48" t="s">
-        <v>750</v>
-      </c>
-      <c r="J23" s="62" t="s">
-        <v>830</v>
-      </c>
-      <c r="K23" s="56" t="s">
+      <c r="H23" s="39" t="s">
+        <v>747</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>748</v>
+      </c>
+      <c r="J23" s="53" t="s">
+        <v>845</v>
+      </c>
+      <c r="K23" s="47" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18.75">
-      <c r="A24" s="57">
+    <row r="24" spans="1:13" ht="16.5">
+      <c r="A24" s="48">
         <f>IF(F24&lt;&gt;"",IF(F24&lt;&gt;F23,MAX($A$2:A23)+1,A23),"")</f>
         <v>1</v>
       </c>
-      <c r="B24" s="67">
+      <c r="B24" s="56">
         <f t="shared" si="0"/>
         <v>41.302999999999997</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="39">
         <v>41</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="39">
         <v>303</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H24" s="48" t="s">
-        <v>751</v>
-      </c>
-      <c r="I24" s="48" t="s">
-        <v>752</v>
-      </c>
-      <c r="J24" s="62" t="s">
-        <v>830</v>
-      </c>
-      <c r="K24" s="56" t="s">
+      <c r="H24" s="39" t="s">
+        <v>749</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>750</v>
+      </c>
+      <c r="J24" s="53" t="s">
+        <v>845</v>
+      </c>
+      <c r="K24" s="47" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.75">
-      <c r="A25" s="57">
+    <row r="25" spans="1:13" ht="16.5">
+      <c r="A25" s="48">
         <f>IF(F25&lt;&gt;"",IF(F25&lt;&gt;F24,MAX($A$2:A24)+1,A24),"")</f>
         <v>1</v>
       </c>
-      <c r="B25" s="67">
+      <c r="B25" s="56">
         <f t="shared" si="0"/>
         <v>42.826000000000001</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="39">
         <v>42</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="39">
         <v>826</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H25" s="48" t="s">
-        <v>753</v>
-      </c>
-      <c r="I25" s="48" t="s">
-        <v>754</v>
-      </c>
-      <c r="J25" s="62" t="s">
-        <v>830</v>
-      </c>
-      <c r="K25" s="56" t="s">
+      <c r="H25" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>752</v>
+      </c>
+      <c r="J25" s="53" t="s">
+        <v>845</v>
+      </c>
+      <c r="K25" s="47" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18.75">
-      <c r="A26" s="57">
+    <row r="26" spans="1:13" ht="16.5">
+      <c r="A26" s="48">
         <f>IF(F26&lt;&gt;"",IF(F26&lt;&gt;F25,MAX($A$2:A25)+1,A25),"")</f>
         <v>1</v>
       </c>
-      <c r="B26" s="67">
+      <c r="B26" s="56">
         <f t="shared" si="0"/>
         <v>44.601999999999997</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="39">
         <v>44</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="39">
         <v>602</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H26" s="48" t="s">
-        <v>755</v>
-      </c>
-      <c r="I26" s="48" t="s">
-        <v>756</v>
-      </c>
-      <c r="J26" s="62" t="s">
-        <v>830</v>
-      </c>
-      <c r="K26" s="56" t="s">
+      <c r="H26" s="39" t="s">
+        <v>753</v>
+      </c>
+      <c r="I26" s="39" t="s">
+        <v>754</v>
+      </c>
+      <c r="J26" s="53" t="s">
+        <v>845</v>
+      </c>
+      <c r="K26" s="47" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18.75">
-      <c r="A27" s="57">
+    <row r="27" spans="1:13" ht="16.5">
+      <c r="A27" s="48">
         <f>IF(F27&lt;&gt;"",IF(F27&lt;&gt;F26,MAX($A$2:A26)+1,A26),"")</f>
         <v>1</v>
       </c>
-      <c r="B27" s="67">
+      <c r="B27" s="56">
         <f t="shared" si="0"/>
         <v>45.908000000000001</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="39">
         <v>45</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="39">
         <v>908</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H27" s="48" t="s">
-        <v>855</v>
-      </c>
-      <c r="J27" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K27" s="56" t="s">
+      <c r="H27" s="39" t="s">
+        <v>857</v>
+      </c>
+      <c r="J27" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K27" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18.75">
-      <c r="A28" s="57">
+    <row r="28" spans="1:13" ht="16.5">
+      <c r="A28" s="48">
         <f>IF(F28&lt;&gt;"",IF(F28&lt;&gt;F27,MAX($A$2:A27)+1,A27),"")</f>
         <v>1</v>
       </c>
-      <c r="B28" s="67">
+      <c r="B28" s="56">
         <f t="shared" si="0"/>
         <v>46.42</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="39">
         <v>46</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="39">
         <v>420</v>
       </c>
-      <c r="F28" s="48" t="s">
+      <c r="F28" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H28" s="48" t="s">
-        <v>855</v>
-      </c>
-      <c r="J28" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K28" s="56" t="s">
+      <c r="H28" s="39" t="s">
+        <v>858</v>
+      </c>
+      <c r="J28" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K28" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18.75">
-      <c r="A29" s="57">
+    <row r="29" spans="1:13" ht="16.5">
+      <c r="A29" s="48">
         <f>IF(F29&lt;&gt;"",IF(F29&lt;&gt;F28,MAX($A$2:A28)+1,A28),"")</f>
         <v>1</v>
       </c>
-      <c r="B29" s="67">
+      <c r="B29" s="56">
         <f t="shared" si="0"/>
         <v>47.128</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="39">
         <v>47</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="39">
         <v>128</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H29" s="48" t="s">
-        <v>855</v>
-      </c>
-      <c r="J29" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K29" s="56" t="s">
+      <c r="H29" s="39" t="s">
+        <v>859</v>
+      </c>
+      <c r="J29" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K29" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18.75">
-      <c r="A30" s="57">
+    <row r="30" spans="1:13" ht="16.5">
+      <c r="A30" s="48">
         <f>IF(F30&lt;&gt;"",IF(F30&lt;&gt;F29,MAX($A$2:A29)+1,A29),"")</f>
         <v>1</v>
       </c>
-      <c r="B30" s="67">
+      <c r="B30" s="56">
         <f t="shared" si="0"/>
         <v>47.488999999999997</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="39">
         <v>47</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="39">
         <v>489</v>
       </c>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H30" s="48" t="s">
-        <v>855</v>
-      </c>
-      <c r="J30" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K30" s="56" t="s">
+      <c r="H30" s="39" t="s">
+        <v>860</v>
+      </c>
+      <c r="J30" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K30" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18.75">
-      <c r="A31" s="57">
+    <row r="31" spans="1:13" ht="16.5">
+      <c r="A31" s="48">
         <f>IF(F31&lt;&gt;"",IF(F31&lt;&gt;F30,MAX($A$2:A30)+1,A30),"")</f>
         <v>1</v>
       </c>
-      <c r="B31" s="67">
+      <c r="B31" s="56">
         <f t="shared" si="0"/>
         <v>47.798999999999999</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="39">
         <v>47</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="39">
         <v>799</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H31" s="48" t="s">
-        <v>855</v>
-      </c>
-      <c r="J31" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K31" s="56" t="s">
+      <c r="H31" s="39" t="s">
+        <v>861</v>
+      </c>
+      <c r="J31" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K31" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18.75">
-      <c r="A32" s="57">
+    <row r="32" spans="1:13" ht="16.5">
+      <c r="A32" s="48">
         <f>IF(F32&lt;&gt;"",IF(F32&lt;&gt;F31,MAX($A$2:A31)+1,A31),"")</f>
         <v>1</v>
       </c>
-      <c r="B32" s="67">
+      <c r="B32" s="56">
         <f t="shared" si="0"/>
         <v>48.427</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="39">
         <v>48</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="39">
         <v>427</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H32" s="48" t="s">
-        <v>759</v>
-      </c>
-      <c r="J32" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K32" s="56" t="s">
+      <c r="H32" s="39" t="s">
+        <v>868</v>
+      </c>
+      <c r="J32" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K32" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="18.75">
-      <c r="A33" s="57">
+    <row r="33" spans="1:11" ht="16.5">
+      <c r="A33" s="48">
         <f>IF(F33&lt;&gt;"",IF(F33&lt;&gt;F32,MAX($A$2:A32)+1,A32),"")</f>
         <v>1</v>
       </c>
-      <c r="B33" s="67">
+      <c r="B33" s="56">
         <f t="shared" si="0"/>
         <v>48.755000000000003</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="39">
         <v>48</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="39">
         <v>755</v>
       </c>
-      <c r="F33" s="48" t="s">
+      <c r="F33" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G33" s="55" t="s">
+      <c r="G33" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H33" s="48" t="s">
-        <v>759</v>
-      </c>
-      <c r="J33" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K33" s="56" t="s">
+      <c r="H33" s="39" t="s">
+        <v>867</v>
+      </c>
+      <c r="J33" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K33" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="18.75">
-      <c r="A34" s="57">
+    <row r="34" spans="1:11" ht="16.5">
+      <c r="A34" s="48">
         <f>IF(F34&lt;&gt;"",IF(F34&lt;&gt;F33,MAX($A$2:A33)+1,A33),"")</f>
         <v>1</v>
       </c>
-      <c r="B34" s="67">
+      <c r="B34" s="56">
         <f t="shared" si="0"/>
         <v>49.061999999999998</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="39">
         <v>49</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="39">
         <v>62</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G34" s="55" t="s">
+      <c r="G34" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H34" s="48" t="s">
-        <v>759</v>
-      </c>
-      <c r="J34" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K34" s="56" t="s">
+      <c r="H34" s="39" t="s">
+        <v>866</v>
+      </c>
+      <c r="J34" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K34" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="18.75">
-      <c r="A35" s="57">
+    <row r="35" spans="1:11" ht="16.5">
+      <c r="A35" s="48">
         <f>IF(F35&lt;&gt;"",IF(F35&lt;&gt;F34,MAX($A$2:A34)+1,A34),"")</f>
         <v>1</v>
       </c>
-      <c r="B35" s="67">
+      <c r="B35" s="56">
         <f t="shared" si="0"/>
         <v>49.387</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="39">
         <v>49</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="39">
         <v>387</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="F35" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G35" s="55" t="s">
+      <c r="G35" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H35" s="48" t="s">
-        <v>759</v>
-      </c>
-      <c r="J35" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K35" s="56" t="s">
+      <c r="H35" s="39" t="s">
+        <v>865</v>
+      </c>
+      <c r="J35" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K35" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="18.75">
-      <c r="A36" s="57">
+    <row r="36" spans="1:11" ht="16.5">
+      <c r="A36" s="48">
         <f>IF(F36&lt;&gt;"",IF(F36&lt;&gt;F35,MAX($A$2:A35)+1,A35),"")</f>
         <v>1</v>
       </c>
-      <c r="B36" s="67">
+      <c r="B36" s="56">
         <f t="shared" si="0"/>
         <v>49.692999999999998</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="39">
         <v>49</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="39">
         <v>693</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G36" s="55" t="s">
+      <c r="G36" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H36" s="48" t="s">
-        <v>759</v>
-      </c>
-      <c r="J36" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K36" s="56" t="s">
+      <c r="H36" s="39" t="s">
+        <v>864</v>
+      </c>
+      <c r="J36" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K36" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="18.75">
-      <c r="A37" s="57">
+    <row r="37" spans="1:11" ht="16.5">
+      <c r="A37" s="48">
         <f>IF(F37&lt;&gt;"",IF(F37&lt;&gt;F36,MAX($A$2:A36)+1,A36),"")</f>
         <v>1</v>
       </c>
-      <c r="B37" s="67">
+      <c r="B37" s="56">
         <f t="shared" si="0"/>
         <v>50.015000000000001</v>
       </c>
-      <c r="D37" s="48">
+      <c r="D37" s="39">
         <v>50</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="39">
         <v>15</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G37" s="55" t="s">
+      <c r="G37" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H37" s="48" t="s">
-        <v>759</v>
-      </c>
-      <c r="J37" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K37" s="56" t="s">
+      <c r="H37" s="39" t="s">
+        <v>863</v>
+      </c>
+      <c r="J37" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K37" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18.75">
-      <c r="A38" s="57">
+    <row r="38" spans="1:11" ht="16.5">
+      <c r="A38" s="48">
         <f>IF(F38&lt;&gt;"",IF(F38&lt;&gt;F37,MAX($A$2:A37)+1,A37),"")</f>
         <v>1</v>
       </c>
-      <c r="B38" s="67">
+      <c r="B38" s="56">
         <f t="shared" si="0"/>
         <v>50.328000000000003</v>
       </c>
-      <c r="D38" s="48">
+      <c r="D38" s="39">
         <v>50</v>
       </c>
-      <c r="E38" s="48">
+      <c r="E38" s="39">
         <v>328</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="F38" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G38" s="55" t="s">
+      <c r="G38" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H38" s="48" t="s">
-        <v>759</v>
-      </c>
-      <c r="J38" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K38" s="56" t="s">
+      <c r="H38" s="39" t="s">
+        <v>862</v>
+      </c>
+      <c r="J38" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K38" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18.75">
-      <c r="A39" s="57">
+    <row r="39" spans="1:11" ht="16.5">
+      <c r="A39" s="48">
         <f>IF(F39&lt;&gt;"",IF(F39&lt;&gt;F38,MAX($A$2:A38)+1,A38),"")</f>
         <v>1</v>
       </c>
-      <c r="B39" s="67">
+      <c r="B39" s="56">
         <f t="shared" si="0"/>
         <v>50.942</v>
       </c>
-      <c r="D39" s="48">
+      <c r="D39" s="39">
         <v>50</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="39">
         <v>942</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G39" s="55" t="s">
+      <c r="G39" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H39" s="48" t="s">
-        <v>856</v>
-      </c>
-      <c r="J39" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K39" s="56" t="s">
+      <c r="H39" s="39" t="s">
+        <v>880</v>
+      </c>
+      <c r="J39" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K39" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="18.75">
-      <c r="A40" s="57">
+    <row r="40" spans="1:11" ht="16.5">
+      <c r="A40" s="48">
         <f>IF(F40&lt;&gt;"",IF(F40&lt;&gt;F39,MAX($A$2:A39)+1,A39),"")</f>
         <v>1</v>
       </c>
-      <c r="B40" s="67">
+      <c r="B40" s="56">
         <f t="shared" si="0"/>
         <v>51.469000000000001</v>
       </c>
-      <c r="D40" s="48">
+      <c r="D40" s="39">
         <v>51</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="39">
         <v>469</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G40" s="55" t="s">
+      <c r="G40" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H40" s="48" t="s">
-        <v>856</v>
-      </c>
-      <c r="J40" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K40" s="56" t="s">
+      <c r="H40" s="39" t="s">
+        <v>879</v>
+      </c>
+      <c r="J40" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K40" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="18.75">
-      <c r="A41" s="57">
+    <row r="41" spans="1:11" ht="16.5">
+      <c r="A41" s="48">
         <f>IF(F41&lt;&gt;"",IF(F41&lt;&gt;F40,MAX($A$2:A40)+1,A40),"")</f>
         <v>1</v>
       </c>
-      <c r="B41" s="67">
+      <c r="B41" s="56">
         <f t="shared" si="0"/>
         <v>52.194000000000003</v>
       </c>
-      <c r="D41" s="48">
+      <c r="D41" s="39">
         <v>52</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="39">
         <v>194</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G41" s="55" t="s">
+      <c r="G41" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H41" s="48" t="s">
-        <v>856</v>
-      </c>
-      <c r="J41" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K41" s="56" t="s">
+      <c r="H41" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="J41" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K41" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="18.75">
-      <c r="A42" s="57">
+    <row r="42" spans="1:11" ht="16.5">
+      <c r="A42" s="48">
         <f>IF(F42&lt;&gt;"",IF(F42&lt;&gt;F41,MAX($A$2:A41)+1,A41),"")</f>
         <v>1</v>
       </c>
-      <c r="B42" s="67">
+      <c r="B42" s="56">
         <f t="shared" si="0"/>
         <v>52.503999999999998</v>
       </c>
-      <c r="D42" s="48">
+      <c r="D42" s="39">
         <v>52</v>
       </c>
-      <c r="E42" s="48">
+      <c r="E42" s="39">
         <v>504</v>
       </c>
-      <c r="F42" s="48" t="s">
+      <c r="F42" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G42" s="55" t="s">
+      <c r="G42" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H42" s="48" t="s">
-        <v>856</v>
-      </c>
-      <c r="J42" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K42" s="56" t="s">
+      <c r="H42" s="39" t="s">
+        <v>877</v>
+      </c>
+      <c r="J42" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K42" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="18.75">
-      <c r="A43" s="57">
+    <row r="43" spans="1:11" ht="16.5">
+      <c r="A43" s="48">
         <f>IF(F43&lt;&gt;"",IF(F43&lt;&gt;F42,MAX($A$2:A42)+1,A42),"")</f>
         <v>1</v>
       </c>
-      <c r="B43" s="67">
+      <c r="B43" s="56">
         <f t="shared" si="0"/>
         <v>52.826000000000001</v>
       </c>
-      <c r="D43" s="48">
+      <c r="D43" s="39">
         <v>52</v>
       </c>
-      <c r="E43" s="48">
+      <c r="E43" s="39">
         <v>826</v>
       </c>
-      <c r="F43" s="48" t="s">
+      <c r="F43" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H43" s="48" t="s">
-        <v>856</v>
-      </c>
-      <c r="J43" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K43" s="56" t="s">
+      <c r="H43" s="39" t="s">
+        <v>876</v>
+      </c>
+      <c r="J43" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K43" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="18.75">
-      <c r="A44" s="57">
+    <row r="44" spans="1:11" ht="16.5">
+      <c r="A44" s="48">
         <f>IF(F44&lt;&gt;"",IF(F44&lt;&gt;F43,MAX($A$2:A43)+1,A43),"")</f>
         <v>1</v>
       </c>
-      <c r="B44" s="67">
+      <c r="B44" s="56">
         <f t="shared" si="0"/>
         <v>53.470999999999997</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="39">
         <v>53</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="39">
         <v>471</v>
       </c>
-      <c r="F44" s="48" t="s">
+      <c r="F44" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G44" s="55" t="s">
+      <c r="G44" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H44" s="48" t="s">
-        <v>760</v>
-      </c>
-      <c r="J44" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K44" s="56" t="s">
+      <c r="H44" s="39" t="s">
+        <v>875</v>
+      </c>
+      <c r="J44" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K44" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="18.75">
-      <c r="A45" s="57">
+    <row r="45" spans="1:11" ht="16.5">
+      <c r="A45" s="48">
         <f>IF(F45&lt;&gt;"",IF(F45&lt;&gt;F44,MAX($A$2:A44)+1,A44),"")</f>
         <v>1</v>
       </c>
-      <c r="B45" s="67">
+      <c r="B45" s="56">
         <f t="shared" si="0"/>
         <v>53.807000000000002</v>
       </c>
-      <c r="D45" s="48">
+      <c r="D45" s="39">
         <v>53</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="39">
         <v>807</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="F45" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G45" s="55" t="s">
+      <c r="G45" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H45" s="48" t="s">
-        <v>760</v>
-      </c>
-      <c r="J45" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K45" s="56" t="s">
+      <c r="H45" s="39" t="s">
+        <v>874</v>
+      </c>
+      <c r="J45" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K45" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="18.75">
-      <c r="A46" s="57">
+    <row r="46" spans="1:11" ht="16.5">
+      <c r="A46" s="48">
         <f>IF(F46&lt;&gt;"",IF(F46&lt;&gt;F45,MAX($A$2:A45)+1,A45),"")</f>
         <v>1</v>
       </c>
-      <c r="B46" s="67">
+      <c r="B46" s="56">
         <f t="shared" si="0"/>
         <v>54.113999999999997</v>
       </c>
-      <c r="D46" s="48">
+      <c r="D46" s="39">
         <v>54</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="39">
         <v>114</v>
       </c>
-      <c r="F46" s="48" t="s">
+      <c r="F46" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G46" s="55" t="s">
+      <c r="G46" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H46" s="48" t="s">
-        <v>760</v>
-      </c>
-      <c r="J46" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K46" s="56" t="s">
+      <c r="H46" s="39" t="s">
+        <v>873</v>
+      </c>
+      <c r="J46" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K46" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="18.75">
-      <c r="A47" s="57">
+    <row r="47" spans="1:11" ht="16.5">
+      <c r="A47" s="48">
         <f>IF(F47&lt;&gt;"",IF(F47&lt;&gt;F46,MAX($A$2:A46)+1,A46),"")</f>
         <v>1</v>
       </c>
-      <c r="B47" s="67">
+      <c r="B47" s="56">
         <f t="shared" si="0"/>
         <v>54.423999999999999</v>
       </c>
-      <c r="D47" s="48">
+      <c r="D47" s="39">
         <v>54</v>
       </c>
-      <c r="E47" s="48">
+      <c r="E47" s="39">
         <v>424</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G47" s="55" t="s">
+      <c r="G47" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H47" s="48" t="s">
-        <v>760</v>
-      </c>
-      <c r="J47" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K47" s="56" t="s">
+      <c r="H47" s="39" t="s">
+        <v>872</v>
+      </c>
+      <c r="J47" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K47" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="18.75">
-      <c r="A48" s="57">
+    <row r="48" spans="1:11" ht="16.5">
+      <c r="A48" s="48">
         <f>IF(F48&lt;&gt;"",IF(F48&lt;&gt;F47,MAX($A$2:A47)+1,A47),"")</f>
         <v>1</v>
       </c>
-      <c r="B48" s="67">
+      <c r="B48" s="56">
         <f t="shared" si="0"/>
         <v>54.738</v>
       </c>
-      <c r="D48" s="48">
+      <c r="D48" s="39">
         <v>54</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="39">
         <v>738</v>
       </c>
-      <c r="F48" s="48" t="s">
+      <c r="F48" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G48" s="55" t="s">
+      <c r="G48" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H48" s="48" t="s">
-        <v>761</v>
-      </c>
-      <c r="J48" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K48" s="56" t="s">
+      <c r="H48" s="39" t="s">
+        <v>871</v>
+      </c>
+      <c r="J48" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K48" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="18.75">
-      <c r="A49" s="57">
+    <row r="49" spans="1:11" ht="16.5">
+      <c r="A49" s="48">
         <f>IF(F49&lt;&gt;"",IF(F49&lt;&gt;F48,MAX($A$2:A48)+1,A48),"")</f>
         <v>1</v>
       </c>
-      <c r="B49" s="67">
+      <c r="B49" s="56">
         <f t="shared" si="0"/>
         <v>54.982999999999997</v>
       </c>
-      <c r="D49" s="48">
+      <c r="D49" s="39">
         <v>54</v>
       </c>
-      <c r="E49" s="48">
+      <c r="E49" s="39">
         <v>983</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G49" s="55" t="s">
+      <c r="G49" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H49" s="48" t="s">
-        <v>761</v>
-      </c>
-      <c r="J49" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K49" s="56" t="s">
+      <c r="H49" s="39" t="s">
+        <v>870</v>
+      </c>
+      <c r="J49" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K49" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="18.75">
-      <c r="A50" s="57">
+    <row r="50" spans="1:11" ht="16.5">
+      <c r="A50" s="48">
         <f>IF(F50&lt;&gt;"",IF(F50&lt;&gt;F49,MAX($A$2:A49)+1,A49),"")</f>
         <v>1</v>
       </c>
-      <c r="B50" s="67">
+      <c r="B50" s="56">
         <f t="shared" si="0"/>
         <v>55.311999999999998</v>
       </c>
-      <c r="D50" s="48">
+      <c r="D50" s="39">
         <v>55</v>
       </c>
-      <c r="E50" s="48">
+      <c r="E50" s="39">
         <v>312</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="F50" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G50" s="55" t="s">
+      <c r="G50" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H50" s="48" t="s">
-        <v>761</v>
-      </c>
-      <c r="J50" s="62" t="s">
-        <v>833</v>
-      </c>
-      <c r="K50" s="56" t="s">
+      <c r="H50" s="39" t="s">
+        <v>869</v>
+      </c>
+      <c r="J50" s="53" t="s">
+        <v>846</v>
+      </c>
+      <c r="K50" s="47" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="18.75">
-      <c r="A51" s="57">
+    <row r="51" spans="1:11" ht="16.5">
+      <c r="A51" s="48">
         <f>IF(F51&lt;&gt;"",IF(F51&lt;&gt;F50,MAX($A$2:A50)+1,A50),"")</f>
         <v>1</v>
       </c>
-      <c r="B51" s="67">
+      <c r="B51" s="56">
         <f t="shared" si="0"/>
         <v>55.969000000000001</v>
       </c>
-      <c r="D51" s="48">
+      <c r="D51" s="39">
         <v>55</v>
       </c>
-      <c r="E51" s="48">
+      <c r="E51" s="39">
         <v>969</v>
       </c>
-      <c r="F51" s="48" t="s">
+      <c r="F51" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G51" s="55" t="s">
+      <c r="G51" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H51" s="48" t="s">
-        <v>762</v>
-      </c>
-      <c r="I51" s="48" t="s">
-        <v>763</v>
-      </c>
-      <c r="J51" s="56" t="s">
-        <v>834</v>
-      </c>
-      <c r="K51" s="56" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="18.75">
-      <c r="A52" s="57">
+      <c r="H51" s="39" t="s">
+        <v>757</v>
+      </c>
+      <c r="I51" s="39" t="s">
+        <v>758</v>
+      </c>
+      <c r="J51" s="47" t="s">
+        <v>847</v>
+      </c>
+      <c r="K51" s="47" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16.5">
+      <c r="A52" s="48">
         <f>IF(F52&lt;&gt;"",IF(F52&lt;&gt;F51,MAX($A$2:A51)+1,A51),"")</f>
         <v>1</v>
       </c>
-      <c r="B52" s="67">
+      <c r="B52" s="56">
         <f t="shared" si="0"/>
         <v>60.988</v>
       </c>
-      <c r="C52" s="48">
+      <c r="C52" s="39">
         <v>1</v>
       </c>
-      <c r="D52" s="48">
+      <c r="D52" s="39">
         <v>0</v>
       </c>
-      <c r="E52" s="48">
+      <c r="E52" s="39">
         <v>988</v>
       </c>
-      <c r="F52" s="48" t="s">
+      <c r="F52" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G52" s="55" t="s">
+      <c r="G52" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H52" s="48" t="s">
-        <v>764</v>
-      </c>
-      <c r="I52" s="48" t="s">
-        <v>765</v>
-      </c>
-      <c r="J52" s="56" t="s">
-        <v>834</v>
-      </c>
-      <c r="K52" s="56" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="18.75">
-      <c r="A53" s="57">
+      <c r="H52" s="39" t="s">
+        <v>759</v>
+      </c>
+      <c r="I52" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="J52" s="47" t="s">
+        <v>847</v>
+      </c>
+      <c r="K52" s="47" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16.5">
+      <c r="A53" s="48">
         <f>IF(F53&lt;&gt;"",IF(F53&lt;&gt;F52,MAX($A$2:A52)+1,A52),"")</f>
         <v>1</v>
       </c>
-      <c r="B53" s="67">
+      <c r="B53" s="56">
         <f t="shared" si="0"/>
         <v>66.028999999999996</v>
       </c>
-      <c r="C53" s="48">
+      <c r="C53" s="39">
         <v>1</v>
       </c>
-      <c r="D53" s="48">
+      <c r="D53" s="39">
         <v>6</v>
       </c>
-      <c r="E53" s="48">
+      <c r="E53" s="39">
         <v>29</v>
       </c>
-      <c r="F53" s="48" t="s">
+      <c r="F53" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G53" s="55" t="s">
+      <c r="G53" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H53" s="48" t="s">
-        <v>766</v>
-      </c>
-      <c r="I53" s="48" t="s">
-        <v>767</v>
-      </c>
-      <c r="J53" s="56" t="s">
-        <v>834</v>
-      </c>
-      <c r="K53" s="56" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="18.75">
-      <c r="A54" s="57">
+      <c r="H53" s="39" t="s">
+        <v>761</v>
+      </c>
+      <c r="I53" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="J53" s="47" t="s">
+        <v>847</v>
+      </c>
+      <c r="K53" s="47" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16.5">
+      <c r="A54" s="48">
         <f>IF(F54&lt;&gt;"",IF(F54&lt;&gt;F53,MAX($A$2:A53)+1,A53),"")</f>
         <v>1</v>
       </c>
-      <c r="B54" s="67">
+      <c r="B54" s="56">
         <f t="shared" si="0"/>
         <v>70.471000000000004</v>
       </c>
-      <c r="C54" s="48">
+      <c r="C54" s="39">
         <v>1</v>
       </c>
-      <c r="D54" s="48">
+      <c r="D54" s="39">
         <v>10</v>
       </c>
-      <c r="E54" s="48">
+      <c r="E54" s="39">
         <v>471</v>
       </c>
-      <c r="F54" s="48" t="s">
+      <c r="F54" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G54" s="55" t="s">
+      <c r="G54" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H54" s="48" t="s">
-        <v>768</v>
-      </c>
-      <c r="I54" s="48" t="s">
-        <v>769</v>
-      </c>
-      <c r="J54" s="56" t="s">
-        <v>834</v>
-      </c>
-      <c r="K54" s="56" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="18.75">
-      <c r="A55" s="57">
+      <c r="H54" s="39" t="s">
+        <v>763</v>
+      </c>
+      <c r="I54" s="39" t="s">
+        <v>764</v>
+      </c>
+      <c r="J54" s="47" t="s">
+        <v>847</v>
+      </c>
+      <c r="K54" s="47" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16.5">
+      <c r="A55" s="48">
         <f>IF(F55&lt;&gt;"",IF(F55&lt;&gt;F54,MAX($A$2:A54)+1,A54),"")</f>
         <v>1</v>
       </c>
-      <c r="B55" s="67">
+      <c r="B55" s="56">
         <f t="shared" si="0"/>
         <v>72.662000000000006</v>
       </c>
-      <c r="C55" s="48">
+      <c r="C55" s="39">
         <v>1</v>
       </c>
-      <c r="D55" s="48">
+      <c r="D55" s="39">
         <v>12</v>
       </c>
-      <c r="E55" s="48">
+      <c r="E55" s="39">
         <v>662</v>
       </c>
-      <c r="F55" s="48" t="s">
+      <c r="F55" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G55" s="55" t="s">
+      <c r="G55" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H55" s="48" t="s">
-        <v>770</v>
-      </c>
-      <c r="I55" s="48" t="s">
-        <v>771</v>
-      </c>
-      <c r="J55" s="56" t="s">
-        <v>834</v>
-      </c>
-      <c r="K55" s="56" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="18.75">
-      <c r="A56" s="57">
+      <c r="H55" s="39" t="s">
+        <v>765</v>
+      </c>
+      <c r="I55" s="39" t="s">
+        <v>766</v>
+      </c>
+      <c r="J55" s="47" t="s">
+        <v>847</v>
+      </c>
+      <c r="K55" s="47" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16.5">
+      <c r="A56" s="48">
         <f>IF(F56&lt;&gt;"",IF(F56&lt;&gt;F55,MAX($A$2:A55)+1,A55),"")</f>
         <v>1</v>
       </c>
-      <c r="B56" s="67">
+      <c r="B56" s="56">
         <f t="shared" si="0"/>
         <v>76.212999999999994</v>
       </c>
-      <c r="C56" s="48">
+      <c r="C56" s="39">
         <v>1</v>
       </c>
-      <c r="D56" s="48">
+      <c r="D56" s="39">
         <v>16</v>
       </c>
-      <c r="E56" s="48">
+      <c r="E56" s="39">
         <v>213</v>
       </c>
-      <c r="F56" s="48" t="s">
+      <c r="F56" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G56" s="55" t="s">
+      <c r="G56" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H56" s="48" t="s">
-        <v>772</v>
-      </c>
-      <c r="I56" s="48" t="s">
-        <v>773</v>
-      </c>
-      <c r="J56" s="56" t="s">
-        <v>836</v>
-      </c>
-      <c r="K56" s="56" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="18.75">
-      <c r="A57" s="57">
+      <c r="H56" s="39" t="s">
+        <v>767</v>
+      </c>
+      <c r="I56" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="J56" s="47" t="s">
+        <v>848</v>
+      </c>
+      <c r="K56" s="47" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16.5">
+      <c r="A57" s="48">
         <f>IF(F57&lt;&gt;"",IF(F57&lt;&gt;F56,MAX($A$2:A56)+1,A56),"")</f>
         <v>1</v>
       </c>
-      <c r="B57" s="67">
+      <c r="B57" s="56">
         <f t="shared" si="0"/>
         <v>77.677999999999997</v>
       </c>
-      <c r="C57" s="48">
+      <c r="C57" s="39">
         <v>1</v>
       </c>
-      <c r="D57" s="48">
+      <c r="D57" s="39">
         <v>17</v>
       </c>
-      <c r="E57" s="48">
+      <c r="E57" s="39">
         <v>678</v>
       </c>
-      <c r="F57" s="48" t="s">
+      <c r="F57" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G57" s="55" t="s">
+      <c r="G57" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H57" s="48" t="s">
-        <v>774</v>
-      </c>
-      <c r="I57" s="48" t="s">
-        <v>775</v>
-      </c>
-      <c r="J57" s="56" t="s">
-        <v>836</v>
-      </c>
-      <c r="K57" s="56" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="18.75">
-      <c r="A58" s="57">
+      <c r="H57" s="39" t="s">
+        <v>769</v>
+      </c>
+      <c r="I57" s="39" t="s">
+        <v>770</v>
+      </c>
+      <c r="J57" s="47" t="s">
+        <v>848</v>
+      </c>
+      <c r="K57" s="47" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16.5">
+      <c r="A58" s="48">
         <f>IF(F58&lt;&gt;"",IF(F58&lt;&gt;F57,MAX($A$2:A57)+1,A57),"")</f>
         <v>1</v>
       </c>
-      <c r="B58" s="67">
+      <c r="B58" s="56">
         <f t="shared" si="0"/>
         <v>78.793000000000006</v>
       </c>
-      <c r="C58" s="48">
+      <c r="C58" s="39">
         <v>1</v>
       </c>
-      <c r="D58" s="48">
+      <c r="D58" s="39">
         <v>18</v>
       </c>
-      <c r="E58" s="48">
+      <c r="E58" s="39">
         <v>793</v>
       </c>
-      <c r="F58" s="48" t="s">
+      <c r="F58" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G58" s="55" t="s">
+      <c r="G58" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H58" s="48" t="s">
-        <v>772</v>
-      </c>
-      <c r="I58" s="48" t="s">
-        <v>773</v>
-      </c>
-      <c r="J58" s="56" t="s">
-        <v>836</v>
-      </c>
-      <c r="K58" s="56" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="18.75">
-      <c r="A59" s="57">
+      <c r="H58" s="39" t="s">
+        <v>767</v>
+      </c>
+      <c r="I58" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="J58" s="47" t="s">
+        <v>848</v>
+      </c>
+      <c r="K58" s="47" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16.5">
+      <c r="A59" s="48">
         <f>IF(F59&lt;&gt;"",IF(F59&lt;&gt;F58,MAX($A$2:A58)+1,A58),"")</f>
         <v>1</v>
       </c>
-      <c r="B59" s="67">
+      <c r="B59" s="56">
         <f t="shared" si="0"/>
         <v>80.2</v>
       </c>
-      <c r="C59" s="48">
+      <c r="C59" s="39">
         <v>1</v>
       </c>
-      <c r="D59" s="48">
+      <c r="D59" s="39">
         <v>20</v>
       </c>
-      <c r="E59" s="48">
+      <c r="E59" s="39">
         <v>200</v>
       </c>
-      <c r="F59" s="48" t="s">
+      <c r="F59" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G59" s="55" t="s">
+      <c r="G59" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H59" s="48" t="s">
-        <v>776</v>
-      </c>
-      <c r="I59" s="48" t="s">
-        <v>777</v>
-      </c>
-      <c r="J59" s="56" t="s">
-        <v>836</v>
-      </c>
-      <c r="K59" s="56" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="18.75">
-      <c r="A60" s="57">
+      <c r="H59" s="39" t="s">
+        <v>771</v>
+      </c>
+      <c r="I59" s="39" t="s">
+        <v>772</v>
+      </c>
+      <c r="J59" s="47" t="s">
+        <v>848</v>
+      </c>
+      <c r="K59" s="47" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16.5">
+      <c r="A60" s="48">
         <f>IF(F60&lt;&gt;"",IF(F60&lt;&gt;F59,MAX($A$2:A59)+1,A59),"")</f>
         <v>1</v>
       </c>
-      <c r="B60" s="67">
+      <c r="B60" s="56">
         <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
-      <c r="C60" s="48">
+      <c r="C60" s="39">
         <v>1</v>
       </c>
-      <c r="D60" s="48">
+      <c r="D60" s="39">
         <v>21</v>
       </c>
-      <c r="E60" s="48">
+      <c r="E60" s="39">
         <v>250</v>
       </c>
-      <c r="F60" s="48" t="s">
+      <c r="F60" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G60" s="55" t="s">
+      <c r="G60" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H60" s="48" t="s">
-        <v>772</v>
-      </c>
-      <c r="I60" s="48" t="s">
-        <v>773</v>
-      </c>
-      <c r="J60" s="56" t="s">
-        <v>836</v>
-      </c>
-      <c r="K60" s="56" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="18.75">
-      <c r="A61" s="57">
+      <c r="H60" s="39" t="s">
+        <v>767</v>
+      </c>
+      <c r="I60" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="J60" s="47" t="s">
+        <v>848</v>
+      </c>
+      <c r="K60" s="47" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.5">
+      <c r="A61" s="48">
         <f>IF(F61&lt;&gt;"",IF(F61&lt;&gt;F60,MAX($A$2:A60)+1,A60),"")</f>
         <v>1</v>
       </c>
-      <c r="B61" s="67">
+      <c r="B61" s="56">
         <f t="shared" si="0"/>
         <v>82.784000000000006</v>
       </c>
-      <c r="C61" s="48">
+      <c r="C61" s="39">
         <v>1</v>
       </c>
-      <c r="D61" s="48">
+      <c r="D61" s="39">
         <v>22</v>
       </c>
-      <c r="E61" s="48">
+      <c r="E61" s="39">
         <v>784</v>
       </c>
-      <c r="F61" s="48" t="s">
+      <c r="F61" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G61" s="55" t="s">
+      <c r="G61" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H61" s="48" t="s">
-        <v>774</v>
-      </c>
-      <c r="I61" s="48" t="s">
-        <v>775</v>
-      </c>
-      <c r="J61" s="56" t="s">
-        <v>836</v>
-      </c>
-      <c r="K61" s="56" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="18.75">
-      <c r="A62" s="57">
+      <c r="H61" s="39" t="s">
+        <v>769</v>
+      </c>
+      <c r="I61" s="39" t="s">
+        <v>770</v>
+      </c>
+      <c r="J61" s="47" t="s">
+        <v>848</v>
+      </c>
+      <c r="K61" s="47" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16.5">
+      <c r="A62" s="48">
         <f>IF(F62&lt;&gt;"",IF(F62&lt;&gt;F61,MAX($A$2:A61)+1,A61),"")</f>
         <v>1</v>
       </c>
-      <c r="B62" s="67">
+      <c r="B62" s="56">
         <f t="shared" si="0"/>
         <v>83.805000000000007</v>
       </c>
-      <c r="C62" s="48">
+      <c r="C62" s="39">
         <v>1</v>
       </c>
-      <c r="D62" s="48">
+      <c r="D62" s="39">
         <v>23</v>
       </c>
-      <c r="E62" s="48">
+      <c r="E62" s="39">
         <v>805</v>
       </c>
-      <c r="F62" s="48" t="s">
+      <c r="F62" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G62" s="55" t="s">
+      <c r="G62" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H62" s="48" t="s">
-        <v>772</v>
-      </c>
-      <c r="I62" s="48" t="s">
-        <v>773</v>
-      </c>
-      <c r="J62" s="56" t="s">
-        <v>836</v>
-      </c>
-      <c r="K62" s="56" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="18.75">
-      <c r="A63" s="57">
+      <c r="H62" s="39" t="s">
+        <v>767</v>
+      </c>
+      <c r="I62" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="J62" s="47" t="s">
+        <v>848</v>
+      </c>
+      <c r="K62" s="47" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.5">
+      <c r="A63" s="48">
         <f>IF(F63&lt;&gt;"",IF(F63&lt;&gt;F62,MAX($A$2:A62)+1,A62),"")</f>
         <v>1</v>
       </c>
-      <c r="B63" s="67">
+      <c r="B63" s="56">
         <f t="shared" si="0"/>
         <v>85.316999999999993</v>
       </c>
-      <c r="C63" s="48">
+      <c r="C63" s="39">
         <v>1</v>
       </c>
-      <c r="D63" s="48">
+      <c r="D63" s="39">
         <v>25</v>
       </c>
-      <c r="E63" s="48">
+      <c r="E63" s="39">
         <v>317</v>
       </c>
-      <c r="F63" s="48" t="s">
+      <c r="F63" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G63" s="55" t="s">
+      <c r="G63" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H63" s="48" t="s">
-        <v>778</v>
-      </c>
-      <c r="I63" s="48" t="s">
-        <v>779</v>
-      </c>
-      <c r="J63" s="56" t="s">
-        <v>836</v>
-      </c>
-      <c r="K63" s="56" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="18.75">
-      <c r="A64" s="57">
+      <c r="H63" s="39" t="s">
+        <v>773</v>
+      </c>
+      <c r="I63" s="39" t="s">
+        <v>774</v>
+      </c>
+      <c r="J63" s="47" t="s">
+        <v>848</v>
+      </c>
+      <c r="K63" s="47" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16.5">
+      <c r="A64" s="48">
         <f>IF(F64&lt;&gt;"",IF(F64&lt;&gt;F63,MAX($A$2:A63)+1,A63),"")</f>
         <v>1</v>
       </c>
-      <c r="B64" s="67">
+      <c r="B64" s="56">
         <f t="shared" si="0"/>
         <v>86.32</v>
       </c>
-      <c r="C64" s="48">
+      <c r="C64" s="39">
         <v>1</v>
       </c>
-      <c r="D64" s="48">
+      <c r="D64" s="39">
         <v>26</v>
       </c>
-      <c r="E64" s="48">
+      <c r="E64" s="39">
         <v>320</v>
       </c>
-      <c r="F64" s="48" t="s">
+      <c r="F64" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G64" s="55" t="s">
+      <c r="G64" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H64" s="48" t="s">
-        <v>838</v>
-      </c>
-      <c r="J64" s="56" t="s">
-        <v>839</v>
-      </c>
-      <c r="K64" s="56" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="18.75">
-      <c r="A65" s="57">
+      <c r="H64" s="39" t="s">
+        <v>823</v>
+      </c>
+      <c r="J64" s="47" t="s">
+        <v>849</v>
+      </c>
+      <c r="K64" s="47" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16.5">
+      <c r="A65" s="48">
         <f>IF(F65&lt;&gt;"",IF(F65&lt;&gt;F64,MAX($A$2:A64)+1,A64),"")</f>
         <v>1</v>
       </c>
-      <c r="B65" s="67">
+      <c r="B65" s="56">
         <f t="shared" si="0"/>
         <v>96.363</v>
       </c>
-      <c r="C65" s="48">
+      <c r="C65" s="39">
         <v>1</v>
       </c>
-      <c r="D65" s="48">
+      <c r="D65" s="39">
         <v>36</v>
       </c>
-      <c r="E65" s="48">
+      <c r="E65" s="39">
         <v>363</v>
       </c>
-      <c r="F65" s="48" t="s">
+      <c r="F65" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G65" s="55" t="s">
+      <c r="G65" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H65" s="48" t="s">
-        <v>780</v>
-      </c>
-      <c r="I65" s="48" t="s">
-        <v>781</v>
-      </c>
-      <c r="J65" s="48" t="s">
-        <v>841</v>
-      </c>
-      <c r="K65" s="56" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="18.75">
-      <c r="A66" s="57">
+      <c r="H65" s="39" t="s">
+        <v>775</v>
+      </c>
+      <c r="I65" s="39" t="s">
+        <v>776</v>
+      </c>
+      <c r="J65" s="39" t="s">
+        <v>850</v>
+      </c>
+      <c r="K65" s="47" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="16.5">
+      <c r="A66" s="48">
         <f>IF(F66&lt;&gt;"",IF(F66&lt;&gt;F65,MAX($A$2:A65)+1,A65),"")</f>
         <v>1</v>
       </c>
-      <c r="B66" s="67">
+      <c r="B66" s="56">
         <f t="shared" si="0"/>
         <v>98.802000000000007</v>
       </c>
-      <c r="C66" s="48">
+      <c r="C66" s="39">
         <v>1</v>
       </c>
-      <c r="D66" s="48">
+      <c r="D66" s="39">
         <v>38</v>
       </c>
-      <c r="E66" s="48">
+      <c r="E66" s="39">
         <v>802</v>
       </c>
-      <c r="F66" s="48" t="s">
+      <c r="F66" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G66" s="55" t="s">
+      <c r="G66" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H66" s="48" t="s">
-        <v>782</v>
-      </c>
-      <c r="I66" s="48" t="s">
-        <v>783</v>
-      </c>
-      <c r="J66" s="48" t="s">
-        <v>841</v>
-      </c>
-      <c r="K66" s="56" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="18.75">
-      <c r="A67" s="57">
+      <c r="H66" s="39" t="s">
+        <v>777</v>
+      </c>
+      <c r="I66" s="39" t="s">
+        <v>778</v>
+      </c>
+      <c r="J66" s="39" t="s">
+        <v>850</v>
+      </c>
+      <c r="K66" s="47" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="16.5">
+      <c r="A67" s="48">
         <f>IF(F67&lt;&gt;"",IF(F67&lt;&gt;F66,MAX($A$2:A66)+1,A66),"")</f>
         <v>1</v>
       </c>
-      <c r="B67" s="67">
+      <c r="B67" s="56">
         <f t="shared" si="0"/>
         <v>101.371</v>
       </c>
-      <c r="C67" s="48">
+      <c r="C67" s="39">
         <v>1</v>
       </c>
-      <c r="D67" s="48">
+      <c r="D67" s="39">
         <v>41</v>
       </c>
-      <c r="E67" s="48">
+      <c r="E67" s="39">
         <v>371</v>
       </c>
-      <c r="F67" s="48" t="s">
+      <c r="F67" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G67" s="55" t="s">
+      <c r="G67" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H67" s="48" t="s">
-        <v>784</v>
-      </c>
-      <c r="I67" s="48" t="s">
-        <v>785</v>
-      </c>
-      <c r="J67" s="48" t="s">
-        <v>841</v>
-      </c>
-      <c r="K67" s="56" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="18.75">
-      <c r="A68" s="57">
+      <c r="H67" s="39" t="s">
+        <v>779</v>
+      </c>
+      <c r="I67" s="39" t="s">
+        <v>780</v>
+      </c>
+      <c r="J67" s="39" t="s">
+        <v>850</v>
+      </c>
+      <c r="K67" s="47" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16.5">
+      <c r="A68" s="48">
         <f>IF(F68&lt;&gt;"",IF(F68&lt;&gt;F67,MAX($A$2:A67)+1,A67),"")</f>
         <v>1</v>
       </c>
-      <c r="B68" s="67">
+      <c r="B68" s="56">
         <f t="shared" si="0"/>
         <v>103.91500000000001</v>
       </c>
-      <c r="C68" s="48">
+      <c r="C68" s="39">
         <v>1</v>
       </c>
-      <c r="D68" s="48">
+      <c r="D68" s="39">
         <v>43</v>
       </c>
-      <c r="E68" s="48">
+      <c r="E68" s="39">
         <v>915</v>
       </c>
-      <c r="F68" s="48" t="s">
+      <c r="F68" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G68" s="55" t="s">
+      <c r="G68" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H68" s="48" t="s">
-        <v>786</v>
-      </c>
-      <c r="I68" s="48" t="s">
-        <v>787</v>
-      </c>
-      <c r="J68" s="48" t="s">
-        <v>841</v>
-      </c>
-      <c r="K68" s="56" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="18.75">
-      <c r="A69" s="57">
+      <c r="H68" s="39" t="s">
+        <v>781</v>
+      </c>
+      <c r="I68" s="39" t="s">
+        <v>782</v>
+      </c>
+      <c r="J68" s="39" t="s">
+        <v>850</v>
+      </c>
+      <c r="K68" s="47" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="16.5">
+      <c r="A69" s="48">
         <f>IF(F69&lt;&gt;"",IF(F69&lt;&gt;F68,MAX($A$2:A68)+1,A68),"")</f>
         <v>1</v>
       </c>
-      <c r="B69" s="67">
+      <c r="B69" s="56">
         <f t="shared" ref="B69:B119" si="1">C69*60+D69+E69*0.001</f>
         <v>106.492</v>
       </c>
-      <c r="C69" s="48">
+      <c r="C69" s="39">
         <v>1</v>
       </c>
-      <c r="D69" s="48">
+      <c r="D69" s="39">
         <v>46</v>
       </c>
-      <c r="E69" s="48">
+      <c r="E69" s="39">
         <v>492</v>
       </c>
-      <c r="F69" s="48" t="s">
+      <c r="F69" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G69" s="55" t="s">
+      <c r="G69" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H69" s="48" t="s">
-        <v>788</v>
-      </c>
-      <c r="J69" s="56" t="s">
-        <v>843</v>
-      </c>
-      <c r="K69" s="62" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="18.75">
-      <c r="A70" s="57">
+      <c r="H69" s="39" t="s">
+        <v>783</v>
+      </c>
+      <c r="J69" s="47" t="s">
+        <v>851</v>
+      </c>
+      <c r="K69" s="53" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="16.5">
+      <c r="A70" s="48">
         <f>IF(F70&lt;&gt;"",IF(F70&lt;&gt;F69,MAX($A$2:A69)+1,A69),"")</f>
         <v>1</v>
       </c>
-      <c r="B70" s="67">
+      <c r="B70" s="56">
         <f t="shared" si="1"/>
         <v>106.93600000000001</v>
       </c>
-      <c r="C70" s="48">
+      <c r="C70" s="39">
         <v>1</v>
       </c>
-      <c r="D70" s="48">
+      <c r="D70" s="39">
         <v>46</v>
       </c>
-      <c r="E70" s="48">
+      <c r="E70" s="39">
         <v>936</v>
       </c>
-      <c r="F70" s="48" t="s">
+      <c r="F70" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G70" s="55" t="s">
+      <c r="G70" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H70" s="48" t="s">
-        <v>794</v>
-      </c>
-      <c r="I70" s="48" t="s">
+      <c r="H70" s="39" t="s">
         <v>789</v>
       </c>
-      <c r="J70" s="56" t="s">
-        <v>843</v>
-      </c>
-      <c r="K70" s="62" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="18.75">
-      <c r="A71" s="57">
+      <c r="I70" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="J70" s="47" t="s">
+        <v>851</v>
+      </c>
+      <c r="K70" s="53" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="16.5">
+      <c r="A71" s="48">
         <f>IF(F71&lt;&gt;"",IF(F71&lt;&gt;F70,MAX($A$2:A70)+1,A70),"")</f>
         <v>1</v>
       </c>
-      <c r="B71" s="67">
+      <c r="B71" s="56">
         <f t="shared" si="1"/>
         <v>109.05800000000001</v>
       </c>
-      <c r="C71" s="48">
+      <c r="C71" s="39">
         <v>1</v>
       </c>
-      <c r="D71" s="48">
+      <c r="D71" s="39">
         <v>49</v>
       </c>
-      <c r="E71" s="48">
+      <c r="E71" s="39">
         <v>58</v>
       </c>
-      <c r="F71" s="48" t="s">
+      <c r="F71" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G71" s="55" t="s">
+      <c r="G71" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H71" s="48" t="s">
-        <v>795</v>
-      </c>
-      <c r="I71" s="48" t="s">
+      <c r="H71" s="39" t="s">
         <v>790</v>
       </c>
-      <c r="J71" s="56" t="s">
-        <v>843</v>
-      </c>
-      <c r="K71" s="62" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="18.75">
-      <c r="A72" s="57">
+      <c r="I71" s="39" t="s">
+        <v>785</v>
+      </c>
+      <c r="J71" s="47" t="s">
+        <v>851</v>
+      </c>
+      <c r="K71" s="53" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="16.5">
+      <c r="A72" s="48">
         <f>IF(F72&lt;&gt;"",IF(F72&lt;&gt;F71,MAX($A$2:A71)+1,A71),"")</f>
         <v>1</v>
       </c>
-      <c r="B72" s="67">
+      <c r="B72" s="56">
         <f t="shared" si="1"/>
         <v>111.584</v>
       </c>
-      <c r="C72" s="48">
+      <c r="C72" s="39">
         <v>1</v>
       </c>
-      <c r="D72" s="48">
+      <c r="D72" s="39">
         <v>51</v>
       </c>
-      <c r="E72" s="48">
+      <c r="E72" s="39">
         <v>584</v>
       </c>
-      <c r="F72" s="48" t="s">
+      <c r="F72" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G72" s="55" t="s">
+      <c r="G72" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H72" s="48" t="s">
-        <v>749</v>
-      </c>
-      <c r="I72" s="48" t="s">
-        <v>750</v>
-      </c>
-      <c r="J72" s="56" t="s">
-        <v>845</v>
-      </c>
-      <c r="K72" s="56" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="18.75">
-      <c r="A73" s="57">
+      <c r="H72" s="39" t="s">
+        <v>747</v>
+      </c>
+      <c r="I72" s="39" t="s">
+        <v>748</v>
+      </c>
+      <c r="J72" s="47" t="s">
+        <v>852</v>
+      </c>
+      <c r="K72" s="47" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="16.5">
+      <c r="A73" s="48">
         <f>IF(F73&lt;&gt;"",IF(F73&lt;&gt;F72,MAX($A$2:A72)+1,A72),"")</f>
         <v>1</v>
       </c>
-      <c r="B73" s="67">
+      <c r="B73" s="56">
         <f t="shared" si="1"/>
         <v>112.017</v>
       </c>
-      <c r="C73" s="48">
+      <c r="C73" s="39">
         <v>1</v>
       </c>
-      <c r="D73" s="48">
+      <c r="D73" s="39">
         <v>52</v>
       </c>
-      <c r="E73" s="48">
+      <c r="E73" s="39">
         <v>17</v>
       </c>
-      <c r="F73" s="48" t="s">
+      <c r="F73" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G73" s="55" t="s">
+      <c r="G73" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H73" s="48" t="s">
-        <v>796</v>
-      </c>
-      <c r="I73" s="48" t="s">
+      <c r="H73" s="39" t="s">
         <v>791</v>
       </c>
-      <c r="J73" s="56" t="s">
-        <v>845</v>
-      </c>
-      <c r="K73" s="56" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="18.75">
-      <c r="A74" s="57">
+      <c r="I73" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="J73" s="47" t="s">
+        <v>852</v>
+      </c>
+      <c r="K73" s="47" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16.5">
+      <c r="A74" s="48">
         <f>IF(F74&lt;&gt;"",IF(F74&lt;&gt;F73,MAX($A$2:A73)+1,A73),"")</f>
         <v>1</v>
       </c>
-      <c r="B74" s="67">
+      <c r="B74" s="56">
         <f t="shared" si="1"/>
         <v>113.586</v>
       </c>
-      <c r="C74" s="48">
+      <c r="C74" s="39">
         <v>1</v>
       </c>
-      <c r="D74" s="48">
+      <c r="D74" s="39">
         <v>53</v>
       </c>
-      <c r="E74" s="48">
+      <c r="E74" s="39">
         <v>586</v>
       </c>
-      <c r="F74" s="48" t="s">
+      <c r="F74" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G74" s="55" t="s">
+      <c r="G74" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H74" s="48" t="s">
-        <v>797</v>
-      </c>
-      <c r="I74" s="59" t="s">
+      <c r="H74" s="39" t="s">
         <v>792</v>
       </c>
-      <c r="J74" s="56" t="s">
-        <v>845</v>
-      </c>
-      <c r="K74" s="56" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="18.75">
-      <c r="A75" s="57">
+      <c r="I74" s="50" t="s">
+        <v>787</v>
+      </c>
+      <c r="J74" s="47" t="s">
+        <v>852</v>
+      </c>
+      <c r="K74" s="47" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="16.5">
+      <c r="A75" s="48">
         <f>IF(F75&lt;&gt;"",IF(F75&lt;&gt;F74,MAX($A$2:A74)+1,A74),"")</f>
         <v>1</v>
       </c>
-      <c r="B75" s="67">
+      <c r="B75" s="56">
         <f t="shared" si="1"/>
         <v>115.239</v>
       </c>
-      <c r="C75" s="48">
+      <c r="C75" s="39">
         <v>1</v>
       </c>
-      <c r="D75" s="48">
+      <c r="D75" s="39">
         <v>55</v>
       </c>
-      <c r="E75" s="48">
+      <c r="E75" s="39">
         <v>239</v>
       </c>
-      <c r="F75" s="48" t="s">
+      <c r="F75" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G75" s="55" t="s">
+      <c r="G75" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H75" s="48" t="s">
-        <v>798</v>
-      </c>
-      <c r="I75" s="48" t="s">
+      <c r="H75" s="39" t="s">
         <v>793</v>
       </c>
-      <c r="J75" s="56" t="s">
-        <v>845</v>
-      </c>
-      <c r="K75" s="56" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="18.75">
-      <c r="A76" s="57">
+      <c r="I75" s="39" t="s">
+        <v>788</v>
+      </c>
+      <c r="J75" s="47" t="s">
+        <v>852</v>
+      </c>
+      <c r="K75" s="47" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="16.5">
+      <c r="A76" s="48">
         <f>IF(F76&lt;&gt;"",IF(F76&lt;&gt;F75,MAX($A$2:A75)+1,A75),"")</f>
         <v>1</v>
       </c>
-      <c r="B76" s="67">
+      <c r="B76" s="56">
         <f t="shared" si="1"/>
         <v>116.614</v>
       </c>
-      <c r="C76" s="48">
+      <c r="C76" s="39">
         <v>1</v>
       </c>
-      <c r="D76" s="48">
+      <c r="D76" s="39">
         <v>56</v>
       </c>
-      <c r="E76" s="48">
+      <c r="E76" s="39">
         <v>614</v>
       </c>
-      <c r="F76" s="48" t="s">
+      <c r="F76" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G76" s="55" t="s">
+      <c r="G76" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H76" s="48" t="s">
-        <v>855</v>
-      </c>
-      <c r="J76" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K76" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="18.75">
-      <c r="A77" s="57">
+      <c r="H76" s="39" t="s">
+        <v>857</v>
+      </c>
+      <c r="J76" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K76" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="16.5">
+      <c r="A77" s="48">
         <f>IF(F77&lt;&gt;"",IF(F77&lt;&gt;F76,MAX($A$2:A76)+1,A76),"")</f>
         <v>1</v>
       </c>
-      <c r="B77" s="67">
+      <c r="B77" s="56">
         <f t="shared" si="1"/>
         <v>117.256</v>
       </c>
-      <c r="C77" s="48">
+      <c r="C77" s="39">
         <v>1</v>
       </c>
-      <c r="D77" s="48">
+      <c r="D77" s="39">
         <v>57</v>
       </c>
-      <c r="E77" s="48">
+      <c r="E77" s="39">
         <v>256</v>
       </c>
-      <c r="F77" s="48" t="s">
+      <c r="F77" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G77" s="55" t="s">
+      <c r="G77" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H77" s="48" t="s">
-        <v>855</v>
-      </c>
-      <c r="J77" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K77" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="18.75">
-      <c r="A78" s="57">
+      <c r="H77" s="39" t="s">
+        <v>858</v>
+      </c>
+      <c r="J77" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K77" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16.5">
+      <c r="A78" s="48">
         <f>IF(F78&lt;&gt;"",IF(F78&lt;&gt;F77,MAX($A$2:A77)+1,A77),"")</f>
         <v>1</v>
       </c>
-      <c r="B78" s="67">
+      <c r="B78" s="56">
         <f t="shared" si="1"/>
         <v>117.90900000000001</v>
       </c>
-      <c r="C78" s="48">
+      <c r="C78" s="39">
         <v>1</v>
       </c>
-      <c r="D78" s="48">
+      <c r="D78" s="39">
         <v>57</v>
       </c>
-      <c r="E78" s="48">
+      <c r="E78" s="39">
         <v>909</v>
       </c>
-      <c r="F78" s="48" t="s">
+      <c r="F78" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G78" s="55" t="s">
+      <c r="G78" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H78" s="48" t="s">
-        <v>855</v>
-      </c>
-      <c r="J78" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K78" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="18.75">
-      <c r="A79" s="57">
+      <c r="H78" s="39" t="s">
+        <v>859</v>
+      </c>
+      <c r="J78" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K78" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="16.5">
+      <c r="A79" s="48">
         <f>IF(F79&lt;&gt;"",IF(F79&lt;&gt;F78,MAX($A$2:A78)+1,A78),"")</f>
         <v>1</v>
       </c>
-      <c r="B79" s="67">
+      <c r="B79" s="56">
         <f t="shared" si="1"/>
         <v>118.184</v>
       </c>
-      <c r="C79" s="48">
+      <c r="C79" s="39">
         <v>1</v>
       </c>
-      <c r="D79" s="48">
+      <c r="D79" s="39">
         <v>58</v>
       </c>
-      <c r="E79" s="48">
+      <c r="E79" s="39">
         <v>184</v>
       </c>
-      <c r="F79" s="48" t="s">
+      <c r="F79" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G79" s="55" t="s">
+      <c r="G79" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H79" s="48" t="s">
-        <v>855</v>
-      </c>
-      <c r="J79" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K79" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="18.75">
-      <c r="A80" s="57">
+      <c r="H79" s="39" t="s">
+        <v>860</v>
+      </c>
+      <c r="J79" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K79" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="16.5">
+      <c r="A80" s="48">
         <f>IF(F80&lt;&gt;"",IF(F80&lt;&gt;F79,MAX($A$2:A79)+1,A79),"")</f>
         <v>1</v>
       </c>
-      <c r="B80" s="67">
+      <c r="B80" s="56">
         <f t="shared" si="1"/>
         <v>118.47199999999999</v>
       </c>
-      <c r="C80" s="48">
+      <c r="C80" s="39">
         <v>1</v>
       </c>
-      <c r="D80" s="48">
+      <c r="D80" s="39">
         <v>58</v>
       </c>
-      <c r="E80" s="48">
+      <c r="E80" s="39">
         <v>472</v>
       </c>
-      <c r="F80" s="48" t="s">
+      <c r="F80" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G80" s="55" t="s">
+      <c r="G80" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H80" s="48" t="s">
-        <v>855</v>
-      </c>
-      <c r="J80" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K80" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="18.75">
-      <c r="A81" s="57">
+      <c r="H80" s="39" t="s">
+        <v>861</v>
+      </c>
+      <c r="J80" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K80" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16.5">
+      <c r="A81" s="48">
         <f>IF(F81&lt;&gt;"",IF(F81&lt;&gt;F80,MAX($A$2:A80)+1,A80),"")</f>
         <v>1</v>
       </c>
-      <c r="B81" s="67">
+      <c r="B81" s="56">
         <f t="shared" si="1"/>
         <v>119.039</v>
       </c>
-      <c r="C81" s="48">
+      <c r="C81" s="39">
         <v>1</v>
       </c>
-      <c r="D81" s="48">
+      <c r="D81" s="39">
         <v>59</v>
       </c>
-      <c r="E81" s="48">
+      <c r="E81" s="39">
         <v>39</v>
       </c>
-      <c r="F81" s="48" t="s">
+      <c r="F81" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G81" s="55" t="s">
+      <c r="G81" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H81" s="48" t="s">
-        <v>759</v>
-      </c>
-      <c r="J81" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K81" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="18.75">
-      <c r="A82" s="57">
+      <c r="H81" s="39" t="s">
+        <v>868</v>
+      </c>
+      <c r="J81" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K81" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="16.5">
+      <c r="A82" s="48">
         <f>IF(F82&lt;&gt;"",IF(F82&lt;&gt;F81,MAX($A$2:A81)+1,A81),"")</f>
         <v>1</v>
       </c>
-      <c r="B82" s="67">
+      <c r="B82" s="56">
         <f t="shared" si="1"/>
         <v>119.407</v>
       </c>
-      <c r="C82" s="48">
+      <c r="C82" s="39">
         <v>1</v>
       </c>
-      <c r="D82" s="48">
+      <c r="D82" s="39">
         <v>59</v>
       </c>
-      <c r="E82" s="48">
+      <c r="E82" s="39">
         <v>407</v>
       </c>
-      <c r="F82" s="48" t="s">
+      <c r="F82" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G82" s="55" t="s">
+      <c r="G82" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H82" s="48" t="s">
-        <v>759</v>
-      </c>
-      <c r="J82" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K82" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="18.75">
-      <c r="A83" s="57">
+      <c r="H82" s="39" t="s">
+        <v>867</v>
+      </c>
+      <c r="J82" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K82" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="16.5">
+      <c r="A83" s="48">
         <f>IF(F83&lt;&gt;"",IF(F83&lt;&gt;F82,MAX($A$2:A82)+1,A82),"")</f>
         <v>1</v>
       </c>
-      <c r="B83" s="67">
+      <c r="B83" s="56">
         <f t="shared" si="1"/>
         <v>119.771</v>
       </c>
-      <c r="C83" s="48">
+      <c r="C83" s="39">
         <v>1</v>
       </c>
-      <c r="D83" s="48">
+      <c r="D83" s="39">
         <v>59</v>
       </c>
-      <c r="E83" s="48">
+      <c r="E83" s="39">
         <v>771</v>
       </c>
-      <c r="F83" s="48" t="s">
+      <c r="F83" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G83" s="55" t="s">
+      <c r="G83" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H83" s="48" t="s">
-        <v>759</v>
-      </c>
-      <c r="J83" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K83" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="18.75">
-      <c r="A84" s="57">
+      <c r="H83" s="39" t="s">
+        <v>866</v>
+      </c>
+      <c r="J83" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K83" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="16.5">
+      <c r="A84" s="48">
         <f>IF(F84&lt;&gt;"",IF(F84&lt;&gt;F83,MAX($A$2:A83)+1,A83),"")</f>
         <v>1</v>
       </c>
-      <c r="B84" s="67">
+      <c r="B84" s="56">
         <f t="shared" si="1"/>
         <v>120.075</v>
       </c>
-      <c r="C84" s="48">
+      <c r="C84" s="39">
         <v>2</v>
       </c>
-      <c r="D84" s="48">
+      <c r="D84" s="39">
         <v>0</v>
       </c>
-      <c r="E84" s="48">
+      <c r="E84" s="39">
         <v>75</v>
       </c>
-      <c r="F84" s="48" t="s">
+      <c r="F84" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G84" s="55" t="s">
+      <c r="G84" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H84" s="48" t="s">
-        <v>759</v>
-      </c>
-      <c r="J84" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K84" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="18.75">
-      <c r="A85" s="57">
+      <c r="H84" s="39" t="s">
+        <v>865</v>
+      </c>
+      <c r="J84" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K84" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="16.5">
+      <c r="A85" s="48">
         <f>IF(F85&lt;&gt;"",IF(F85&lt;&gt;F84,MAX($A$2:A84)+1,A84),"")</f>
         <v>1</v>
       </c>
-      <c r="B85" s="67">
+      <c r="B85" s="56">
         <f t="shared" si="1"/>
         <v>120.417</v>
       </c>
-      <c r="C85" s="48">
+      <c r="C85" s="39">
         <v>2</v>
       </c>
-      <c r="D85" s="48">
+      <c r="D85" s="39">
         <v>0</v>
       </c>
-      <c r="E85" s="48">
+      <c r="E85" s="39">
         <v>417</v>
       </c>
-      <c r="F85" s="48" t="s">
+      <c r="F85" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G85" s="55" t="s">
+      <c r="G85" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H85" s="48" t="s">
-        <v>759</v>
-      </c>
-      <c r="J85" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K85" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="18.75">
-      <c r="A86" s="57">
+      <c r="H85" s="39" t="s">
+        <v>864</v>
+      </c>
+      <c r="J85" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K85" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="16.5">
+      <c r="A86" s="48">
         <f>IF(F86&lt;&gt;"",IF(F86&lt;&gt;F85,MAX($A$2:A85)+1,A85),"")</f>
         <v>1</v>
       </c>
-      <c r="B86" s="67">
+      <c r="B86" s="56">
         <f t="shared" si="1"/>
         <v>120.71299999999999</v>
       </c>
-      <c r="C86" s="48">
+      <c r="C86" s="39">
         <v>2</v>
       </c>
-      <c r="D86" s="48">
+      <c r="D86" s="39">
         <v>0</v>
       </c>
-      <c r="E86" s="48">
+      <c r="E86" s="39">
         <v>713</v>
       </c>
-      <c r="F86" s="48" t="s">
+      <c r="F86" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G86" s="55" t="s">
+      <c r="G86" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H86" s="48" t="s">
-        <v>759</v>
-      </c>
-      <c r="J86" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K86" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="18.75">
-      <c r="A87" s="57">
+      <c r="H86" s="39" t="s">
+        <v>863</v>
+      </c>
+      <c r="J86" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K86" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="16.5">
+      <c r="A87" s="48">
         <f>IF(F87&lt;&gt;"",IF(F87&lt;&gt;F86,MAX($A$2:A86)+1,A86),"")</f>
         <v>1</v>
       </c>
-      <c r="B87" s="67">
+      <c r="B87" s="56">
         <f t="shared" si="1"/>
         <v>121.04900000000001</v>
       </c>
-      <c r="C87" s="48">
+      <c r="C87" s="39">
         <v>2</v>
       </c>
-      <c r="D87" s="48">
+      <c r="D87" s="39">
         <v>1</v>
       </c>
-      <c r="E87" s="48">
+      <c r="E87" s="39">
         <v>49</v>
       </c>
-      <c r="F87" s="48" t="s">
+      <c r="F87" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G87" s="55" t="s">
+      <c r="G87" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H87" s="48" t="s">
-        <v>759</v>
-      </c>
-      <c r="J87" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K87" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="18.75">
-      <c r="A88" s="57">
+      <c r="H87" s="39" t="s">
+        <v>862</v>
+      </c>
+      <c r="J87" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K87" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="16.5">
+      <c r="A88" s="48">
         <f>IF(F88&lt;&gt;"",IF(F88&lt;&gt;F87,MAX($A$2:A87)+1,A87),"")</f>
         <v>1</v>
       </c>
-      <c r="B88" s="67">
+      <c r="B88" s="56">
         <f t="shared" si="1"/>
         <v>121.64400000000001</v>
       </c>
-      <c r="C88" s="48">
+      <c r="C88" s="39">
         <v>2</v>
       </c>
-      <c r="D88" s="48">
+      <c r="D88" s="39">
         <v>1</v>
       </c>
-      <c r="E88" s="48">
+      <c r="E88" s="39">
         <v>644</v>
       </c>
-      <c r="F88" s="48" t="s">
+      <c r="F88" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G88" s="55" t="s">
+      <c r="G88" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H88" s="48" t="s">
-        <v>856</v>
-      </c>
-      <c r="J88" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K88" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="18.75">
-      <c r="A89" s="57">
+      <c r="H88" s="39" t="s">
+        <v>880</v>
+      </c>
+      <c r="J88" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K88" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="16.5">
+      <c r="A89" s="48">
         <f>IF(F89&lt;&gt;"",IF(F89&lt;&gt;F88,MAX($A$2:A88)+1,A88),"")</f>
         <v>1</v>
       </c>
-      <c r="B89" s="67">
+      <c r="B89" s="56">
         <f t="shared" si="1"/>
         <v>122.28700000000001</v>
       </c>
-      <c r="C89" s="48">
+      <c r="C89" s="39">
         <v>2</v>
       </c>
-      <c r="D89" s="48">
+      <c r="D89" s="39">
         <v>2</v>
       </c>
-      <c r="E89" s="48">
+      <c r="E89" s="39">
         <v>287</v>
       </c>
-      <c r="F89" s="48" t="s">
+      <c r="F89" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G89" s="55" t="s">
+      <c r="G89" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H89" s="48" t="s">
-        <v>856</v>
-      </c>
-      <c r="J89" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K89" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="18.75">
-      <c r="A90" s="57">
+      <c r="H89" s="39" t="s">
+        <v>879</v>
+      </c>
+      <c r="J89" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K89" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="16.5">
+      <c r="A90" s="48">
         <f>IF(F90&lt;&gt;"",IF(F90&lt;&gt;F89,MAX($A$2:A89)+1,A89),"")</f>
         <v>1</v>
       </c>
-      <c r="B90" s="67">
+      <c r="B90" s="56">
         <f t="shared" si="1"/>
         <v>122.932</v>
       </c>
-      <c r="C90" s="48">
+      <c r="C90" s="39">
         <v>2</v>
       </c>
-      <c r="D90" s="48">
+      <c r="D90" s="39">
         <v>2</v>
       </c>
-      <c r="E90" s="48">
+      <c r="E90" s="39">
         <v>932</v>
       </c>
-      <c r="F90" s="48" t="s">
+      <c r="F90" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G90" s="55" t="s">
+      <c r="G90" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H90" s="48" t="s">
-        <v>856</v>
-      </c>
-      <c r="J90" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K90" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="18.75">
-      <c r="A91" s="57">
+      <c r="H90" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="J90" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K90" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="16.5">
+      <c r="A91" s="48">
         <f>IF(F91&lt;&gt;"",IF(F91&lt;&gt;F90,MAX($A$2:A90)+1,A90),"")</f>
         <v>1</v>
       </c>
-      <c r="B91" s="67">
+      <c r="B91" s="56">
         <f t="shared" si="1"/>
         <v>123.268</v>
       </c>
-      <c r="C91" s="48">
+      <c r="C91" s="39">
         <v>2</v>
       </c>
-      <c r="D91" s="48">
+      <c r="D91" s="39">
         <v>3</v>
       </c>
-      <c r="E91" s="48">
+      <c r="E91" s="39">
         <v>268</v>
       </c>
-      <c r="F91" s="48" t="s">
+      <c r="F91" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G91" s="55" t="s">
+      <c r="G91" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H91" s="48" t="s">
-        <v>856</v>
-      </c>
-      <c r="J91" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K91" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="18.75">
-      <c r="A92" s="57">
+      <c r="H91" s="39" t="s">
+        <v>877</v>
+      </c>
+      <c r="J91" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K91" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="16.5">
+      <c r="A92" s="48">
         <f>IF(F92&lt;&gt;"",IF(F92&lt;&gt;F91,MAX($A$2:A91)+1,A91),"")</f>
         <v>1</v>
       </c>
-      <c r="B92" s="67">
+      <c r="B92" s="56">
         <f t="shared" si="1"/>
         <v>123.593</v>
       </c>
-      <c r="C92" s="48">
+      <c r="C92" s="39">
         <v>2</v>
       </c>
-      <c r="D92" s="48">
+      <c r="D92" s="39">
         <v>3</v>
       </c>
-      <c r="E92" s="48">
+      <c r="E92" s="39">
         <v>593</v>
       </c>
-      <c r="F92" s="48" t="s">
+      <c r="F92" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G92" s="55" t="s">
+      <c r="G92" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H92" s="48" t="s">
-        <v>856</v>
-      </c>
-      <c r="J92" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K92" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="18.75">
-      <c r="A93" s="57">
+      <c r="H92" s="39" t="s">
+        <v>876</v>
+      </c>
+      <c r="J92" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K92" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="16.5">
+      <c r="A93" s="48">
         <f>IF(F93&lt;&gt;"",IF(F93&lt;&gt;F92,MAX($A$2:A92)+1,A92),"")</f>
         <v>1</v>
       </c>
-      <c r="B93" s="67">
+      <c r="B93" s="56">
         <f t="shared" si="1"/>
         <v>124.185</v>
       </c>
-      <c r="C93" s="48">
+      <c r="C93" s="39">
         <v>2</v>
       </c>
-      <c r="D93" s="48">
+      <c r="D93" s="39">
         <v>4</v>
       </c>
-      <c r="E93" s="48">
+      <c r="E93" s="39">
         <v>185</v>
       </c>
-      <c r="F93" s="48" t="s">
+      <c r="F93" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G93" s="55" t="s">
+      <c r="G93" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H93" s="48" t="s">
-        <v>760</v>
-      </c>
-      <c r="J93" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K93" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="18.75">
-      <c r="A94" s="57">
+      <c r="H93" s="39" t="s">
+        <v>875</v>
+      </c>
+      <c r="J93" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K93" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="16.5">
+      <c r="A94" s="48">
         <f>IF(F94&lt;&gt;"",IF(F94&lt;&gt;F93,MAX($A$2:A93)+1,A93),"")</f>
         <v>1</v>
       </c>
-      <c r="B94" s="67">
+      <c r="B94" s="56">
         <f t="shared" si="1"/>
         <v>124.53100000000001</v>
       </c>
-      <c r="C94" s="48">
+      <c r="C94" s="39">
         <v>2</v>
       </c>
-      <c r="D94" s="48">
+      <c r="D94" s="39">
         <v>4</v>
       </c>
-      <c r="E94" s="48">
+      <c r="E94" s="39">
         <v>531</v>
       </c>
-      <c r="F94" s="48" t="s">
+      <c r="F94" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G94" s="55" t="s">
+      <c r="G94" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H94" s="48" t="s">
-        <v>760</v>
-      </c>
-      <c r="J94" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K94" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="18.75">
-      <c r="A95" s="57">
+      <c r="H94" s="39" t="s">
+        <v>874</v>
+      </c>
+      <c r="J94" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K94" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="16.5">
+      <c r="A95" s="48">
         <f>IF(F95&lt;&gt;"",IF(F95&lt;&gt;F94,MAX($A$2:A94)+1,A94),"")</f>
         <v>1</v>
       </c>
-      <c r="B95" s="67">
+      <c r="B95" s="56">
         <f t="shared" si="1"/>
         <v>124.863</v>
       </c>
-      <c r="C95" s="48">
+      <c r="C95" s="39">
         <v>2</v>
       </c>
-      <c r="D95" s="48">
+      <c r="D95" s="39">
         <v>4</v>
       </c>
-      <c r="E95" s="48">
+      <c r="E95" s="39">
         <v>863</v>
       </c>
-      <c r="F95" s="48" t="s">
+      <c r="F95" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G95" s="55" t="s">
+      <c r="G95" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H95" s="48" t="s">
-        <v>760</v>
-      </c>
-      <c r="J95" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K95" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="18.75">
-      <c r="A96" s="57">
+      <c r="H95" s="39" t="s">
+        <v>873</v>
+      </c>
+      <c r="J95" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K95" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="16.5">
+      <c r="A96" s="48">
         <f>IF(F96&lt;&gt;"",IF(F96&lt;&gt;F95,MAX($A$2:A95)+1,A95),"")</f>
         <v>1</v>
       </c>
-      <c r="B96" s="67">
+      <c r="B96" s="56">
         <f t="shared" si="1"/>
         <v>125.163</v>
       </c>
-      <c r="C96" s="48">
+      <c r="C96" s="39">
         <v>2</v>
       </c>
-      <c r="D96" s="48">
+      <c r="D96" s="39">
         <v>5</v>
       </c>
-      <c r="E96" s="48">
+      <c r="E96" s="39">
         <v>163</v>
       </c>
-      <c r="F96" s="48" t="s">
+      <c r="F96" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G96" s="55" t="s">
+      <c r="G96" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H96" s="48" t="s">
-        <v>760</v>
-      </c>
-      <c r="J96" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K96" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="18.75">
-      <c r="A97" s="57">
+      <c r="H96" s="39" t="s">
+        <v>872</v>
+      </c>
+      <c r="J96" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K96" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="16.5">
+      <c r="A97" s="48">
         <f>IF(F97&lt;&gt;"",IF(F97&lt;&gt;F96,MAX($A$2:A96)+1,A96),"")</f>
         <v>1</v>
       </c>
-      <c r="B97" s="67">
+      <c r="B97" s="56">
         <f t="shared" si="1"/>
         <v>125.53400000000001</v>
       </c>
-      <c r="C97" s="48">
+      <c r="C97" s="39">
         <v>2</v>
       </c>
-      <c r="D97" s="48">
+      <c r="D97" s="39">
         <v>5</v>
       </c>
-      <c r="E97" s="48">
+      <c r="E97" s="39">
         <v>534</v>
       </c>
-      <c r="F97" s="48" t="s">
+      <c r="F97" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G97" s="55" t="s">
+      <c r="G97" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H97" s="48" t="s">
-        <v>761</v>
-      </c>
-      <c r="J97" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K97" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="18.75">
-      <c r="A98" s="57">
+      <c r="H97" s="39" t="s">
+        <v>871</v>
+      </c>
+      <c r="J97" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K97" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="16.5">
+      <c r="A98" s="48">
         <f>IF(F98&lt;&gt;"",IF(F98&lt;&gt;F97,MAX($A$2:A97)+1,A97),"")</f>
         <v>1</v>
       </c>
-      <c r="B98" s="67">
+      <c r="B98" s="56">
         <f t="shared" si="1"/>
         <v>125.758</v>
       </c>
-      <c r="C98" s="48">
+      <c r="C98" s="39">
         <v>2</v>
       </c>
-      <c r="D98" s="48">
+      <c r="D98" s="39">
         <v>5</v>
       </c>
-      <c r="E98" s="48">
+      <c r="E98" s="39">
         <v>758</v>
       </c>
-      <c r="F98" s="48" t="s">
+      <c r="F98" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G98" s="55" t="s">
+      <c r="G98" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H98" s="48" t="s">
-        <v>761</v>
-      </c>
-      <c r="J98" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K98" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="18.75">
-      <c r="A99" s="57">
+      <c r="H98" s="39" t="s">
+        <v>870</v>
+      </c>
+      <c r="J98" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K98" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="16.5">
+      <c r="A99" s="48">
         <f>IF(F99&lt;&gt;"",IF(F99&lt;&gt;F98,MAX($A$2:A98)+1,A98),"")</f>
         <v>1</v>
       </c>
-      <c r="B99" s="67">
+      <c r="B99" s="56">
         <f t="shared" si="1"/>
         <v>126.054</v>
       </c>
-      <c r="C99" s="48">
+      <c r="C99" s="39">
         <v>2</v>
       </c>
-      <c r="D99" s="48">
+      <c r="D99" s="39">
         <v>6</v>
       </c>
-      <c r="E99" s="48">
+      <c r="E99" s="39">
         <v>54</v>
       </c>
-      <c r="F99" s="48" t="s">
+      <c r="F99" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G99" s="55" t="s">
+      <c r="G99" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H99" s="48" t="s">
-        <v>761</v>
-      </c>
-      <c r="J99" s="63" t="s">
-        <v>847</v>
-      </c>
-      <c r="K99" s="56" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="18.75">
-      <c r="A100" s="57">
+      <c r="H99" s="39" t="s">
+        <v>869</v>
+      </c>
+      <c r="J99" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="K99" s="47" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="16.5">
+      <c r="A100" s="48">
         <f>IF(F100&lt;&gt;"",IF(F100&lt;&gt;F99,MAX($A$2:A99)+1,A99),"")</f>
         <v>1</v>
       </c>
-      <c r="B100" s="67">
+      <c r="B100" s="56">
         <f t="shared" si="1"/>
         <v>126.74299999999999</v>
       </c>
-      <c r="C100" s="48">
+      <c r="C100" s="39">
         <v>2</v>
       </c>
-      <c r="D100" s="48">
+      <c r="D100" s="39">
         <v>6</v>
       </c>
-      <c r="E100" s="48">
+      <c r="E100" s="39">
         <v>743</v>
       </c>
-      <c r="F100" s="48" t="s">
+      <c r="F100" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G100" s="55" t="s">
+      <c r="G100" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H100" s="48" t="s">
-        <v>799</v>
-      </c>
-      <c r="I100" s="48" t="s">
-        <v>800</v>
-      </c>
-      <c r="J100" s="48" t="s">
-        <v>849</v>
-      </c>
-      <c r="K100" s="56" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="18.75">
-      <c r="A101" s="57">
+      <c r="H100" s="39" t="s">
+        <v>794</v>
+      </c>
+      <c r="I100" s="39" t="s">
+        <v>795</v>
+      </c>
+      <c r="J100" s="39" t="s">
+        <v>854</v>
+      </c>
+      <c r="K100" s="47" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="16.5">
+      <c r="A101" s="48">
         <f>IF(F101&lt;&gt;"",IF(F101&lt;&gt;F100,MAX($A$2:A100)+1,A100),"")</f>
         <v>1</v>
       </c>
-      <c r="B101" s="67">
+      <c r="B101" s="56">
         <f t="shared" si="1"/>
         <v>131.755</v>
       </c>
-      <c r="C101" s="48">
+      <c r="C101" s="39">
         <v>2</v>
       </c>
-      <c r="D101" s="48">
+      <c r="D101" s="39">
         <v>11</v>
       </c>
-      <c r="E101" s="48">
+      <c r="E101" s="39">
         <v>755</v>
       </c>
-      <c r="F101" s="48" t="s">
+      <c r="F101" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G101" s="55" t="s">
+      <c r="G101" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H101" s="48" t="s">
-        <v>801</v>
-      </c>
-      <c r="I101" s="48" t="s">
-        <v>802</v>
-      </c>
-      <c r="J101" s="48" t="s">
-        <v>849</v>
-      </c>
-      <c r="K101" s="56" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="18.75">
-      <c r="A102" s="57">
+      <c r="H101" s="39" t="s">
+        <v>796</v>
+      </c>
+      <c r="I101" s="39" t="s">
+        <v>797</v>
+      </c>
+      <c r="J101" s="39" t="s">
+        <v>854</v>
+      </c>
+      <c r="K101" s="47" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="16.5">
+      <c r="A102" s="48">
         <f>IF(F102&lt;&gt;"",IF(F102&lt;&gt;F101,MAX($A$2:A101)+1,A101),"")</f>
         <v>1</v>
       </c>
-      <c r="B102" s="67">
+      <c r="B102" s="56">
         <f t="shared" si="1"/>
         <v>136.84700000000001</v>
       </c>
-      <c r="C102" s="48">
+      <c r="C102" s="39">
         <v>2</v>
       </c>
-      <c r="D102" s="48">
+      <c r="D102" s="39">
         <v>16</v>
       </c>
-      <c r="E102" s="48">
+      <c r="E102" s="39">
         <v>847</v>
       </c>
-      <c r="F102" s="48" t="s">
+      <c r="F102" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G102" s="55" t="s">
+      <c r="G102" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H102" s="48" t="s">
-        <v>803</v>
-      </c>
-      <c r="I102" s="48" t="s">
-        <v>804</v>
-      </c>
-      <c r="J102" s="48" t="s">
-        <v>849</v>
-      </c>
-      <c r="K102" s="56" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="18.75">
-      <c r="A103" s="57">
+      <c r="H102" s="39" t="s">
+        <v>798</v>
+      </c>
+      <c r="I102" s="39" t="s">
+        <v>799</v>
+      </c>
+      <c r="J102" s="39" t="s">
+        <v>854</v>
+      </c>
+      <c r="K102" s="47" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="16.5">
+      <c r="A103" s="48">
         <f>IF(F103&lt;&gt;"",IF(F103&lt;&gt;F102,MAX($A$2:A102)+1,A102),"")</f>
         <v>1</v>
       </c>
-      <c r="B103" s="67">
+      <c r="B103" s="56">
         <f t="shared" si="1"/>
         <v>141.13800000000001</v>
       </c>
-      <c r="C103" s="48">
+      <c r="C103" s="39">
         <v>2</v>
       </c>
-      <c r="D103" s="48">
+      <c r="D103" s="39">
         <v>21</v>
       </c>
-      <c r="E103" s="48">
+      <c r="E103" s="39">
         <v>138</v>
       </c>
-      <c r="F103" s="48" t="s">
+      <c r="F103" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G103" s="55" t="s">
+      <c r="G103" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H103" s="48" t="s">
-        <v>805</v>
-      </c>
-      <c r="I103" s="48" t="s">
-        <v>806</v>
-      </c>
-      <c r="J103" s="48" t="s">
-        <v>849</v>
-      </c>
-      <c r="K103" s="56" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="18.75">
-      <c r="A104" s="57">
+      <c r="H103" s="39" t="s">
+        <v>800</v>
+      </c>
+      <c r="I103" s="39" t="s">
+        <v>801</v>
+      </c>
+      <c r="J103" s="39" t="s">
+        <v>854</v>
+      </c>
+      <c r="K103" s="47" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="16.5">
+      <c r="A104" s="48">
         <f>IF(F104&lt;&gt;"",IF(F104&lt;&gt;F103,MAX($A$2:A103)+1,A103),"")</f>
         <v>1</v>
       </c>
-      <c r="B104" s="67">
+      <c r="B104" s="56">
         <f t="shared" si="1"/>
         <v>143.447</v>
       </c>
-      <c r="C104" s="48">
+      <c r="C104" s="39">
         <v>2</v>
       </c>
-      <c r="D104" s="48">
+      <c r="D104" s="39">
         <v>23</v>
       </c>
-      <c r="E104" s="48">
+      <c r="E104" s="39">
         <v>447</v>
       </c>
-      <c r="F104" s="48" t="s">
+      <c r="F104" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G104" s="55" t="s">
+      <c r="G104" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H104" s="48" t="s">
-        <v>807</v>
-      </c>
-      <c r="I104" s="48" t="s">
-        <v>808</v>
-      </c>
-      <c r="J104" s="48" t="s">
-        <v>849</v>
-      </c>
-      <c r="K104" s="56" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="18.75">
-      <c r="A105" s="57">
+      <c r="H104" s="39" t="s">
+        <v>802</v>
+      </c>
+      <c r="I104" s="39" t="s">
+        <v>803</v>
+      </c>
+      <c r="J104" s="39" t="s">
+        <v>854</v>
+      </c>
+      <c r="K104" s="47" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="16.5">
+      <c r="A105" s="48">
         <f>IF(F105&lt;&gt;"",IF(F105&lt;&gt;F104,MAX($A$2:A104)+1,A104),"")</f>
         <v>1</v>
       </c>
-      <c r="B105" s="67">
+      <c r="B105" s="56">
         <f t="shared" si="1"/>
         <v>146.94</v>
       </c>
-      <c r="C105" s="48">
+      <c r="C105" s="39">
         <v>2</v>
       </c>
-      <c r="D105" s="48">
+      <c r="D105" s="39">
         <v>26</v>
       </c>
-      <c r="E105" s="48">
+      <c r="E105" s="39">
         <v>940</v>
       </c>
-      <c r="F105" s="48" t="s">
+      <c r="F105" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G105" s="55" t="s">
+      <c r="G105" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H105" s="48" t="s">
-        <v>809</v>
-      </c>
-      <c r="I105" s="48" t="s">
-        <v>810</v>
-      </c>
-      <c r="J105" s="48" t="s">
-        <v>851</v>
-      </c>
-      <c r="K105" s="56" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="18.75">
-      <c r="A106" s="57">
+      <c r="H105" s="39" t="s">
+        <v>804</v>
+      </c>
+      <c r="I105" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="J105" s="39" t="s">
+        <v>855</v>
+      </c>
+      <c r="K105" s="47" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="16.5">
+      <c r="A106" s="48">
         <f>IF(F106&lt;&gt;"",IF(F106&lt;&gt;F105,MAX($A$2:A105)+1,A105),"")</f>
         <v>1</v>
       </c>
-      <c r="B106" s="67">
+      <c r="B106" s="56">
         <f t="shared" si="1"/>
         <v>151.93100000000001</v>
       </c>
-      <c r="C106" s="48">
+      <c r="C106" s="39">
         <v>2</v>
       </c>
-      <c r="D106" s="48">
+      <c r="D106" s="39">
         <v>31</v>
       </c>
-      <c r="E106" s="48">
+      <c r="E106" s="39">
         <v>931</v>
       </c>
-      <c r="F106" s="48" t="s">
+      <c r="F106" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G106" s="55" t="s">
+      <c r="G106" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H106" s="48" t="s">
-        <v>811</v>
-      </c>
-      <c r="I106" s="48" t="s">
-        <v>812</v>
-      </c>
-      <c r="J106" s="48" t="s">
-        <v>851</v>
-      </c>
-      <c r="K106" s="56" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="18.75">
-      <c r="A107" s="57">
+      <c r="H106" s="39" t="s">
+        <v>806</v>
+      </c>
+      <c r="I106" s="39" t="s">
+        <v>807</v>
+      </c>
+      <c r="J106" s="39" t="s">
+        <v>855</v>
+      </c>
+      <c r="K106" s="47" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="16.5">
+      <c r="A107" s="48">
         <f>IF(F107&lt;&gt;"",IF(F107&lt;&gt;F106,MAX($A$2:A106)+1,A106),"")</f>
         <v>1</v>
       </c>
-      <c r="B107" s="67">
+      <c r="B107" s="56">
         <f t="shared" si="1"/>
         <v>154.78200000000001</v>
       </c>
-      <c r="C107" s="48">
+      <c r="C107" s="39">
         <v>2</v>
       </c>
-      <c r="D107" s="48">
+      <c r="D107" s="39">
         <v>34</v>
       </c>
-      <c r="E107" s="48">
+      <c r="E107" s="39">
         <v>782</v>
       </c>
-      <c r="F107" s="48" t="s">
+      <c r="F107" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G107" s="55" t="s">
+      <c r="G107" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H107" s="48" t="s">
-        <v>813</v>
-      </c>
-      <c r="I107" s="48" t="s">
-        <v>814</v>
-      </c>
-      <c r="J107" s="48" t="s">
-        <v>851</v>
-      </c>
-      <c r="K107" s="56" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="18.75">
-      <c r="A108" s="57">
+      <c r="H107" s="39" t="s">
+        <v>808</v>
+      </c>
+      <c r="I107" s="39" t="s">
+        <v>809</v>
+      </c>
+      <c r="J107" s="39" t="s">
+        <v>855</v>
+      </c>
+      <c r="K107" s="47" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="16.5">
+      <c r="A108" s="48">
         <f>IF(F108&lt;&gt;"",IF(F108&lt;&gt;F107,MAX($A$2:A107)+1,A107),"")</f>
         <v>1</v>
       </c>
-      <c r="B108" s="67">
+      <c r="B108" s="56">
         <f t="shared" si="1"/>
         <v>157.03</v>
       </c>
-      <c r="C108" s="48">
+      <c r="C108" s="39">
         <v>2</v>
       </c>
-      <c r="D108" s="48">
+      <c r="D108" s="39">
         <v>37</v>
       </c>
-      <c r="E108" s="48">
+      <c r="E108" s="39">
         <v>30</v>
       </c>
-      <c r="F108" s="48" t="s">
+      <c r="F108" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G108" s="55" t="s">
+      <c r="G108" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H108" s="48" t="s">
-        <v>815</v>
-      </c>
-      <c r="I108" s="48" t="s">
-        <v>816</v>
-      </c>
-      <c r="J108" s="48" t="s">
-        <v>851</v>
-      </c>
-      <c r="K108" s="56" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="18.75">
-      <c r="A109" s="57">
+      <c r="H108" s="39" t="s">
+        <v>810</v>
+      </c>
+      <c r="I108" s="39" t="s">
+        <v>811</v>
+      </c>
+      <c r="J108" s="39" t="s">
+        <v>855</v>
+      </c>
+      <c r="K108" s="47" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="16.5">
+      <c r="A109" s="48">
         <f>IF(F109&lt;&gt;"",IF(F109&lt;&gt;F108,MAX($A$2:A108)+1,A108),"")</f>
         <v>1</v>
       </c>
-      <c r="B109" s="67">
+      <c r="B109" s="56">
         <f t="shared" si="1"/>
         <v>159.548</v>
       </c>
-      <c r="C109" s="48">
+      <c r="C109" s="39">
         <v>2</v>
       </c>
-      <c r="D109" s="48">
+      <c r="D109" s="39">
         <v>39</v>
       </c>
-      <c r="E109" s="48">
+      <c r="E109" s="39">
         <v>548</v>
       </c>
-      <c r="F109" s="48" t="s">
+      <c r="F109" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G109" s="55" t="s">
+      <c r="G109" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H109" s="48" t="s">
-        <v>817</v>
-      </c>
-      <c r="I109" s="48" t="s">
-        <v>818</v>
-      </c>
-      <c r="J109" s="48" t="s">
-        <v>851</v>
-      </c>
-      <c r="K109" s="56" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="18.75">
-      <c r="A110" s="57">
+      <c r="H109" s="39" t="s">
+        <v>812</v>
+      </c>
+      <c r="I109" s="39" t="s">
+        <v>813</v>
+      </c>
+      <c r="J109" s="39" t="s">
+        <v>855</v>
+      </c>
+      <c r="K109" s="47" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="16.5">
+      <c r="A110" s="48">
         <f>IF(F110&lt;&gt;"",IF(F110&lt;&gt;F109,MAX($A$2:A109)+1,A109),"")</f>
         <v>1</v>
       </c>
-      <c r="B110" s="67">
+      <c r="B110" s="56">
         <f t="shared" si="1"/>
         <v>161.45400000000001</v>
       </c>
-      <c r="C110" s="48">
+      <c r="C110" s="39">
         <v>2</v>
       </c>
-      <c r="D110" s="48">
+      <c r="D110" s="39">
         <v>41</v>
       </c>
-      <c r="E110" s="48">
+      <c r="E110" s="39">
         <v>454</v>
       </c>
-      <c r="F110" s="48" t="s">
+      <c r="F110" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G110" s="55" t="s">
+      <c r="G110" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H110" s="48" t="s">
-        <v>819</v>
-      </c>
-      <c r="I110" s="48" t="s">
-        <v>820</v>
-      </c>
-      <c r="J110" s="48" t="s">
-        <v>851</v>
-      </c>
-      <c r="K110" s="56" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="18.75">
-      <c r="A111" s="57">
+      <c r="H110" s="39" t="s">
+        <v>814</v>
+      </c>
+      <c r="I110" s="39" t="s">
+        <v>815</v>
+      </c>
+      <c r="J110" s="39" t="s">
+        <v>855</v>
+      </c>
+      <c r="K110" s="47" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="16.5">
+      <c r="A111" s="48">
         <f>IF(F111&lt;&gt;"",IF(F111&lt;&gt;F110,MAX($A$2:A110)+1,A110),"")</f>
         <v>1</v>
       </c>
-      <c r="B111" s="67">
+      <c r="B111" s="56">
         <f t="shared" si="1"/>
         <v>163.65100000000001</v>
       </c>
-      <c r="C111" s="48">
+      <c r="C111" s="39">
         <v>2</v>
       </c>
-      <c r="D111" s="48">
+      <c r="D111" s="39">
         <v>43</v>
       </c>
-      <c r="E111" s="48">
+      <c r="E111" s="39">
         <v>651</v>
       </c>
-      <c r="F111" s="48" t="s">
+      <c r="F111" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G111" s="55" t="s">
+      <c r="G111" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H111" s="48" t="s">
-        <v>821</v>
-      </c>
-      <c r="I111" s="48" t="s">
-        <v>822</v>
-      </c>
-      <c r="J111" s="48" t="s">
-        <v>851</v>
-      </c>
-      <c r="K111" s="56" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="18.75">
-      <c r="A112" s="57">
+      <c r="H111" s="39" t="s">
+        <v>816</v>
+      </c>
+      <c r="I111" s="39" t="s">
+        <v>817</v>
+      </c>
+      <c r="J111" s="39" t="s">
+        <v>855</v>
+      </c>
+      <c r="K111" s="47" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="16.5">
+      <c r="A112" s="48">
         <f>IF(F112&lt;&gt;"",IF(F112&lt;&gt;F111,MAX($A$2:A111)+1,A111),"")</f>
         <v>1</v>
       </c>
-      <c r="B112" s="67">
+      <c r="B112" s="56">
         <f t="shared" si="1"/>
         <v>167.173</v>
       </c>
-      <c r="C112" s="48">
+      <c r="C112" s="39">
         <v>2</v>
       </c>
-      <c r="D112" s="48">
+      <c r="D112" s="39">
         <v>47</v>
       </c>
-      <c r="E112" s="48">
+      <c r="E112" s="39">
         <v>173</v>
       </c>
-      <c r="F112" s="48" t="s">
+      <c r="F112" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G112" s="55" t="s">
+      <c r="G112" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H112" s="48" t="s">
-        <v>772</v>
-      </c>
-      <c r="I112" s="48" t="s">
-        <v>773</v>
-      </c>
-      <c r="J112" s="56" t="s">
-        <v>853</v>
-      </c>
-      <c r="K112" s="56" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="18.75">
-      <c r="A113" s="57">
+      <c r="H112" s="39" t="s">
+        <v>767</v>
+      </c>
+      <c r="I112" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="J112" s="47" t="s">
+        <v>856</v>
+      </c>
+      <c r="K112" s="47" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="16.5">
+      <c r="A113" s="48">
         <f>IF(F113&lt;&gt;"",IF(F113&lt;&gt;F112,MAX($A$2:A112)+1,A112),"")</f>
         <v>1</v>
       </c>
-      <c r="B113" s="67">
+      <c r="B113" s="56">
         <f t="shared" si="1"/>
         <v>168.67400000000001</v>
       </c>
-      <c r="C113" s="48">
+      <c r="C113" s="39">
         <v>2</v>
       </c>
-      <c r="D113" s="48">
+      <c r="D113" s="39">
         <v>48</v>
       </c>
-      <c r="E113" s="48">
+      <c r="E113" s="39">
         <v>674</v>
       </c>
-      <c r="F113" s="48" t="s">
+      <c r="F113" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G113" s="55" t="s">
+      <c r="G113" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H113" s="48" t="s">
-        <v>774</v>
-      </c>
-      <c r="I113" s="48" t="s">
-        <v>775</v>
-      </c>
-      <c r="J113" s="56" t="s">
-        <v>853</v>
-      </c>
-      <c r="K113" s="56" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="18.75">
-      <c r="A114" s="57">
+      <c r="H113" s="39" t="s">
+        <v>769</v>
+      </c>
+      <c r="I113" s="39" t="s">
+        <v>770</v>
+      </c>
+      <c r="J113" s="47" t="s">
+        <v>856</v>
+      </c>
+      <c r="K113" s="47" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="16.5">
+      <c r="A114" s="48">
         <f>IF(F114&lt;&gt;"",IF(F114&lt;&gt;F113,MAX($A$2:A113)+1,A113),"")</f>
         <v>1</v>
       </c>
-      <c r="B114" s="67">
+      <c r="B114" s="56">
         <f t="shared" si="1"/>
         <v>169.70699999999999</v>
       </c>
-      <c r="C114" s="48">
+      <c r="C114" s="39">
         <v>2</v>
       </c>
-      <c r="D114" s="48">
+      <c r="D114" s="39">
         <v>49</v>
       </c>
-      <c r="E114" s="48">
+      <c r="E114" s="39">
         <v>707</v>
       </c>
-      <c r="F114" s="48" t="s">
+      <c r="F114" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G114" s="55" t="s">
+      <c r="G114" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H114" s="48" t="s">
-        <v>772</v>
-      </c>
-      <c r="I114" s="48" t="s">
-        <v>773</v>
-      </c>
-      <c r="J114" s="56" t="s">
-        <v>853</v>
-      </c>
-      <c r="K114" s="56" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="18.75">
-      <c r="A115" s="57">
+      <c r="H114" s="39" t="s">
+        <v>767</v>
+      </c>
+      <c r="I114" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="J114" s="47" t="s">
+        <v>856</v>
+      </c>
+      <c r="K114" s="47" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="16.5">
+      <c r="A115" s="48">
         <f>IF(F115&lt;&gt;"",IF(F115&lt;&gt;F114,MAX($A$2:A114)+1,A114),"")</f>
         <v>1</v>
       </c>
-      <c r="B115" s="67">
+      <c r="B115" s="56">
         <f t="shared" si="1"/>
         <v>171.262</v>
       </c>
-      <c r="C115" s="48">
+      <c r="C115" s="39">
         <v>2</v>
       </c>
-      <c r="D115" s="48">
+      <c r="D115" s="39">
         <v>51</v>
       </c>
-      <c r="E115" s="48">
+      <c r="E115" s="39">
         <v>262</v>
       </c>
-      <c r="F115" s="48" t="s">
+      <c r="F115" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G115" s="55" t="s">
+      <c r="G115" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H115" s="48" t="s">
-        <v>776</v>
-      </c>
-      <c r="I115" s="48" t="s">
-        <v>777</v>
-      </c>
-      <c r="J115" s="56" t="s">
-        <v>853</v>
-      </c>
-      <c r="K115" s="56" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="18.75">
-      <c r="A116" s="57">
+      <c r="H115" s="39" t="s">
+        <v>771</v>
+      </c>
+      <c r="I115" s="39" t="s">
+        <v>772</v>
+      </c>
+      <c r="J115" s="47" t="s">
+        <v>856</v>
+      </c>
+      <c r="K115" s="47" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="16.5">
+      <c r="A116" s="48">
         <f>IF(F116&lt;&gt;"",IF(F116&lt;&gt;F115,MAX($A$2:A115)+1,A115),"")</f>
         <v>1</v>
       </c>
-      <c r="B116" s="67">
+      <c r="B116" s="56">
         <f t="shared" si="1"/>
         <v>172.22200000000001</v>
       </c>
-      <c r="C116" s="48">
+      <c r="C116" s="39">
         <v>2</v>
       </c>
-      <c r="D116" s="48">
+      <c r="D116" s="39">
         <v>52</v>
       </c>
-      <c r="E116" s="48">
+      <c r="E116" s="39">
         <v>222</v>
       </c>
-      <c r="F116" s="48" t="s">
+      <c r="F116" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G116" s="55" t="s">
+      <c r="G116" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H116" s="48" t="s">
-        <v>772</v>
-      </c>
-      <c r="I116" s="48" t="s">
-        <v>773</v>
-      </c>
-      <c r="J116" s="56" t="s">
-        <v>853</v>
-      </c>
-      <c r="K116" s="56" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="18.75">
-      <c r="A117" s="57">
+      <c r="H116" s="39" t="s">
+        <v>767</v>
+      </c>
+      <c r="I116" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="J116" s="47" t="s">
+        <v>856</v>
+      </c>
+      <c r="K116" s="47" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="16.5">
+      <c r="A117" s="48">
         <f>IF(F117&lt;&gt;"",IF(F117&lt;&gt;F116,MAX($A$2:A116)+1,A116),"")</f>
         <v>1</v>
       </c>
-      <c r="B117" s="67">
+      <c r="B117" s="56">
         <f t="shared" si="1"/>
         <v>173.76599999999999</v>
       </c>
-      <c r="C117" s="48">
+      <c r="C117" s="39">
         <v>2</v>
       </c>
-      <c r="D117" s="48">
+      <c r="D117" s="39">
         <v>53</v>
       </c>
-      <c r="E117" s="48">
+      <c r="E117" s="39">
         <v>766</v>
       </c>
-      <c r="F117" s="48" t="s">
+      <c r="F117" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G117" s="55" t="s">
+      <c r="G117" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H117" s="48" t="s">
-        <v>774</v>
-      </c>
-      <c r="I117" s="48" t="s">
-        <v>775</v>
-      </c>
-      <c r="J117" s="56" t="s">
-        <v>853</v>
-      </c>
-      <c r="K117" s="56" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="18.75">
-      <c r="A118" s="57">
+      <c r="H117" s="39" t="s">
+        <v>769</v>
+      </c>
+      <c r="I117" s="39" t="s">
+        <v>770</v>
+      </c>
+      <c r="J117" s="47" t="s">
+        <v>856</v>
+      </c>
+      <c r="K117" s="47" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="16.5">
+      <c r="A118" s="48">
         <f>IF(F118&lt;&gt;"",IF(F118&lt;&gt;F117,MAX($A$2:A117)+1,A117),"")</f>
         <v>1</v>
       </c>
-      <c r="B118" s="67">
+      <c r="B118" s="56">
         <f t="shared" si="1"/>
         <v>174.75800000000001</v>
       </c>
-      <c r="C118" s="48">
+      <c r="C118" s="39">
         <v>2</v>
       </c>
-      <c r="D118" s="48">
+      <c r="D118" s="39">
         <v>54</v>
       </c>
-      <c r="E118" s="48">
+      <c r="E118" s="39">
         <v>758</v>
       </c>
-      <c r="F118" s="48" t="s">
+      <c r="F118" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G118" s="55" t="s">
+      <c r="G118" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H118" s="48" t="s">
-        <v>772</v>
-      </c>
-      <c r="I118" s="48" t="s">
-        <v>773</v>
-      </c>
-      <c r="J118" s="56" t="s">
-        <v>853</v>
-      </c>
-      <c r="K118" s="56" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="18.75">
-      <c r="A119" s="57">
+      <c r="H118" s="39" t="s">
+        <v>767</v>
+      </c>
+      <c r="I118" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="J118" s="47" t="s">
+        <v>856</v>
+      </c>
+      <c r="K118" s="47" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="16.5">
+      <c r="A119" s="48">
         <f>IF(F119&lt;&gt;"",IF(F119&lt;&gt;F118,MAX($A$2:A118)+1,A118),"")</f>
         <v>1</v>
       </c>
-      <c r="B119" s="67">
+      <c r="B119" s="56">
         <f t="shared" si="1"/>
         <v>176.22399999999999</v>
       </c>
-      <c r="C119" s="48">
+      <c r="C119" s="39">
         <v>2</v>
       </c>
-      <c r="D119" s="48">
+      <c r="D119" s="39">
         <v>56</v>
       </c>
-      <c r="E119" s="48">
+      <c r="E119" s="39">
         <v>224</v>
       </c>
-      <c r="F119" s="48" t="s">
+      <c r="F119" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G119" s="55" t="s">
+      <c r="G119" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="H119" s="48" t="s">
-        <v>823</v>
-      </c>
-      <c r="I119" s="48" t="s">
-        <v>824</v>
-      </c>
-      <c r="J119" s="56" t="s">
-        <v>853</v>
-      </c>
-      <c r="K119" s="56" t="s">
-        <v>854</v>
+      <c r="H119" s="39" t="s">
+        <v>818</v>
+      </c>
+      <c r="I119" s="39" t="s">
+        <v>819</v>
+      </c>
+      <c r="J119" s="47" t="s">
+        <v>856</v>
+      </c>
+      <c r="K119" s="47" t="s">
+        <v>842</v>
       </c>
     </row>
   </sheetData>

--- a/__XLSX/Sample14 - MashUp.xlsx
+++ b/__XLSX/Sample14 - MashUp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\음악퀴즈\맵\Excel_Cutter\__XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1398F5A-DE9A-4AD4-BF9B-E8E228F45120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1834EA64-AF92-42D7-A91C-044F9FF13850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,7 +348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="918">
   <si>
     <t>노래 정보</t>
   </si>
@@ -1219,9 +1219,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Jx8BlfLLrSY</t>
-  </si>
-  <si>
-    <t>パメラ</t>
   </si>
   <si>
     <t>파멜라</t>
@@ -2779,9 +2776,6 @@
     <t>프로그램의 범주 외</t>
   </si>
   <si>
-    <t>시야 흐려지고 있어</t>
-  </si>
-  <si>
     <t>다시 되돌릴 수 있나</t>
   </si>
   <si>
@@ -3193,6 +3187,233 @@
     <t>\x1BLEFT \x14SIDE LEFT SIDE RIGHT</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aCGOq4l-13A</t>
+  </si>
+  <si>
+    <t>ミザン</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>미장</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ハ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>゚メラ</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌룬 &amp; 누유리</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>파멜라</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆笑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭소</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>바쿠쇼우</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>syudou</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-05-27</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fZHl14cE6Mg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3Ba8vmyp-cQ</t>
+  </si>
+  <si>
+    <t>보카 델라 베리타</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>마에가미스트</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞머리스트</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>マエガミスト</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MARETU</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-05-27</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oqSBMzCb9bM</t>
+  </si>
+  <si>
+    <t>소녀해부</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>오토메 카이보우</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ExycNXCW6YM</t>
+  </si>
+  <si>
+    <t>네이더</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nadir</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orangestar</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RCjeCfrfOzc</t>
+  </si>
+  <si>
+    <t>엔비 베이비</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>킬머</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>酔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>いどれ知らず</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>취한 줄을 모르고</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-05-02</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>요이도레 시라즈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3fXBdR9dsmQ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시야가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흐려지고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있어</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1EUP SIDE UP SIDE DOWN</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>\x1ELEFT SIDE LEFT SIDE RIGHT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3201,7 +3422,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3334,6 +3555,27 @@
       <name val="굴림"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="새굴림"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3745,7 +3987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3886,6 +4128,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4125,21 +4370,16 @@
   <dimension ref="A1:BE1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="3" topLeftCell="R91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H104" sqref="H104"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="6" customWidth="1"/>
-    <col min="3" max="4" width="9" customWidth="1"/>
-    <col min="5" max="6" width="9" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="9" customWidth="1"/>
-    <col min="9" max="10" width="9" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="9" customWidth="1"/>
-    <col min="13" max="14" width="9" hidden="1" customWidth="1"/>
+    <col min="3" max="14" width="9" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
     <col min="16" max="57" width="9" customWidth="1"/>
   </cols>
@@ -4147,154 +4387,154 @@
     <row r="1" spans="1:57" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="str">
         <f>CONCATENATE("총 ", MAX($A$4:$A$9943),"곡")</f>
-        <v>총 96곡</v>
+        <v>총 103곡</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="63" t="str">
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="64" t="str">
         <f>CONCATENATE("Total Time: ", (SUM(R:R)+SUM(U:U)+SUM(X:X)+SUM(AA:AA))- (SUM(Q:Q)+SUM(T:T)+SUM(W:W)+SUM(Z:Z)), "sec")</f>
-        <v>Total Time: 10057.72sec</v>
-      </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="63" t="s">
+        <v>Total Time: 10826.92sec</v>
+      </c>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="65"/>
+      <c r="BB1" s="65"/>
+      <c r="BC1" s="65"/>
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="66"/>
     </row>
     <row r="2" spans="1:57" ht="16.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="58" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="58" t="s">
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="61"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="62"/>
       <c r="O2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="58" t="s">
+      <c r="Q2" s="60"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="58" t="s">
+      <c r="T2" s="60"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="59"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="58" t="s">
+      <c r="W2" s="60"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="62" t="s">
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="62" t="s">
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="62" t="s">
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="62"/>
+      <c r="AV2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="59"/>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="59"/>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="61"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="60"/>
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="60"/>
+      <c r="BE2" s="62"/>
     </row>
     <row r="3" spans="1:57" ht="16.5" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -4507,7 +4747,7 @@
       <c r="M4" s="20"/>
       <c r="N4" s="22"/>
       <c r="O4" s="4">
-        <f t="shared" ref="O4:O111" si="2">COUNTA(P4,S4,V4,Y4)</f>
+        <f t="shared" ref="O4:O112" si="2">COUNTA(P4,S4,V4,Y4)</f>
         <v>3</v>
       </c>
       <c r="P4" s="23" t="s">
@@ -7649,28 +7889,28 @@
         <v>2</v>
       </c>
       <c r="C34" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="E34" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="F34" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="G34" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="H34" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="I34" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="J34" s="27" t="s">
         <v>290</v>
-      </c>
-      <c r="J34" s="27" t="s">
-        <v>291</v>
       </c>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
@@ -7681,7 +7921,7 @@
         <v>2</v>
       </c>
       <c r="P34" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q34" s="20">
         <v>46.61</v>
@@ -7690,7 +7930,7 @@
         <v>92.3</v>
       </c>
       <c r="S34" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T34" s="20">
         <v>150.80000000000001</v>
@@ -7705,7 +7945,7 @@
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AC34" s="20"/>
       <c r="AD34" s="20"/>
@@ -7717,10 +7957,10 @@
       <c r="AJ34" s="20"/>
       <c r="AK34" s="20"/>
       <c r="AL34" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AM34" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN34" s="20"/>
       <c r="AO34" s="20"/>
@@ -7763,16 +8003,16 @@
         <v>235</v>
       </c>
       <c r="G35" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="H35" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="I35" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="J35" s="27" t="s">
         <v>296</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>297</v>
       </c>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
@@ -7783,7 +8023,7 @@
         <v>3</v>
       </c>
       <c r="P35" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q35" s="20">
         <v>51</v>
@@ -7792,7 +8032,7 @@
         <v>94</v>
       </c>
       <c r="S35" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T35" s="20">
         <v>102.9</v>
@@ -7801,7 +8041,7 @@
         <v>150.6</v>
       </c>
       <c r="V35" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="W35" s="20">
         <v>182.25</v>
@@ -7827,7 +8067,7 @@
       <c r="AJ35" s="20"/>
       <c r="AK35" s="20"/>
       <c r="AL35" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AM35" s="20"/>
       <c r="AN35" s="20"/>
@@ -7871,16 +8111,16 @@
         <v>57</v>
       </c>
       <c r="G36" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="H36" s="20" t="s">
         <v>299</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>300</v>
       </c>
       <c r="I36" s="16" t="s">
         <v>264</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
@@ -7891,7 +8131,7 @@
         <v>2</v>
       </c>
       <c r="P36" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q36" s="20">
         <v>28.7</v>
@@ -7900,7 +8140,7 @@
         <v>77.55</v>
       </c>
       <c r="S36" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T36" s="20">
         <v>226</v>
@@ -7931,7 +8171,7 @@
       <c r="AJ36" s="20"/>
       <c r="AK36" s="20"/>
       <c r="AL36" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AM36" s="20"/>
       <c r="AN36" s="20"/>
@@ -7963,28 +8203,28 @@
         <v>2</v>
       </c>
       <c r="C37" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="D37" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="E37" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="F37" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="F37" s="31" t="s">
+      <c r="G37" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="H37" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="I37" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="J37" s="27" t="s">
         <v>309</v>
-      </c>
-      <c r="J37" s="27" t="s">
-        <v>310</v>
       </c>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
@@ -7995,7 +8235,7 @@
         <v>2</v>
       </c>
       <c r="P37" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q37" s="20">
         <v>53.8</v>
@@ -8004,7 +8244,7 @@
         <v>98.2</v>
       </c>
       <c r="S37" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T37" s="20">
         <v>176.25</v>
@@ -8019,10 +8259,10 @@
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AC37" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AD37" s="20"/>
       <c r="AE37" s="20"/>
@@ -8033,10 +8273,10 @@
       <c r="AJ37" s="20"/>
       <c r="AK37" s="20"/>
       <c r="AL37" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AM37" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AN37" s="20"/>
       <c r="AO37" s="20"/>
@@ -8079,16 +8319,16 @@
         <v>154</v>
       </c>
       <c r="G38" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="H38" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="H38" s="20" t="s">
+      <c r="I38" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="I38" s="16" t="s">
+      <c r="J38" s="27" t="s">
         <v>316</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>317</v>
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="20"/>
@@ -8099,7 +8339,7 @@
         <v>3</v>
       </c>
       <c r="P38" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q38" s="20">
         <v>20.5</v>
@@ -8108,7 +8348,7 @@
         <v>65.8</v>
       </c>
       <c r="S38" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T38" s="20">
         <v>74.75</v>
@@ -8117,7 +8357,7 @@
         <v>126.7</v>
       </c>
       <c r="V38" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W38" s="20">
         <v>152.1</v>
@@ -8141,10 +8381,10 @@
       <c r="AJ38" s="20"/>
       <c r="AK38" s="20"/>
       <c r="AL38" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AM38" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AN38" s="20"/>
       <c r="AO38" s="20"/>
@@ -8187,16 +8427,16 @@
         <v>191</v>
       </c>
       <c r="G39" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="H39" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="H39" s="20" t="s">
+      <c r="I39" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="J39" s="27" t="s">
         <v>322</v>
-      </c>
-      <c r="J39" s="27" t="s">
-        <v>323</v>
       </c>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
@@ -8207,7 +8447,7 @@
         <v>3</v>
       </c>
       <c r="P39" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q39" s="20">
         <v>44.83</v>
@@ -8216,7 +8456,7 @@
         <v>93.4</v>
       </c>
       <c r="S39" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T39" s="20">
         <v>103.19</v>
@@ -8225,7 +8465,7 @@
         <v>149.74</v>
       </c>
       <c r="V39" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W39" s="20">
         <v>161</v>
@@ -8249,16 +8489,16 @@
       <c r="AJ39" s="20"/>
       <c r="AK39" s="20"/>
       <c r="AL39" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AM39" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN39" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="AN39" s="16" t="s">
+      <c r="AO39" s="16" t="s">
         <v>326</v>
-      </c>
-      <c r="AO39" s="16" t="s">
-        <v>327</v>
       </c>
       <c r="AP39" s="20"/>
       <c r="AQ39" s="20"/>
@@ -8299,16 +8539,16 @@
         <v>112</v>
       </c>
       <c r="G40" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="H40" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="H40" s="20" t="s">
+      <c r="I40" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="J40" s="27" t="s">
         <v>330</v>
-      </c>
-      <c r="J40" s="27" t="s">
-        <v>331</v>
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
@@ -8319,7 +8559,7 @@
         <v>2</v>
       </c>
       <c r="P40" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q40" s="20">
         <v>46.1</v>
@@ -8328,7 +8568,7 @@
         <v>97.3</v>
       </c>
       <c r="S40" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T40" s="20">
         <v>122.7</v>
@@ -8357,13 +8597,13 @@
       <c r="AJ40" s="20"/>
       <c r="AK40" s="20"/>
       <c r="AL40" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AM40" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="AN40" s="16" t="s">
         <v>333</v>
-      </c>
-      <c r="AN40" s="16" t="s">
-        <v>334</v>
       </c>
       <c r="AO40" s="20"/>
       <c r="AP40" s="20"/>
@@ -8390,26 +8630,26 @@
         <v>2</v>
       </c>
       <c r="C41" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>335</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>336</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F41" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="G41" s="26" t="s">
         <v>337</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>338</v>
       </c>
       <c r="H41" s="20"/>
       <c r="I41" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="J41" s="27" t="s">
         <v>339</v>
-      </c>
-      <c r="J41" s="27" t="s">
-        <v>340</v>
       </c>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
@@ -8420,7 +8660,7 @@
         <v>1</v>
       </c>
       <c r="P41" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q41" s="20"/>
       <c r="R41" s="20"/>
@@ -8434,7 +8674,7 @@
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AC41" s="20"/>
       <c r="AD41" s="20"/>
@@ -8446,16 +8686,16 @@
       <c r="AJ41" s="20"/>
       <c r="AK41" s="20"/>
       <c r="AL41" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM41" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="AM41" s="16" t="s">
+      <c r="AN41" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="AO41" s="16" t="s">
         <v>343</v>
-      </c>
-      <c r="AN41" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="AO41" s="16" t="s">
-        <v>344</v>
       </c>
       <c r="AP41" s="20"/>
       <c r="AQ41" s="20"/>
@@ -8516,7 +8756,7 @@
         <v>2</v>
       </c>
       <c r="P42" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q42" s="20">
         <v>40.200000000000003</v>
@@ -8525,7 +8765,7 @@
         <v>90.2</v>
       </c>
       <c r="S42" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T42" s="20">
         <v>139.19999999999999</v>
@@ -8617,7 +8857,7 @@
         <v>1</v>
       </c>
       <c r="P43" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
@@ -8679,16 +8919,16 @@
         <v>2</v>
       </c>
       <c r="C44" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="D44" s="20" t="s">
         <v>347</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>348</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>141</v>
@@ -8711,7 +8951,7 @@
         <v>2</v>
       </c>
       <c r="P44" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q44" s="20">
         <v>35.9</v>
@@ -8720,7 +8960,7 @@
         <v>83.3</v>
       </c>
       <c r="S44" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T44" s="20">
         <v>93.1</v>
@@ -8735,16 +8975,16 @@
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AC44" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD44" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="AD44" s="16" t="s">
+      <c r="AE44" s="16" t="s">
         <v>352</v>
-      </c>
-      <c r="AE44" s="16" t="s">
-        <v>353</v>
       </c>
       <c r="AF44" s="20"/>
       <c r="AG44" s="20"/>
@@ -8785,28 +9025,28 @@
         <v>2</v>
       </c>
       <c r="C45" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>354</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>355</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>260</v>
       </c>
       <c r="F45" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="G45" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="H45" s="20" t="s">
         <v>357</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>358</v>
       </c>
       <c r="I45" s="16" t="s">
         <v>260</v>
       </c>
       <c r="J45" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
@@ -8817,7 +9057,7 @@
         <v>2</v>
       </c>
       <c r="P45" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q45" s="20">
         <v>56</v>
@@ -8826,7 +9066,7 @@
         <v>112.6</v>
       </c>
       <c r="S45" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T45" s="20">
         <v>200.1</v>
@@ -8841,10 +9081,10 @@
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AC45" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AD45" s="20"/>
       <c r="AE45" s="20"/>
@@ -8855,10 +9095,10 @@
       <c r="AJ45" s="20"/>
       <c r="AK45" s="20"/>
       <c r="AL45" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM45" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AN45" s="20"/>
       <c r="AO45" s="20"/>
@@ -8889,26 +9129,26 @@
         <v>2</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D46" s="20"/>
       <c r="E46" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="F46" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="G46" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="H46" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="H46" s="20" t="s">
+      <c r="I46" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="J46" s="27" t="s">
         <v>367</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="J46" s="27" t="s">
-        <v>368</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
@@ -8919,7 +9159,7 @@
         <v>2</v>
       </c>
       <c r="P46" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q46" s="20">
         <v>31.8</v>
@@ -8928,7 +9168,7 @@
         <v>84.4</v>
       </c>
       <c r="S46" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T46" s="20">
         <v>104.3</v>
@@ -8943,10 +9183,10 @@
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AC46" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AD46" s="20"/>
       <c r="AE46" s="20"/>
@@ -8957,10 +9197,10 @@
       <c r="AJ46" s="20"/>
       <c r="AK46" s="20"/>
       <c r="AL46" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AM46" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AN46" s="20"/>
       <c r="AO46" s="20"/>
@@ -9003,16 +9243,16 @@
         <v>41</v>
       </c>
       <c r="G47" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="H47" s="20" t="s">
         <v>372</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>373</v>
       </c>
       <c r="I47" s="16" t="s">
         <v>20</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
@@ -9023,7 +9263,7 @@
         <v>2</v>
       </c>
       <c r="P47" s="29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q47" s="20">
         <v>38.4</v>
@@ -9032,7 +9272,7 @@
         <v>93.1</v>
       </c>
       <c r="S47" s="29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="T47" s="20">
         <v>155.30000000000001</v>
@@ -9059,10 +9299,10 @@
       <c r="AJ47" s="20"/>
       <c r="AK47" s="20"/>
       <c r="AL47" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AM47" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AN47" s="20"/>
       <c r="AO47" s="20"/>
@@ -9093,28 +9333,28 @@
         <v>2</v>
       </c>
       <c r="C48" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="D48" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="E48" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="F48" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="F48" s="31" t="s">
+      <c r="G48" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="G48" s="26" t="s">
+      <c r="H48" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="H48" s="20" t="s">
+      <c r="I48" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="J48" s="27" t="s">
         <v>382</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="J48" s="27" t="s">
-        <v>383</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
@@ -9125,7 +9365,7 @@
         <v>3</v>
       </c>
       <c r="P48" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q48" s="20">
         <v>43.1</v>
@@ -9134,7 +9374,7 @@
         <v>80.8</v>
       </c>
       <c r="S48" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T48" s="20">
         <v>90.1</v>
@@ -9143,7 +9383,7 @@
         <v>213.4</v>
       </c>
       <c r="V48" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W48" s="20">
         <v>165.1</v>
@@ -9155,7 +9395,7 @@
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AC48" s="20"/>
       <c r="AD48" s="20"/>
@@ -9167,7 +9407,7 @@
       <c r="AJ48" s="20"/>
       <c r="AK48" s="20"/>
       <c r="AL48" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM48" s="20"/>
       <c r="AN48" s="20"/>
@@ -9231,7 +9471,7 @@
         <v>2</v>
       </c>
       <c r="P49" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q49" s="20">
         <v>34.4</v>
@@ -9240,7 +9480,7 @@
         <v>82.1</v>
       </c>
       <c r="S49" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T49" s="20">
         <v>151</v>
@@ -9299,28 +9539,28 @@
         <v>2</v>
       </c>
       <c r="C50" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D50" s="20" t="s">
         <v>299</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>300</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>264</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G50" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="H50" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="H50" s="20" t="s">
+      <c r="I50" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="I50" s="16" t="s">
+      <c r="J50" s="27" t="s">
         <v>388</v>
-      </c>
-      <c r="J50" s="27" t="s">
-        <v>389</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
@@ -9331,7 +9571,7 @@
         <v>3</v>
       </c>
       <c r="P50" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q50" s="20">
         <v>31.2</v>
@@ -9340,7 +9580,7 @@
         <v>78.8</v>
       </c>
       <c r="S50" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T50" s="20">
         <v>79</v>
@@ -9349,7 +9589,7 @@
         <v>130.30000000000001</v>
       </c>
       <c r="V50" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="W50" s="20">
         <v>167</v>
@@ -9361,7 +9601,7 @@
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC50" s="20"/>
       <c r="AD50" s="20"/>
@@ -9373,7 +9613,7 @@
       <c r="AJ50" s="20"/>
       <c r="AK50" s="20"/>
       <c r="AL50" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM50" s="20"/>
       <c r="AN50" s="20"/>
@@ -9415,14 +9655,14 @@
         <v>37</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H51" s="20"/>
       <c r="I51" s="16" t="s">
         <v>36</v>
       </c>
       <c r="J51" s="27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
@@ -9433,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="P51" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q51" s="20">
         <v>0</v>
@@ -9442,7 +9682,7 @@
         <v>52.1</v>
       </c>
       <c r="S51" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="T51" s="20">
         <v>63.6</v>
@@ -9471,10 +9711,10 @@
       <c r="AJ51" s="20"/>
       <c r="AK51" s="20"/>
       <c r="AL51" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AM51" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AN51" s="20"/>
       <c r="AO51" s="20"/>
@@ -9505,28 +9745,28 @@
         <v>2</v>
       </c>
       <c r="C52" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="D52" s="20" t="s">
         <v>395</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>396</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G52" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="H52" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="H52" s="20" t="s">
+      <c r="I52" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="I52" s="16" t="s">
+      <c r="J52" s="27" t="s">
         <v>322</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>323</v>
       </c>
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
@@ -9537,7 +9777,7 @@
         <v>2</v>
       </c>
       <c r="P52" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q52" s="20">
         <v>30.4</v>
@@ -9546,7 +9786,7 @@
         <v>79.3</v>
       </c>
       <c r="S52" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="T52" s="20">
         <v>79.099999999999994</v>
@@ -9561,7 +9801,7 @@
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC52" s="20"/>
       <c r="AD52" s="20"/>
@@ -9573,16 +9813,16 @@
       <c r="AJ52" s="20"/>
       <c r="AK52" s="20"/>
       <c r="AL52" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AM52" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN52" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="AN52" s="16" t="s">
+      <c r="AO52" s="16" t="s">
         <v>326</v>
-      </c>
-      <c r="AO52" s="16" t="s">
-        <v>327</v>
       </c>
       <c r="AP52" s="20"/>
       <c r="AQ52" s="20"/>
@@ -9641,7 +9881,7 @@
         <v>2</v>
       </c>
       <c r="P53" s="29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q53" s="20">
         <v>34</v>
@@ -9650,7 +9890,7 @@
         <v>76.900000000000006</v>
       </c>
       <c r="S53" s="29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="T53" s="20">
         <v>76.900000000000006</v>
@@ -9711,16 +9951,16 @@
         <v>2</v>
       </c>
       <c r="C54" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="D54" s="20" t="s">
         <v>400</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>401</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G54" s="15" t="s">
         <v>35</v>
@@ -9741,7 +9981,7 @@
         <v>3</v>
       </c>
       <c r="P54" s="29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q54" s="20">
         <v>17.2</v>
@@ -9750,7 +9990,7 @@
         <v>64.400000000000006</v>
       </c>
       <c r="S54" s="29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="T54" s="20">
         <v>75.400000000000006</v>
@@ -9759,7 +9999,7 @@
         <v>124.4</v>
       </c>
       <c r="V54" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W54" s="20">
         <v>14.45</v>
@@ -9775,7 +10015,7 @@
         <v>124.8</v>
       </c>
       <c r="AB54" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AC54" s="20"/>
       <c r="AD54" s="20"/>
@@ -9821,28 +10061,28 @@
         <v>2</v>
       </c>
       <c r="C55" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="D55" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="E55" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="F55" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="G55" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="G55" s="26" t="s">
+      <c r="H55" s="20" t="s">
         <v>409</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>410</v>
       </c>
       <c r="I55" s="16" t="s">
         <v>132</v>
       </c>
       <c r="J55" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
@@ -9853,7 +10093,7 @@
         <v>2</v>
       </c>
       <c r="P55" s="29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q55" s="20">
         <v>28.6</v>
@@ -9862,7 +10102,7 @@
         <v>86.3</v>
       </c>
       <c r="S55" s="29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="T55" s="20">
         <v>157.1</v>
@@ -9877,7 +10117,7 @@
       <c r="Z55" s="20"/>
       <c r="AA55" s="20"/>
       <c r="AB55" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AC55" s="20"/>
       <c r="AD55" s="20"/>
@@ -9889,7 +10129,7 @@
       <c r="AJ55" s="20"/>
       <c r="AK55" s="20"/>
       <c r="AL55" s="23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AM55" s="16"/>
       <c r="AN55" s="20"/>
@@ -9921,28 +10161,28 @@
         <v>2</v>
       </c>
       <c r="C56" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="D56" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="E56" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="F56" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="F56" s="31" t="s">
+      <c r="G56" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="G56" s="26" t="s">
+      <c r="H56" s="20" t="s">
         <v>417</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>418</v>
       </c>
       <c r="I56" s="16" t="s">
         <v>132</v>
       </c>
       <c r="J56" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K56" s="20"/>
       <c r="L56" s="20"/>
@@ -9953,7 +10193,7 @@
         <v>1</v>
       </c>
       <c r="P56" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q56" s="20">
         <v>36.6</v>
@@ -9971,7 +10211,7 @@
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AC56" s="20"/>
       <c r="AD56" s="20"/>
@@ -9983,10 +10223,10 @@
       <c r="AJ56" s="20"/>
       <c r="AK56" s="20"/>
       <c r="AL56" s="23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AM56" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AN56" s="20"/>
       <c r="AO56" s="20"/>
@@ -10047,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="P57" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q57" s="20">
         <v>16.399999999999999</v>
@@ -10113,16 +10353,16 @@
         <v>3</v>
       </c>
       <c r="C58" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="D58" s="20" t="s">
         <v>299</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>300</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>264</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G58" s="26" t="s">
         <v>275</v>
@@ -10137,23 +10377,23 @@
         <v>278</v>
       </c>
       <c r="K58" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="L58" s="20" t="s">
         <v>423</v>
-      </c>
-      <c r="L58" s="20" t="s">
-        <v>424</v>
       </c>
       <c r="M58" s="16" t="s">
         <v>20</v>
       </c>
       <c r="N58" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O58" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P58" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q58" s="20">
         <v>31.5</v>
@@ -10162,7 +10402,7 @@
         <v>84.5</v>
       </c>
       <c r="S58" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T58" s="20">
         <v>94.8</v>
@@ -10177,7 +10417,7 @@
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC58" s="20"/>
       <c r="AD58" s="20"/>
@@ -10201,10 +10441,10 @@
       <c r="AT58" s="20"/>
       <c r="AU58" s="25"/>
       <c r="AV58" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AW58" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AX58" s="20"/>
       <c r="AY58" s="20"/>
@@ -10225,28 +10465,28 @@
         <v>2</v>
       </c>
       <c r="C59" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="D59" s="20" t="s">
         <v>428</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>429</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>132</v>
       </c>
       <c r="F59" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G59" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="H59" s="20" t="s">
         <v>417</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>418</v>
       </c>
       <c r="I59" s="16" t="s">
         <v>132</v>
       </c>
       <c r="J59" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K59" s="20"/>
       <c r="L59" s="20"/>
@@ -10257,7 +10497,7 @@
         <v>2</v>
       </c>
       <c r="P59" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q59" s="20">
         <v>43.7</v>
@@ -10266,7 +10506,7 @@
         <v>88.1</v>
       </c>
       <c r="S59" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="T59" s="20">
         <v>184.75</v>
@@ -10281,10 +10521,10 @@
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AC59" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AD59" s="20"/>
       <c r="AE59" s="20"/>
@@ -10295,10 +10535,10 @@
       <c r="AJ59" s="20"/>
       <c r="AK59" s="20"/>
       <c r="AL59" s="23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AM59" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AN59" s="20"/>
       <c r="AO59" s="20"/>
@@ -10341,16 +10581,16 @@
         <v>252</v>
       </c>
       <c r="G60" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="H60" s="20" t="s">
         <v>417</v>
-      </c>
-      <c r="H60" s="20" t="s">
-        <v>418</v>
       </c>
       <c r="I60" s="16" t="s">
         <v>132</v>
       </c>
       <c r="J60" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
@@ -10361,7 +10601,7 @@
         <v>2</v>
       </c>
       <c r="P60" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q60" s="20">
         <v>37</v>
@@ -10370,7 +10610,7 @@
         <v>80</v>
       </c>
       <c r="S60" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="T60" s="20">
         <v>158.19999999999999</v>
@@ -10399,10 +10639,10 @@
       <c r="AJ60" s="20"/>
       <c r="AK60" s="20"/>
       <c r="AL60" s="23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AM60" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AN60" s="20"/>
       <c r="AO60" s="20"/>
@@ -10433,26 +10673,26 @@
         <v>2</v>
       </c>
       <c r="C61" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="D61" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="E61" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="F61" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="E61" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="F61" s="31" t="s">
+      <c r="G61" s="26" t="s">
         <v>436</v>
-      </c>
-      <c r="G61" s="26" t="s">
-        <v>437</v>
       </c>
       <c r="H61" s="20"/>
       <c r="I61" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J61" s="27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
@@ -10463,7 +10703,7 @@
         <v>2</v>
       </c>
       <c r="P61" s="29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q61" s="20">
         <v>40.200000000000003</v>
@@ -10472,7 +10712,7 @@
         <v>93.1</v>
       </c>
       <c r="S61" s="29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T61" s="20">
         <v>189.3</v>
@@ -10487,7 +10727,7 @@
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AC61" s="20"/>
       <c r="AD61" s="20"/>
@@ -10499,10 +10739,10 @@
       <c r="AJ61" s="20"/>
       <c r="AK61" s="20"/>
       <c r="AL61" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AM61" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AN61" s="20"/>
       <c r="AO61" s="20"/>
@@ -10530,28 +10770,28 @@
         <v>2</v>
       </c>
       <c r="C62" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="D62" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="E62" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="F62" s="31" t="s">
         <v>443</v>
       </c>
-      <c r="F62" s="31" t="s">
+      <c r="G62" s="26" t="s">
         <v>444</v>
       </c>
-      <c r="G62" s="26" t="s">
+      <c r="H62" s="20" t="s">
         <v>445</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>446</v>
       </c>
       <c r="I62" s="16">
         <v>164</v>
       </c>
       <c r="J62" s="27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
@@ -10562,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="P62" s="29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q62" s="20">
         <v>67</v>
@@ -10580,16 +10820,16 @@
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC62" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD62" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="AD62" s="16" t="s">
+      <c r="AE62" s="16" t="s">
         <v>450</v>
-      </c>
-      <c r="AE62" s="16" t="s">
-        <v>451</v>
       </c>
       <c r="AF62" s="20"/>
       <c r="AG62" s="20"/>
@@ -10598,10 +10838,10 @@
       <c r="AJ62" s="20"/>
       <c r="AK62" s="20"/>
       <c r="AL62" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AM62" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AN62" s="20"/>
       <c r="AO62" s="20"/>
@@ -10632,16 +10872,16 @@
         <v>2</v>
       </c>
       <c r="C63" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="D63" s="20" t="s">
         <v>453</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>454</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>109</v>
@@ -10664,7 +10904,7 @@
         <v>1</v>
       </c>
       <c r="P63" s="29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="Q63" s="20">
         <v>47.2</v>
@@ -10682,7 +10922,7 @@
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AC63" s="20"/>
       <c r="AD63" s="20"/>
@@ -10740,16 +10980,16 @@
         <v>261</v>
       </c>
       <c r="G64" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="H64" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="H64" s="20" t="s">
+      <c r="I64" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="I64" s="16" t="s">
+      <c r="J64" s="27" t="s">
         <v>290</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>291</v>
       </c>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
@@ -10760,7 +11000,7 @@
         <v>2</v>
       </c>
       <c r="P64" s="29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q64" s="20">
         <v>30</v>
@@ -10769,7 +11009,7 @@
         <v>80</v>
       </c>
       <c r="S64" s="29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="T64" s="20">
         <v>142.6</v>
@@ -10796,7 +11036,7 @@
       <c r="AJ64" s="20"/>
       <c r="AK64" s="20"/>
       <c r="AL64" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AM64" s="20"/>
       <c r="AN64" s="20"/>
@@ -10828,16 +11068,16 @@
         <v>2</v>
       </c>
       <c r="C65" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="D65" s="20" t="s">
         <v>457</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>458</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>132</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G65" s="23" t="s">
         <v>130</v>
@@ -10860,7 +11100,7 @@
         <v>2</v>
       </c>
       <c r="P65" s="29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q65" s="20">
         <v>29.2</v>
@@ -10869,7 +11109,7 @@
         <v>81.7</v>
       </c>
       <c r="S65" s="29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T65" s="20">
         <v>132</v>
@@ -10884,7 +11124,7 @@
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AC65" s="20"/>
       <c r="AD65" s="20"/>
@@ -10899,7 +11139,7 @@
         <v>131</v>
       </c>
       <c r="AM65" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AN65" s="20"/>
       <c r="AO65" s="20"/>
@@ -10942,16 +11182,16 @@
         <v>191</v>
       </c>
       <c r="G66" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="H66" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="H66" s="20" t="s">
+      <c r="I66" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="I66" s="16" t="s">
+      <c r="J66" s="27" t="s">
         <v>290</v>
-      </c>
-      <c r="J66" s="27" t="s">
-        <v>291</v>
       </c>
       <c r="K66" s="20"/>
       <c r="L66" s="20"/>
@@ -10962,7 +11202,7 @@
         <v>2</v>
       </c>
       <c r="P66" s="29" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q66" s="20">
         <v>43.1</v>
@@ -10971,7 +11211,7 @@
         <v>96</v>
       </c>
       <c r="S66" s="29" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="T66" s="20">
         <v>142.6</v>
@@ -10998,7 +11238,7 @@
       <c r="AJ66" s="20"/>
       <c r="AK66" s="20"/>
       <c r="AL66" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AM66" s="20"/>
       <c r="AN66" s="20"/>
@@ -11062,7 +11302,7 @@
         <v>2</v>
       </c>
       <c r="P67" s="29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q67" s="20">
         <v>29.5</v>
@@ -11071,7 +11311,7 @@
         <v>75</v>
       </c>
       <c r="S67" s="29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T67" s="20">
         <v>114.3</v>
@@ -11132,16 +11372,16 @@
         <v>2</v>
       </c>
       <c r="C68" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="D68" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="E68" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="F68" s="31" t="s">
         <v>466</v>
-      </c>
-      <c r="F68" s="31" t="s">
-        <v>467</v>
       </c>
       <c r="G68" s="23" t="s">
         <v>197</v>
@@ -11164,7 +11404,7 @@
         <v>1</v>
       </c>
       <c r="P68" s="29" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Q68" s="20">
         <v>26.9</v>
@@ -11182,10 +11422,10 @@
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AC68" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AD68" s="20"/>
       <c r="AE68" s="20"/>
@@ -11230,28 +11470,28 @@
         <v>2</v>
       </c>
       <c r="C69" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="D69" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="D69" s="20" t="s">
-        <v>471</v>
-      </c>
       <c r="E69" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F69" s="31" t="s">
         <v>150</v>
       </c>
       <c r="G69" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="H69" s="20" t="s">
         <v>472</v>
-      </c>
-      <c r="H69" s="20" t="s">
-        <v>473</v>
       </c>
       <c r="I69" s="16" t="s">
         <v>194</v>
       </c>
       <c r="J69" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K69" s="20"/>
       <c r="L69" s="20"/>
@@ -11262,7 +11502,7 @@
         <v>2</v>
       </c>
       <c r="P69" s="29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q69" s="20">
         <v>23.3</v>
@@ -11271,7 +11511,7 @@
         <v>81.2</v>
       </c>
       <c r="S69" s="29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="T69" s="20">
         <v>139</v>
@@ -11286,7 +11526,7 @@
       <c r="Z69" s="20"/>
       <c r="AA69" s="20"/>
       <c r="AB69" s="23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AC69" s="20"/>
       <c r="AD69" s="20"/>
@@ -11298,7 +11538,7 @@
       <c r="AJ69" s="20"/>
       <c r="AK69" s="20"/>
       <c r="AL69" s="23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AM69" s="20"/>
       <c r="AN69" s="20"/>
@@ -11330,16 +11570,16 @@
         <v>2</v>
       </c>
       <c r="C70" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="D70" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="E70" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="F70" s="31" t="s">
         <v>477</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F70" s="31" t="s">
-        <v>478</v>
       </c>
       <c r="G70" s="23" t="s">
         <v>216</v>
@@ -11362,7 +11602,7 @@
         <v>3</v>
       </c>
       <c r="P70" s="29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q70" s="20">
         <v>18.5</v>
@@ -11371,7 +11611,7 @@
         <v>68.099999999999994</v>
       </c>
       <c r="S70" s="29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="T70" s="20">
         <v>75.900000000000006</v>
@@ -11380,7 +11620,7 @@
         <v>121.2</v>
       </c>
       <c r="V70" s="29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="W70" s="20">
         <v>124.9</v>
@@ -11392,7 +11632,7 @@
       <c r="Z70" s="20"/>
       <c r="AA70" s="20"/>
       <c r="AB70" s="23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AC70" s="20"/>
       <c r="AD70" s="20"/>
@@ -11436,16 +11676,16 @@
         <v>2</v>
       </c>
       <c r="C71" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D71" s="20" t="s">
         <v>354</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>355</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>260</v>
       </c>
       <c r="F71" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G71" s="23" t="s">
         <v>258</v>
@@ -11468,7 +11708,7 @@
         <v>2</v>
       </c>
       <c r="P71" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q71" s="20">
         <v>16.899999999999999</v>
@@ -11477,7 +11717,7 @@
         <v>69.7</v>
       </c>
       <c r="S71" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="T71" s="20">
         <v>136.9</v>
@@ -11492,10 +11732,10 @@
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AC71" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AD71" s="20"/>
       <c r="AE71" s="20"/>
@@ -11538,28 +11778,28 @@
         <v>2</v>
       </c>
       <c r="C72" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="D72" s="20" t="s">
         <v>417</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>418</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>132</v>
       </c>
       <c r="F72" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G72" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="H72" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H72" s="20" t="s">
+      <c r="I72" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="J72" s="27" t="s">
         <v>482</v>
-      </c>
-      <c r="I72" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="J72" s="27" t="s">
-        <v>483</v>
       </c>
       <c r="K72" s="20"/>
       <c r="L72" s="20"/>
@@ -11570,7 +11810,7 @@
         <v>2</v>
       </c>
       <c r="P72" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q72" s="20">
         <v>43.7</v>
@@ -11579,7 +11819,7 @@
         <v>92.1</v>
       </c>
       <c r="S72" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="T72" s="20">
         <v>147</v>
@@ -11594,10 +11834,10 @@
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC72" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AD72" s="20"/>
       <c r="AE72" s="20"/>
@@ -11608,19 +11848,19 @@
       <c r="AJ72" s="20"/>
       <c r="AK72" s="20"/>
       <c r="AL72" s="23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AM72" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="AN72" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="AN72" s="16" t="s">
+      <c r="AO72" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="AO72" s="16" t="s">
+      <c r="AP72" s="16" t="s">
         <v>487</v>
-      </c>
-      <c r="AP72" s="16" t="s">
-        <v>488</v>
       </c>
       <c r="AQ72" s="20"/>
       <c r="AR72" s="20"/>
@@ -11648,28 +11888,28 @@
         <v>2</v>
       </c>
       <c r="C73" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="D73" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="E73" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="F73" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="F73" s="31" t="s">
-        <v>492</v>
-      </c>
       <c r="G73" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="H73" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="H73" s="20" t="s">
+      <c r="I73" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="J73" s="31" t="s">
         <v>477</v>
-      </c>
-      <c r="I73" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="J73" s="31" t="s">
-        <v>478</v>
       </c>
       <c r="K73" s="20"/>
       <c r="L73" s="20"/>
@@ -11680,7 +11920,7 @@
         <v>2</v>
       </c>
       <c r="P73" s="29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q73" s="20">
         <v>27.9</v>
@@ -11689,7 +11929,7 @@
         <v>77.7</v>
       </c>
       <c r="S73" s="29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="T73" s="20">
         <v>154.69999999999999</v>
@@ -11704,10 +11944,10 @@
       <c r="Z73" s="20"/>
       <c r="AA73" s="20"/>
       <c r="AB73" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AC73" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AD73" s="20"/>
       <c r="AE73" s="20"/>
@@ -11718,7 +11958,7 @@
       <c r="AJ73" s="20"/>
       <c r="AK73" s="20"/>
       <c r="AL73" s="23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AM73" s="20"/>
       <c r="AN73" s="20"/>
@@ -11750,16 +11990,16 @@
         <v>2</v>
       </c>
       <c r="C74" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="D74" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="E74" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="F74" s="31" t="s">
         <v>496</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="F74" s="31" t="s">
-        <v>497</v>
       </c>
       <c r="G74" s="23" t="s">
         <v>272</v>
@@ -11782,7 +12022,7 @@
         <v>2</v>
       </c>
       <c r="P74" s="29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q74" s="20">
         <v>24</v>
@@ -11791,7 +12031,7 @@
         <v>76.2</v>
       </c>
       <c r="S74" s="29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="T74" s="20">
         <v>144.5</v>
@@ -11806,7 +12046,7 @@
       <c r="Z74" s="20"/>
       <c r="AA74" s="20"/>
       <c r="AB74" s="23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AC74" s="20"/>
       <c r="AD74" s="20"/>
@@ -11850,16 +12090,16 @@
         <v>2</v>
       </c>
       <c r="C75" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="D75" s="20" t="s">
         <v>499</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>500</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>226</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G75" s="26" t="s">
         <v>201</v>
@@ -11882,7 +12122,7 @@
         <v>3</v>
       </c>
       <c r="P75" s="29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q75" s="20">
         <v>41.4</v>
@@ -11891,7 +12131,7 @@
         <v>100</v>
       </c>
       <c r="S75" s="29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="T75" s="20">
         <v>96</v>
@@ -11900,7 +12140,7 @@
         <v>151.1</v>
       </c>
       <c r="V75" s="29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W75" s="20">
         <v>128.80000000000001</v>
@@ -11912,16 +12152,16 @@
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AC75" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="AD75" s="16" t="s">
         <v>503</v>
       </c>
-      <c r="AD75" s="16" t="s">
+      <c r="AE75" s="16" t="s">
         <v>504</v>
-      </c>
-      <c r="AE75" s="16" t="s">
-        <v>505</v>
       </c>
       <c r="AF75" s="20"/>
       <c r="AG75" s="20"/>
@@ -11964,28 +12204,28 @@
         <v>2</v>
       </c>
       <c r="C76" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="D76" s="20" t="s">
         <v>506</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>507</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F76" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="G76" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="G76" s="26" t="s">
+      <c r="H76" s="20" t="s">
         <v>509</v>
-      </c>
-      <c r="H76" s="20" t="s">
-        <v>510</v>
       </c>
       <c r="I76" s="16" t="s">
         <v>83</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
@@ -11996,7 +12236,7 @@
         <v>2</v>
       </c>
       <c r="P76" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Q76" s="20">
         <v>18</v>
@@ -12005,7 +12245,7 @@
         <v>76.5</v>
       </c>
       <c r="S76" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="T76" s="20">
         <v>88.1</v>
@@ -12020,7 +12260,7 @@
       <c r="Z76" s="20"/>
       <c r="AA76" s="20"/>
       <c r="AB76" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AC76" s="20"/>
       <c r="AD76" s="20"/>
@@ -12032,10 +12272,10 @@
       <c r="AJ76" s="20"/>
       <c r="AK76" s="20"/>
       <c r="AL76" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AM76" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AN76" s="20"/>
       <c r="AO76" s="20"/>
@@ -12066,25 +12306,25 @@
         <v>2</v>
       </c>
       <c r="C77" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="D77" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="E77" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="F77" s="31" t="s">
         <v>515</v>
       </c>
-      <c r="E77" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="F77" s="31" t="s">
-        <v>516</v>
-      </c>
       <c r="G77" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="H77" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="H77" s="20" t="s">
-        <v>471</v>
-      </c>
       <c r="I77" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J77" s="31" t="s">
         <v>150</v>
@@ -12098,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="P77" s="29" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q77" s="20">
         <v>42.9</v>
@@ -12116,10 +12356,10 @@
       <c r="Z77" s="20"/>
       <c r="AA77" s="20"/>
       <c r="AB77" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AC77" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AD77" s="20"/>
       <c r="AE77" s="20"/>
@@ -12130,7 +12370,7 @@
       <c r="AJ77" s="20"/>
       <c r="AK77" s="20"/>
       <c r="AL77" s="23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AM77" s="20"/>
       <c r="AN77" s="20"/>
@@ -12162,28 +12402,28 @@
         <v>2</v>
       </c>
       <c r="C78" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="D78" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="D78" s="20" t="s">
+      <c r="E78" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="F78" s="31" t="s">
         <v>520</v>
       </c>
-      <c r="E78" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="F78" s="31" t="s">
+      <c r="G78" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="G78" s="26" t="s">
+      <c r="H78" s="20" t="s">
         <v>522</v>
-      </c>
-      <c r="H78" s="20" t="s">
-        <v>523</v>
       </c>
       <c r="I78" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J78" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
@@ -12194,7 +12434,7 @@
         <v>3</v>
       </c>
       <c r="P78" s="29" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Q78" s="20">
         <v>19.5</v>
@@ -12203,7 +12443,7 @@
         <v>66.5</v>
       </c>
       <c r="S78" s="29" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T78" s="20">
         <v>66.5</v>
@@ -12212,7 +12452,7 @@
         <v>113.5</v>
       </c>
       <c r="V78" s="29" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="W78" s="20">
         <v>141.9</v>
@@ -12224,13 +12464,13 @@
       <c r="Z78" s="20"/>
       <c r="AA78" s="20"/>
       <c r="AB78" s="23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AC78" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD78" s="16" t="s">
         <v>526</v>
-      </c>
-      <c r="AD78" s="16" t="s">
-        <v>527</v>
       </c>
       <c r="AE78" s="20"/>
       <c r="AF78" s="20"/>
@@ -12240,7 +12480,7 @@
       <c r="AJ78" s="20"/>
       <c r="AK78" s="20"/>
       <c r="AL78" s="23" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AM78" s="20"/>
       <c r="AN78" s="20"/>
@@ -12272,28 +12512,28 @@
         <v>2</v>
       </c>
       <c r="C79" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="D79" s="20" t="s">
         <v>528</v>
       </c>
-      <c r="D79" s="20" t="s">
+      <c r="E79" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="F79" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="F79" s="31" t="s">
-        <v>531</v>
-      </c>
       <c r="G79" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="H79" s="20" t="s">
         <v>347</v>
-      </c>
-      <c r="H79" s="20" t="s">
-        <v>348</v>
       </c>
       <c r="I79" s="16" t="s">
         <v>40</v>
       </c>
       <c r="J79" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K79" s="20"/>
       <c r="L79" s="20"/>
@@ -12304,7 +12544,7 @@
         <v>2</v>
       </c>
       <c r="P79" s="29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q79" s="20">
         <v>29.7</v>
@@ -12313,7 +12553,7 @@
         <v>76.7</v>
       </c>
       <c r="S79" s="29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="T79" s="20">
         <v>153</v>
@@ -12328,10 +12568,10 @@
       <c r="Z79" s="20"/>
       <c r="AA79" s="20"/>
       <c r="AB79" s="23" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AC79" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AD79" s="20"/>
       <c r="AE79" s="20"/>
@@ -12342,16 +12582,16 @@
       <c r="AJ79" s="20"/>
       <c r="AK79" s="20"/>
       <c r="AL79" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM79" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="AN79" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="AN79" s="16" t="s">
+      <c r="AO79" s="16" t="s">
         <v>352</v>
-      </c>
-      <c r="AO79" s="16" t="s">
-        <v>353</v>
       </c>
       <c r="AP79" s="20"/>
       <c r="AQ79" s="20"/>
@@ -12380,26 +12620,26 @@
         <v>2</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D80" s="20"/>
       <c r="E80" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F80" s="27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G80" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="H80" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="H80" s="20" t="s">
+      <c r="I80" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="J80" s="27" t="s">
         <v>535</v>
-      </c>
-      <c r="I80" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="J80" s="27" t="s">
-        <v>536</v>
       </c>
       <c r="K80" s="20"/>
       <c r="L80" s="20"/>
@@ -12410,7 +12650,7 @@
         <v>1</v>
       </c>
       <c r="P80" s="29" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Q80" s="20">
         <v>50</v>
@@ -12428,10 +12668,10 @@
       <c r="Z80" s="20"/>
       <c r="AA80" s="20"/>
       <c r="AB80" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AC80" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD80" s="20"/>
       <c r="AE80" s="20"/>
@@ -12442,7 +12682,7 @@
       <c r="AJ80" s="20"/>
       <c r="AK80" s="20"/>
       <c r="AL80" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AM80" s="20"/>
       <c r="AN80" s="20"/>
@@ -12474,26 +12714,26 @@
         <v>2</v>
       </c>
       <c r="C81" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="D81" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="E81" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="F81" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="G81" s="26" t="s">
         <v>540</v>
-      </c>
-      <c r="F81" s="31" t="s">
-        <v>516</v>
-      </c>
-      <c r="G81" s="26" t="s">
-        <v>541</v>
       </c>
       <c r="H81" s="20"/>
       <c r="I81" s="16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J81" s="27" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K81" s="20"/>
       <c r="L81" s="20"/>
@@ -12504,7 +12744,7 @@
         <v>2</v>
       </c>
       <c r="P81" s="29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q81" s="20">
         <v>34</v>
@@ -12513,7 +12753,7 @@
         <v>83</v>
       </c>
       <c r="S81" s="29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="T81" s="20">
         <v>135.6</v>
@@ -12528,10 +12768,10 @@
       <c r="Z81" s="20"/>
       <c r="AA81" s="20"/>
       <c r="AB81" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AC81" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AD81" s="20"/>
       <c r="AE81" s="20"/>
@@ -12542,10 +12782,10 @@
       <c r="AJ81" s="20"/>
       <c r="AK81" s="20"/>
       <c r="AL81" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM81" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AN81" s="20"/>
       <c r="AO81" s="20"/>
@@ -12588,33 +12828,33 @@
         <v>186</v>
       </c>
       <c r="G82" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="H82" s="20" t="s">
         <v>546</v>
-      </c>
-      <c r="H82" s="20" t="s">
-        <v>547</v>
       </c>
       <c r="I82" s="16" t="s">
         <v>83</v>
       </c>
       <c r="J82" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="K82" s="36" t="s">
         <v>548</v>
-      </c>
-      <c r="K82" s="36" t="s">
-        <v>549</v>
       </c>
       <c r="L82" s="36"/>
       <c r="M82" s="16" t="s">
         <v>56</v>
       </c>
       <c r="N82" s="28" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O82" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P82" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Q82" s="20">
         <v>40.6</v>
@@ -12623,7 +12863,7 @@
         <v>90.2</v>
       </c>
       <c r="S82" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="T82" s="20">
         <v>139.30000000000001</v>
@@ -12650,10 +12890,10 @@
       <c r="AJ82" s="20"/>
       <c r="AK82" s="20"/>
       <c r="AL82" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AM82" s="16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AN82" s="20"/>
       <c r="AO82" s="20"/>
@@ -12664,13 +12904,13 @@
       <c r="AT82" s="20"/>
       <c r="AU82" s="25"/>
       <c r="AV82" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="AW82" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="AX82" s="16" t="s">
         <v>553</v>
-      </c>
-      <c r="AW82" s="36" t="s">
-        <v>549</v>
-      </c>
-      <c r="AX82" s="16" t="s">
-        <v>554</v>
       </c>
       <c r="AY82" s="20"/>
       <c r="AZ82" s="20"/>
@@ -12690,28 +12930,28 @@
         <v>2</v>
       </c>
       <c r="C83" s="35" t="s">
+        <v>554</v>
+      </c>
+      <c r="D83" s="20" t="s">
         <v>555</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>556</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>260</v>
       </c>
       <c r="F83" s="31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G83" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="H83" s="20" t="s">
         <v>354</v>
-      </c>
-      <c r="H83" s="20" t="s">
-        <v>355</v>
       </c>
       <c r="I83" s="16" t="s">
         <v>260</v>
       </c>
       <c r="J83" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K83" s="20"/>
       <c r="L83" s="20"/>
@@ -12722,7 +12962,7 @@
         <v>2</v>
       </c>
       <c r="P83" s="29" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Q83" s="20">
         <v>40.9</v>
@@ -12731,7 +12971,7 @@
         <v>85.5</v>
       </c>
       <c r="S83" s="29" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="T83" s="20">
         <v>130</v>
@@ -12746,7 +12986,7 @@
       <c r="Z83" s="20"/>
       <c r="AA83" s="20"/>
       <c r="AB83" s="23" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AC83" s="20"/>
       <c r="AD83" s="20"/>
@@ -12758,10 +12998,10 @@
       <c r="AJ83" s="20"/>
       <c r="AK83" s="20"/>
       <c r="AL83" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AM83" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AN83" s="20"/>
       <c r="AO83" s="20"/>
@@ -12822,7 +13062,7 @@
         <v>2</v>
       </c>
       <c r="P84" s="29" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Q84" s="20">
         <v>28</v>
@@ -12831,7 +13071,7 @@
         <v>69.2</v>
       </c>
       <c r="S84" s="29" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="T84" s="20">
         <v>96.1</v>
@@ -12894,28 +13134,28 @@
         <v>2</v>
       </c>
       <c r="C85" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="D85" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D85" s="20" t="s">
+      <c r="E85" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="F85" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="F85" s="31" t="s">
+      <c r="G85" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="G85" s="26" t="s">
+      <c r="H85" s="20" t="s">
         <v>564</v>
-      </c>
-      <c r="H85" s="20" t="s">
-        <v>565</v>
       </c>
       <c r="I85" s="16" t="s">
         <v>24</v>
       </c>
       <c r="J85" s="27" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K85" s="20"/>
       <c r="L85" s="20"/>
@@ -12926,7 +13166,7 @@
         <v>2</v>
       </c>
       <c r="P85" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Q85" s="20">
         <v>47.9</v>
@@ -12935,7 +13175,7 @@
         <v>92.7</v>
       </c>
       <c r="S85" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T85" s="20">
         <v>120.3</v>
@@ -12950,10 +13190,10 @@
       <c r="Z85" s="20"/>
       <c r="AA85" s="20"/>
       <c r="AB85" s="23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AC85" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AD85" s="20"/>
       <c r="AE85" s="20"/>
@@ -12964,16 +13204,16 @@
       <c r="AJ85" s="20"/>
       <c r="AK85" s="20"/>
       <c r="AL85" s="23" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AM85" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="AN85" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="AN85" s="16" t="s">
+      <c r="AO85" s="16" t="s">
         <v>570</v>
-      </c>
-      <c r="AO85" s="16" t="s">
-        <v>571</v>
       </c>
       <c r="AP85" s="20"/>
       <c r="AQ85" s="20"/>
@@ -13002,26 +13242,26 @@
         <v>2</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D86" s="20"/>
       <c r="E86" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F86" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="G86" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="G86" s="26" t="s">
+      <c r="H86" s="20" t="s">
         <v>574</v>
-      </c>
-      <c r="H86" s="20" t="s">
-        <v>575</v>
       </c>
       <c r="I86" s="16" t="s">
         <v>56</v>
       </c>
       <c r="J86" s="27" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K86" s="20"/>
       <c r="L86" s="20"/>
@@ -13032,7 +13272,7 @@
         <v>1</v>
       </c>
       <c r="P86" s="29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q86" s="20">
         <v>56.6</v>
@@ -13050,10 +13290,10 @@
       <c r="Z86" s="20"/>
       <c r="AA86" s="20"/>
       <c r="AB86" s="23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AC86" s="16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AD86" s="20"/>
       <c r="AE86" s="16"/>
@@ -13064,10 +13304,10 @@
       <c r="AJ86" s="20"/>
       <c r="AK86" s="20"/>
       <c r="AL86" s="23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AM86" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AN86" s="20"/>
       <c r="AO86" s="20"/>
@@ -13095,28 +13335,28 @@
         <v>2</v>
       </c>
       <c r="C87" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="D87" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="D87" s="20" t="s">
+      <c r="E87" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="F87" s="31" t="s">
         <v>582</v>
       </c>
-      <c r="F87" s="31" t="s">
+      <c r="G87" s="26" t="s">
         <v>583</v>
       </c>
-      <c r="G87" s="26" t="s">
+      <c r="H87" s="20" t="s">
         <v>584</v>
-      </c>
-      <c r="H87" s="20" t="s">
-        <v>585</v>
       </c>
       <c r="I87" s="16" t="s">
         <v>24</v>
       </c>
       <c r="J87" s="27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K87" s="20"/>
       <c r="L87" s="20"/>
@@ -13127,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="P87" s="29" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Q87" s="20"/>
       <c r="R87" s="20"/>
@@ -13141,14 +13381,14 @@
       <c r="Z87" s="20"/>
       <c r="AA87" s="20"/>
       <c r="AB87" s="23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AC87" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AD87" s="20"/>
       <c r="AE87" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AF87" s="20"/>
       <c r="AG87" s="20"/>
@@ -13157,7 +13397,7 @@
       <c r="AJ87" s="20"/>
       <c r="AK87" s="20"/>
       <c r="AL87" s="23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AM87" s="20"/>
       <c r="AN87" s="20"/>
@@ -13211,23 +13451,23 @@
         <v>60</v>
       </c>
       <c r="K88" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="L88" s="20" t="s">
         <v>574</v>
-      </c>
-      <c r="L88" s="20" t="s">
-        <v>575</v>
       </c>
       <c r="M88" s="16" t="s">
         <v>56</v>
       </c>
       <c r="N88" s="27" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="O88" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P88" s="29" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q88" s="20">
         <v>46.5</v>
@@ -13236,7 +13476,7 @@
         <v>95</v>
       </c>
       <c r="S88" s="29" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T88" s="20">
         <v>198</v>
@@ -13279,10 +13519,10 @@
       <c r="AT88" s="20"/>
       <c r="AU88" s="25"/>
       <c r="AV88" s="23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AW88" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AX88" s="20"/>
       <c r="AY88" s="20"/>
@@ -13303,28 +13543,28 @@
         <v>2</v>
       </c>
       <c r="C89" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="D89" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="D89" s="20" t="s">
+      <c r="E89" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="F89" s="31" t="s">
         <v>520</v>
       </c>
-      <c r="E89" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="F89" s="31" t="s">
-        <v>521</v>
-      </c>
       <c r="G89" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="H89" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="H89" s="16" t="s">
-        <v>592</v>
-      </c>
       <c r="I89" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J89" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K89" s="20"/>
       <c r="L89" s="20"/>
@@ -13335,7 +13575,7 @@
         <v>2</v>
       </c>
       <c r="P89" s="29" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Q89" s="20">
         <v>37</v>
@@ -13344,7 +13584,7 @@
         <v>79.8</v>
       </c>
       <c r="S89" s="29" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="T89" s="20">
         <v>156.5</v>
@@ -13359,13 +13599,13 @@
       <c r="Z89" s="20"/>
       <c r="AA89" s="20"/>
       <c r="AB89" s="23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AC89" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD89" s="16" t="s">
         <v>526</v>
-      </c>
-      <c r="AD89" s="16" t="s">
-        <v>527</v>
       </c>
       <c r="AE89" s="20"/>
       <c r="AF89" s="20"/>
@@ -13375,10 +13615,10 @@
       <c r="AJ89" s="20"/>
       <c r="AK89" s="20"/>
       <c r="AL89" s="23" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AM89" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AN89" s="20"/>
       <c r="AO89" s="20"/>
@@ -13409,28 +13649,28 @@
         <v>2</v>
       </c>
       <c r="C90" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="D90" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="D90" s="16" t="s">
-        <v>592</v>
-      </c>
       <c r="E90" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F90" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G90" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="H90" s="20" t="s">
         <v>372</v>
-      </c>
-      <c r="H90" s="20" t="s">
-        <v>373</v>
       </c>
       <c r="I90" s="16" t="s">
         <v>20</v>
       </c>
       <c r="J90" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K90" s="20"/>
       <c r="L90" s="20"/>
@@ -13441,7 +13681,7 @@
         <v>2</v>
       </c>
       <c r="P90" s="29" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q90" s="20">
         <v>41.4</v>
@@ -13450,7 +13690,7 @@
         <v>88.1</v>
       </c>
       <c r="S90" s="29" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="T90" s="20">
         <v>168.6</v>
@@ -13465,10 +13705,10 @@
       <c r="Z90" s="20"/>
       <c r="AA90" s="20"/>
       <c r="AB90" s="23" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AC90" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD90" s="20"/>
       <c r="AE90" s="20"/>
@@ -13479,10 +13719,10 @@
       <c r="AJ90" s="20"/>
       <c r="AK90" s="20"/>
       <c r="AL90" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AM90" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AN90" s="20"/>
       <c r="AO90" s="20"/>
@@ -13525,14 +13765,14 @@
         <v>60</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H91" s="20"/>
       <c r="I91" s="16" t="s">
         <v>213</v>
       </c>
       <c r="J91" s="27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K91" s="20"/>
       <c r="L91" s="20"/>
@@ -13543,7 +13783,7 @@
         <v>2</v>
       </c>
       <c r="P91" s="29" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Q91" s="20">
         <v>45.5</v>
@@ -13552,7 +13792,7 @@
         <v>94.1</v>
       </c>
       <c r="S91" s="29" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T91" s="20">
         <v>190</v>
@@ -13581,10 +13821,10 @@
       <c r="AJ91" s="20"/>
       <c r="AK91" s="20"/>
       <c r="AL91" s="23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AM91" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AN91" s="20"/>
       <c r="AO91" s="20"/>
@@ -13627,16 +13867,16 @@
         <v>252</v>
       </c>
       <c r="G92" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="H92" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="H92" s="20" t="s">
+      <c r="I92" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="J92" s="27" t="s">
         <v>600</v>
-      </c>
-      <c r="I92" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="J92" s="27" t="s">
-        <v>601</v>
       </c>
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
@@ -13647,7 +13887,7 @@
         <v>2</v>
       </c>
       <c r="P92" s="29" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="Q92" s="20">
         <v>36.9</v>
@@ -13656,7 +13896,7 @@
         <v>85.2</v>
       </c>
       <c r="S92" s="29" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T92" s="20">
         <v>165.3</v>
@@ -13685,10 +13925,10 @@
       <c r="AJ92" s="20"/>
       <c r="AK92" s="20"/>
       <c r="AL92" s="23" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AM92" s="16" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AN92" s="20"/>
       <c r="AO92" s="20"/>
@@ -13716,28 +13956,28 @@
         <v>2</v>
       </c>
       <c r="C93" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="D93" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="E93" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="E93" s="16" t="s">
-        <v>540</v>
-      </c>
       <c r="F93" s="31" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G93" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="H93" s="20" t="s">
         <v>372</v>
-      </c>
-      <c r="H93" s="20" t="s">
-        <v>373</v>
       </c>
       <c r="I93" s="16" t="s">
         <v>20</v>
       </c>
       <c r="J93" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K93" s="20"/>
       <c r="L93" s="20"/>
@@ -13748,7 +13988,7 @@
         <v>1</v>
       </c>
       <c r="P93" s="29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="Q93" s="20"/>
       <c r="R93" s="20"/>
@@ -13762,10 +14002,10 @@
       <c r="Z93" s="20"/>
       <c r="AA93" s="20"/>
       <c r="AB93" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AC93" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AD93" s="20"/>
       <c r="AE93" s="20"/>
@@ -13776,10 +14016,10 @@
       <c r="AJ93" s="20"/>
       <c r="AK93" s="20"/>
       <c r="AL93" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AM93" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AN93" s="20"/>
       <c r="AO93" s="20"/>
@@ -13810,26 +14050,26 @@
         <v>2</v>
       </c>
       <c r="C94" s="36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D94" s="36"/>
       <c r="E94" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F94" s="28" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G94" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="H94" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="H94" s="16" t="s">
+      <c r="I94" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="J94" s="27" t="s">
         <v>606</v>
-      </c>
-      <c r="I94" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="J94" s="27" t="s">
-        <v>607</v>
       </c>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
@@ -13840,7 +14080,7 @@
         <v>2</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="Q94" s="20">
         <v>20.5</v>
@@ -13849,7 +14089,7 @@
         <v>79</v>
       </c>
       <c r="S94" s="23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T94" s="20">
         <v>99.5</v>
@@ -13864,13 +14104,13 @@
       <c r="Z94" s="20"/>
       <c r="AA94" s="20"/>
       <c r="AB94" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="AC94" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="AD94" s="16" t="s">
         <v>553</v>
-      </c>
-      <c r="AC94" s="36" t="s">
-        <v>549</v>
-      </c>
-      <c r="AD94" s="16" t="s">
-        <v>554</v>
       </c>
       <c r="AE94" s="20"/>
       <c r="AF94" s="20"/>
@@ -13880,13 +14120,13 @@
       <c r="AJ94" s="20"/>
       <c r="AK94" s="20"/>
       <c r="AL94" s="23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AM94" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="AN94" s="16" t="s">
         <v>609</v>
-      </c>
-      <c r="AN94" s="16" t="s">
-        <v>610</v>
       </c>
       <c r="AO94" s="20"/>
       <c r="AP94" s="20"/>
@@ -13916,28 +14156,28 @@
         <v>2</v>
       </c>
       <c r="C95" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="D95" s="20" t="s">
         <v>611</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>612</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>185</v>
       </c>
       <c r="F95" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="G95" s="26" t="s">
         <v>613</v>
       </c>
-      <c r="G95" s="26" t="s">
+      <c r="H95" s="20" t="s">
         <v>614</v>
       </c>
-      <c r="H95" s="20" t="s">
+      <c r="I95" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="I95" s="16" t="s">
+      <c r="J95" s="27" t="s">
         <v>616</v>
-      </c>
-      <c r="J95" s="27" t="s">
-        <v>617</v>
       </c>
       <c r="K95" s="20"/>
       <c r="L95" s="20"/>
@@ -13948,7 +14188,7 @@
         <v>2</v>
       </c>
       <c r="P95" s="15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Q95" s="20">
         <v>46.2</v>
@@ -13957,7 +14197,7 @@
         <v>94.2</v>
       </c>
       <c r="S95" s="23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="T95" s="20">
         <v>178.2</v>
@@ -13972,10 +14212,10 @@
       <c r="Z95" s="20"/>
       <c r="AA95" s="20"/>
       <c r="AB95" s="23" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AC95" s="16" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AD95" s="20"/>
       <c r="AE95" s="20"/>
@@ -13986,7 +14226,7 @@
       <c r="AJ95" s="20"/>
       <c r="AK95" s="20"/>
       <c r="AL95" s="23" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AM95" s="20"/>
       <c r="AN95" s="20"/>
@@ -14015,28 +14255,28 @@
         <v>2</v>
       </c>
       <c r="C96" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="D96" s="20" t="s">
         <v>620</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>621</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G96" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="H96" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="H96" s="20" t="s">
+      <c r="I96" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="I96" s="16" t="s">
+      <c r="J96" s="31" t="s">
         <v>379</v>
-      </c>
-      <c r="J96" s="31" t="s">
-        <v>380</v>
       </c>
       <c r="K96" s="20"/>
       <c r="L96" s="20"/>
@@ -14047,7 +14287,7 @@
         <v>1</v>
       </c>
       <c r="P96" s="15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q96" s="20"/>
       <c r="R96" s="20"/>
@@ -14061,7 +14301,7 @@
       <c r="Z96" s="20"/>
       <c r="AA96" s="20"/>
       <c r="AB96" s="23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AC96" s="20"/>
       <c r="AD96" s="20"/>
@@ -14073,7 +14313,7 @@
       <c r="AJ96" s="20"/>
       <c r="AK96" s="20"/>
       <c r="AL96" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AM96" s="20"/>
       <c r="AN96" s="20"/>
@@ -14102,28 +14342,28 @@
         <v>2</v>
       </c>
       <c r="C97" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="D97" s="20" t="s">
         <v>624</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>625</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>185</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G97" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="H97" s="20" t="s">
         <v>584</v>
-      </c>
-      <c r="H97" s="20" t="s">
-        <v>585</v>
       </c>
       <c r="I97" s="16" t="s">
         <v>24</v>
       </c>
       <c r="J97" s="27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K97" s="20"/>
       <c r="L97" s="20"/>
@@ -14134,7 +14374,7 @@
         <v>1</v>
       </c>
       <c r="P97" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Q97" s="20"/>
       <c r="R97" s="20"/>
@@ -14148,10 +14388,10 @@
       <c r="Z97" s="20"/>
       <c r="AA97" s="20"/>
       <c r="AB97" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AC97" s="16" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AD97" s="20"/>
       <c r="AE97" s="20"/>
@@ -14162,7 +14402,7 @@
       <c r="AJ97" s="20"/>
       <c r="AK97" s="20"/>
       <c r="AL97" s="23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AM97" s="20"/>
       <c r="AN97" s="20"/>
@@ -14191,47 +14431,47 @@
         <v>3</v>
       </c>
       <c r="C98" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="D98" s="20" t="s">
         <v>629</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>630</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F98" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="G98" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="H98" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="I98" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="J98" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="K98" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="G98" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="H98" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="I98" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="J98" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="K98" s="16" t="s">
+      <c r="L98" s="20" t="s">
         <v>632</v>
       </c>
-      <c r="L98" s="20" t="s">
+      <c r="M98" s="16" t="s">
         <v>633</v>
       </c>
-      <c r="M98" s="16" t="s">
+      <c r="N98" s="28" t="s">
         <v>634</v>
-      </c>
-      <c r="N98" s="28" t="s">
-        <v>635</v>
       </c>
       <c r="O98" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P98" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Q98" s="20"/>
       <c r="R98" s="20"/>
@@ -14245,10 +14485,10 @@
       <c r="Z98" s="20"/>
       <c r="AA98" s="20"/>
       <c r="AB98" s="23" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AC98" s="16" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AD98" s="16">
         <v>118</v>
@@ -14261,10 +14501,10 @@
       <c r="AJ98" s="20"/>
       <c r="AK98" s="20"/>
       <c r="AL98" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AM98" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AN98" s="20"/>
       <c r="AO98" s="20"/>
@@ -14275,7 +14515,7 @@
       <c r="AT98" s="20"/>
       <c r="AU98" s="25"/>
       <c r="AV98" s="23" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AW98" s="20"/>
       <c r="AX98" s="20"/>
@@ -14297,26 +14537,26 @@
         <v>2</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D99" s="36"/>
       <c r="E99" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F99" s="28" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G99" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="H99" s="20" t="s">
         <v>638</v>
-      </c>
-      <c r="H99" s="20" t="s">
-        <v>639</v>
       </c>
       <c r="I99" s="16" t="s">
         <v>56</v>
       </c>
       <c r="J99" s="27" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K99" s="20"/>
       <c r="L99" s="20"/>
@@ -14327,7 +14567,7 @@
         <v>2</v>
       </c>
       <c r="P99" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Q99" s="20">
         <v>37</v>
@@ -14336,7 +14576,7 @@
         <v>77.8</v>
       </c>
       <c r="S99" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="T99" s="20">
         <v>140</v>
@@ -14351,13 +14591,13 @@
       <c r="Z99" s="20"/>
       <c r="AA99" s="20"/>
       <c r="AB99" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="AC99" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="AD99" s="16" t="s">
         <v>553</v>
-      </c>
-      <c r="AC99" s="36" t="s">
-        <v>549</v>
-      </c>
-      <c r="AD99" s="16" t="s">
-        <v>554</v>
       </c>
       <c r="AE99" s="20"/>
       <c r="AF99" s="20"/>
@@ -14367,16 +14607,16 @@
       <c r="AJ99" s="20"/>
       <c r="AK99" s="20"/>
       <c r="AL99" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="AM99" s="16" t="s">
         <v>642</v>
       </c>
-      <c r="AM99" s="16" t="s">
+      <c r="AN99" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="AO99" s="16" t="s">
         <v>643</v>
-      </c>
-      <c r="AN99" s="16" t="s">
-        <v>639</v>
-      </c>
-      <c r="AO99" s="16" t="s">
-        <v>644</v>
       </c>
       <c r="AP99" s="20"/>
       <c r="AQ99" s="20"/>
@@ -14402,28 +14642,28 @@
         <v>2</v>
       </c>
       <c r="C100" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="D100" s="20" t="s">
         <v>645</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>646</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G100" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="H100" s="20" t="s">
         <v>564</v>
-      </c>
-      <c r="H100" s="20" t="s">
-        <v>565</v>
       </c>
       <c r="I100" s="16" t="s">
         <v>24</v>
       </c>
       <c r="J100" s="27" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K100" s="20"/>
       <c r="L100" s="20"/>
@@ -14434,7 +14674,7 @@
         <v>1</v>
       </c>
       <c r="P100" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q100" s="20"/>
       <c r="R100" s="20"/>
@@ -14448,10 +14688,10 @@
       <c r="Z100" s="20"/>
       <c r="AA100" s="20"/>
       <c r="AB100" s="23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AC100" s="16" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AD100" s="20"/>
       <c r="AE100" s="20"/>
@@ -14462,16 +14702,16 @@
       <c r="AJ100" s="20"/>
       <c r="AK100" s="20"/>
       <c r="AL100" s="23" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AM100" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="AN100" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="AN100" s="16" t="s">
+      <c r="AO100" s="16" t="s">
         <v>570</v>
-      </c>
-      <c r="AO100" s="16" t="s">
-        <v>571</v>
       </c>
       <c r="AP100" s="20"/>
       <c r="AQ100" s="20"/>
@@ -14497,28 +14737,28 @@
         <v>2</v>
       </c>
       <c r="C101" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="D101" s="20" t="s">
         <v>650</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>651</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F101" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="G101" s="26" t="s">
         <v>652</v>
       </c>
-      <c r="G101" s="26" t="s">
+      <c r="H101" s="16" t="s">
         <v>653</v>
       </c>
-      <c r="H101" s="16" t="s">
+      <c r="I101" s="16" t="s">
         <v>654</v>
       </c>
-      <c r="I101" s="16" t="s">
+      <c r="J101" s="27" t="s">
         <v>655</v>
-      </c>
-      <c r="J101" s="27" t="s">
-        <v>656</v>
       </c>
       <c r="K101" s="20"/>
       <c r="L101" s="20"/>
@@ -14529,7 +14769,7 @@
         <v>1</v>
       </c>
       <c r="P101" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Q101" s="20"/>
       <c r="R101" s="20"/>
@@ -14543,10 +14783,10 @@
       <c r="Z101" s="20"/>
       <c r="AA101" s="20"/>
       <c r="AB101" s="23" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AC101" s="16" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AD101" s="20"/>
       <c r="AE101" s="20"/>
@@ -14557,10 +14797,10 @@
       <c r="AJ101" s="20"/>
       <c r="AK101" s="20"/>
       <c r="AL101" s="23" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AM101" s="16" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AN101" s="20"/>
       <c r="AO101" s="20"/>
@@ -14588,24 +14828,24 @@
         <v>2</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D102" s="20"/>
       <c r="E102" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="F102" s="31" t="s">
         <v>661</v>
       </c>
-      <c r="F102" s="31" t="s">
+      <c r="G102" s="26" t="s">
         <v>662</v>
-      </c>
-      <c r="G102" s="26" t="s">
-        <v>663</v>
       </c>
       <c r="H102" s="20"/>
       <c r="I102" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="J102" s="27" t="s">
         <v>664</v>
-      </c>
-      <c r="J102" s="27" t="s">
-        <v>665</v>
       </c>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
@@ -14616,7 +14856,7 @@
         <v>1</v>
       </c>
       <c r="P102" s="15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Q102" s="20"/>
       <c r="R102" s="20"/>
@@ -14630,16 +14870,16 @@
       <c r="Z102" s="20"/>
       <c r="AA102" s="20"/>
       <c r="AB102" s="23" t="s">
+        <v>666</v>
+      </c>
+      <c r="AC102" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="AD102" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="AC102" s="16" t="s">
-        <v>660</v>
-      </c>
-      <c r="AD102" s="16" t="s">
+      <c r="AE102" s="16" t="s">
         <v>668</v>
-      </c>
-      <c r="AE102" s="16" t="s">
-        <v>669</v>
       </c>
       <c r="AF102" s="20"/>
       <c r="AG102" s="20"/>
@@ -14648,10 +14888,10 @@
       <c r="AJ102" s="20"/>
       <c r="AK102" s="20"/>
       <c r="AL102" s="23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AM102" s="16" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AN102" s="20"/>
       <c r="AO102" s="20"/>
@@ -14682,28 +14922,28 @@
         <v>2</v>
       </c>
       <c r="C103" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="D103" s="20" t="s">
         <v>671</v>
-      </c>
-      <c r="D103" s="20" t="s">
-        <v>672</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F103" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="G103" s="26" t="s">
         <v>673</v>
       </c>
-      <c r="G103" s="26" t="s">
+      <c r="H103" s="20" t="s">
         <v>674</v>
-      </c>
-      <c r="H103" s="20" t="s">
-        <v>675</v>
       </c>
       <c r="I103" s="16" t="s">
         <v>264</v>
       </c>
       <c r="J103" s="27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K103" s="20"/>
       <c r="L103" s="20"/>
@@ -14714,7 +14954,7 @@
         <v>2</v>
       </c>
       <c r="P103" s="15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Q103" s="20">
         <v>37.6</v>
@@ -14723,7 +14963,7 @@
         <v>81.900000000000006</v>
       </c>
       <c r="S103" s="23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="T103" s="20">
         <v>126.2</v>
@@ -14738,7 +14978,7 @@
       <c r="Z103" s="20"/>
       <c r="AA103" s="20"/>
       <c r="AB103" s="23" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AC103" s="20"/>
       <c r="AD103" s="20"/>
@@ -14750,10 +14990,10 @@
       <c r="AJ103" s="20"/>
       <c r="AK103" s="20"/>
       <c r="AL103" s="23" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AM103" s="16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AN103" s="20"/>
       <c r="AO103" s="20"/>
@@ -14784,28 +15024,28 @@
         <v>2</v>
       </c>
       <c r="C104" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="D104" s="20" t="s">
         <v>679</v>
-      </c>
-      <c r="D104" s="20" t="s">
-        <v>680</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>67</v>
       </c>
       <c r="F104" s="31" t="s">
+        <v>680</v>
+      </c>
+      <c r="G104" s="26" t="s">
         <v>681</v>
       </c>
-      <c r="G104" s="26" t="s">
+      <c r="H104" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="H104" s="16" t="s">
+      <c r="I104" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="I104" s="16" t="s">
+      <c r="J104" s="27" t="s">
         <v>684</v>
-      </c>
-      <c r="J104" s="27" t="s">
-        <v>685</v>
       </c>
       <c r="K104" s="20"/>
       <c r="L104" s="20"/>
@@ -14816,7 +15056,7 @@
         <v>2</v>
       </c>
       <c r="P104" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q104" s="20">
         <v>43.9</v>
@@ -14825,7 +15065,7 @@
         <v>90.2</v>
       </c>
       <c r="S104" s="23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="T104" s="20">
         <v>150.30000000000001</v>
@@ -14840,10 +15080,10 @@
       <c r="Z104" s="20"/>
       <c r="AA104" s="20"/>
       <c r="AB104" s="23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AC104" s="16" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AD104" s="20"/>
       <c r="AE104" s="20"/>
@@ -14854,7 +15094,7 @@
       <c r="AJ104" s="20"/>
       <c r="AK104" s="20"/>
       <c r="AL104" s="23" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AM104" s="20"/>
       <c r="AN104" s="20"/>
@@ -14886,28 +15126,28 @@
         <v>2</v>
       </c>
       <c r="C105" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="D105" s="20" t="s">
         <v>688</v>
       </c>
-      <c r="D105" s="20" t="s">
+      <c r="E105" s="16" t="s">
         <v>689</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="F105" s="31" t="s">
         <v>690</v>
       </c>
-      <c r="F105" s="31" t="s">
+      <c r="G105" s="26" t="s">
         <v>691</v>
       </c>
-      <c r="G105" s="26" t="s">
+      <c r="H105" s="20" t="s">
         <v>692</v>
       </c>
-      <c r="H105" s="20" t="s">
+      <c r="I105" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="J105" s="27" t="s">
         <v>693</v>
-      </c>
-      <c r="I105" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="J105" s="27" t="s">
-        <v>694</v>
       </c>
       <c r="K105" s="20"/>
       <c r="L105" s="20"/>
@@ -14918,7 +15158,7 @@
         <v>2</v>
       </c>
       <c r="P105" s="15" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Q105" s="20">
         <v>66.400000000000006</v>
@@ -14927,7 +15167,7 @@
         <v>114.7</v>
       </c>
       <c r="S105" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="T105" s="20">
         <v>119.5</v>
@@ -14942,7 +15182,7 @@
       <c r="Z105" s="20"/>
       <c r="AA105" s="20"/>
       <c r="AB105" s="23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AC105" s="20"/>
       <c r="AD105" s="20"/>
@@ -14954,7 +15194,7 @@
       <c r="AJ105" s="20"/>
       <c r="AK105" s="20"/>
       <c r="AL105" s="23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AM105" s="20"/>
       <c r="AN105" s="20"/>
@@ -14986,28 +15226,28 @@
         <v>2</v>
       </c>
       <c r="C106" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="D106" s="20" t="s">
         <v>696</v>
       </c>
-      <c r="D106" s="20" t="s">
+      <c r="E106" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="F106" s="31" t="s">
         <v>698</v>
       </c>
-      <c r="F106" s="31" t="s">
+      <c r="G106" s="26" t="s">
         <v>699</v>
       </c>
-      <c r="G106" s="26" t="s">
+      <c r="H106" s="20" t="s">
         <v>700</v>
       </c>
-      <c r="H106" s="20" t="s">
+      <c r="I106" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="I106" s="16" t="s">
+      <c r="J106" s="27" t="s">
         <v>702</v>
-      </c>
-      <c r="J106" s="27" t="s">
-        <v>703</v>
       </c>
       <c r="K106" s="20"/>
       <c r="L106" s="20"/>
@@ -15018,7 +15258,7 @@
         <v>2</v>
       </c>
       <c r="P106" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="Q106" s="20">
         <v>40.5</v>
@@ -15027,7 +15267,7 @@
         <v>85.5</v>
       </c>
       <c r="S106" s="23" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="T106" s="20">
         <v>128.80000000000001</v>
@@ -15042,10 +15282,10 @@
       <c r="Z106" s="20"/>
       <c r="AA106" s="20"/>
       <c r="AB106" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AC106" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AD106" s="20"/>
       <c r="AE106" s="20"/>
@@ -15056,10 +15296,10 @@
       <c r="AJ106" s="20"/>
       <c r="AK106" s="20"/>
       <c r="AL106" s="23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AM106" s="16" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AN106" s="20"/>
       <c r="AO106" s="20"/>
@@ -15090,16 +15330,16 @@
         <v>2</v>
       </c>
       <c r="C107" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="D107" s="20" t="s">
         <v>707</v>
       </c>
-      <c r="D107" s="20" t="s">
+      <c r="E107" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="F107" s="31" t="s">
         <v>708</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="F107" s="31" t="s">
-        <v>709</v>
       </c>
       <c r="G107" s="26" t="s">
         <v>183</v>
@@ -15122,7 +15362,7 @@
         <v>2</v>
       </c>
       <c r="P107" s="15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q107" s="20">
         <v>35.799999999999997</v>
@@ -15131,7 +15371,7 @@
         <v>76.599999999999994</v>
       </c>
       <c r="S107" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="T107" s="20">
         <v>162.1</v>
@@ -15146,10 +15386,10 @@
       <c r="Z107" s="20"/>
       <c r="AA107" s="20"/>
       <c r="AB107" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AC107" s="16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AD107" s="20"/>
       <c r="AE107" s="20"/>
@@ -15189,28 +15429,28 @@
         <v>2</v>
       </c>
       <c r="C108" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="D108" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="D108" s="20" t="s">
+      <c r="E108" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="F108" s="31" t="s">
         <v>520</v>
       </c>
-      <c r="E108" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="F108" s="31" t="s">
-        <v>521</v>
-      </c>
       <c r="G108" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="H108" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="H108" s="20" t="s">
+      <c r="I108" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="J108" s="27" t="s">
         <v>382</v>
-      </c>
-      <c r="I108" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="J108" s="27" t="s">
-        <v>383</v>
       </c>
       <c r="K108" s="20"/>
       <c r="L108" s="20"/>
@@ -15221,7 +15461,7 @@
         <v>1</v>
       </c>
       <c r="P108" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="Q108" s="20"/>
       <c r="R108" s="20"/>
@@ -15235,13 +15475,13 @@
       <c r="Z108" s="20"/>
       <c r="AA108" s="20"/>
       <c r="AB108" s="23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AC108" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD108" s="16" t="s">
         <v>526</v>
-      </c>
-      <c r="AD108" s="16" t="s">
-        <v>527</v>
       </c>
       <c r="AE108" s="20"/>
       <c r="AF108" s="20"/>
@@ -15251,7 +15491,7 @@
       <c r="AJ108" s="20"/>
       <c r="AK108" s="20"/>
       <c r="AL108" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM108" s="20"/>
       <c r="AN108" s="20"/>
@@ -15283,16 +15523,16 @@
         <v>2</v>
       </c>
       <c r="C109" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="D109" s="20" t="s">
         <v>671</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>672</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>83</v>
       </c>
       <c r="F109" s="31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G109" s="26" t="s">
         <v>81</v>
@@ -15315,7 +15555,7 @@
         <v>1</v>
       </c>
       <c r="P109" s="15" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Q109" s="20">
         <v>37.5</v>
@@ -15333,7 +15573,7 @@
       <c r="Z109" s="20"/>
       <c r="AA109" s="20"/>
       <c r="AB109" s="23" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AC109" s="20"/>
       <c r="AD109" s="20"/>
@@ -15377,28 +15617,28 @@
         <v>2</v>
       </c>
       <c r="C110" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D110" s="20" t="s">
         <v>564</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>565</v>
       </c>
       <c r="E110" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F110" s="27" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G110" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="H110" s="20" t="s">
         <v>714</v>
       </c>
-      <c r="H110" s="20" t="s">
+      <c r="I110" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="I110" s="16" t="s">
+      <c r="J110" s="27" t="s">
         <v>716</v>
-      </c>
-      <c r="J110" s="27" t="s">
-        <v>717</v>
       </c>
       <c r="K110" s="20"/>
       <c r="L110" s="20"/>
@@ -15409,7 +15649,7 @@
         <v>2</v>
       </c>
       <c r="P110" s="15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="Q110" s="20">
         <v>56</v>
@@ -15418,7 +15658,7 @@
         <v>110.4</v>
       </c>
       <c r="S110" s="23" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="T110" s="20">
         <v>140.6</v>
@@ -15433,16 +15673,16 @@
       <c r="Z110" s="20"/>
       <c r="AA110" s="20"/>
       <c r="AB110" s="23" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AC110" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="AD110" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="AD110" s="16" t="s">
+      <c r="AE110" s="16" t="s">
         <v>570</v>
-      </c>
-      <c r="AE110" s="16" t="s">
-        <v>571</v>
       </c>
       <c r="AF110" s="20"/>
       <c r="AG110" s="20"/>
@@ -15451,7 +15691,7 @@
       <c r="AJ110" s="20"/>
       <c r="AK110" s="20"/>
       <c r="AL110" s="23" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AM110" s="20"/>
       <c r="AN110" s="20"/>
@@ -15483,28 +15723,28 @@
         <v>2</v>
       </c>
       <c r="C111" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D111" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="D111" s="20" t="s">
+      <c r="E111" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="F111" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="F111" s="27" t="s">
-        <v>291</v>
-      </c>
       <c r="G111" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="H111" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="H111" s="16" t="s">
+      <c r="I111" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="J111" s="27" t="s">
         <v>720</v>
-      </c>
-      <c r="I111" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="J111" s="27" t="s">
-        <v>721</v>
       </c>
       <c r="K111" s="20"/>
       <c r="L111" s="20"/>
@@ -15515,7 +15755,7 @@
         <v>3</v>
       </c>
       <c r="P111" s="29" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="Q111" s="20">
         <v>61.3</v>
@@ -15524,7 +15764,7 @@
         <v>105.7</v>
       </c>
       <c r="S111" s="29" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="T111" s="20">
         <v>120</v>
@@ -15533,7 +15773,7 @@
         <v>163.4</v>
       </c>
       <c r="V111" s="29" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="W111" s="20">
         <v>192.6</v>
@@ -15545,7 +15785,7 @@
       <c r="Z111" s="20"/>
       <c r="AA111" s="20"/>
       <c r="AB111" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AC111" s="20"/>
       <c r="AD111" s="20"/>
@@ -15557,7 +15797,7 @@
       <c r="AJ111" s="20"/>
       <c r="AK111" s="20"/>
       <c r="AL111" s="23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AM111" s="20"/>
       <c r="AN111" s="20"/>
@@ -15580,34 +15820,79 @@
       <c r="BE111" s="25"/>
     </row>
     <row r="112" spans="1:57" ht="16.5" customHeight="1">
-      <c r="A112" s="14"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="20"/>
-      <c r="J112" s="21"/>
+      <c r="A112" s="14">
+        <f t="shared" ref="A112:A118" si="4">IF(C112&lt;&gt;"",MAX($A$3:A111)+1,"")</f>
+        <v>97</v>
+      </c>
+      <c r="B112" s="23">
+        <f t="shared" ref="B112:B118" si="5">COUNTA(C112,G112,K112)</f>
+        <v>2</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E112" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="F112" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="G112" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="H112" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="I112" s="20" t="s">
+        <v>883</v>
+      </c>
+      <c r="J112" s="21" t="s">
+        <v>884</v>
+      </c>
       <c r="K112" s="20"/>
       <c r="L112" s="20"/>
       <c r="M112" s="20"/>
       <c r="N112" s="22"/>
-      <c r="O112" s="4"/>
-      <c r="P112" s="15"/>
-      <c r="Q112" s="20"/>
-      <c r="R112" s="20"/>
-      <c r="S112" s="19"/>
-      <c r="T112" s="20"/>
-      <c r="U112" s="20"/>
-      <c r="V112" s="19"/>
-      <c r="W112" s="20"/>
-      <c r="X112" s="24"/>
+      <c r="O112" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P112" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="Q112" s="20">
+        <v>40.4</v>
+      </c>
+      <c r="R112" s="20">
+        <v>92.2</v>
+      </c>
+      <c r="S112" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="T112" s="20">
+        <v>104.8</v>
+      </c>
+      <c r="U112" s="20">
+        <v>144.4</v>
+      </c>
+      <c r="V112" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="W112" s="20">
+        <v>157</v>
+      </c>
+      <c r="X112" s="24">
+        <v>199.3</v>
+      </c>
       <c r="Y112" s="20"/>
       <c r="Z112" s="20"/>
       <c r="AA112" s="20"/>
-      <c r="AB112" s="15"/>
+      <c r="AB112" s="15" t="s">
+        <v>885</v>
+      </c>
       <c r="AC112" s="20"/>
       <c r="AD112" s="20"/>
       <c r="AE112" s="20"/>
@@ -15617,7 +15902,9 @@
       <c r="AI112" s="20"/>
       <c r="AJ112" s="20"/>
       <c r="AK112" s="20"/>
-      <c r="AL112" s="15"/>
+      <c r="AL112" s="15" t="s">
+        <v>881</v>
+      </c>
       <c r="AM112" s="20"/>
       <c r="AN112" s="20"/>
       <c r="AO112" s="20"/>
@@ -15639,35 +15926,82 @@
       <c r="BE112" s="25"/>
     </row>
     <row r="113" spans="1:57" ht="16.5" customHeight="1">
-      <c r="A113" s="14"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="21"/>
+      <c r="A113" s="14">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="B113" s="23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>886</v>
+      </c>
+      <c r="D113" s="20" t="s">
+        <v>887</v>
+      </c>
+      <c r="E113" s="20" t="s">
+        <v>889</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>890</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H113" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I113" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J113" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="K113" s="20"/>
       <c r="L113" s="20"/>
       <c r="M113" s="20"/>
       <c r="N113" s="22"/>
-      <c r="O113" s="4"/>
-      <c r="P113" s="15"/>
-      <c r="Q113" s="20"/>
-      <c r="R113" s="20"/>
-      <c r="S113" s="19"/>
-      <c r="T113" s="20"/>
-      <c r="U113" s="20"/>
-      <c r="V113" s="19"/>
-      <c r="W113" s="20"/>
-      <c r="X113" s="24"/>
+      <c r="O113" s="4">
+        <f t="shared" ref="O113:O118" si="6">COUNTA(P113,S113,V113,Y113)</f>
+        <v>3</v>
+      </c>
+      <c r="P113" s="23" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q113" s="20">
+        <v>27.1</v>
+      </c>
+      <c r="R113" s="20">
+        <v>73.7</v>
+      </c>
+      <c r="S113" s="23" t="s">
+        <v>891</v>
+      </c>
+      <c r="T113" s="20">
+        <v>89.1</v>
+      </c>
+      <c r="U113" s="20">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="V113" s="23" t="s">
+        <v>891</v>
+      </c>
+      <c r="W113" s="20">
+        <v>152.4</v>
+      </c>
+      <c r="X113" s="24">
+        <v>195.4</v>
+      </c>
       <c r="Y113" s="20"/>
       <c r="Z113" s="20"/>
       <c r="AA113" s="20"/>
-      <c r="AB113" s="15"/>
-      <c r="AC113" s="20"/>
+      <c r="AB113" s="15" t="s">
+        <v>887</v>
+      </c>
+      <c r="AC113" s="20" t="s">
+        <v>888</v>
+      </c>
       <c r="AD113" s="20"/>
       <c r="AE113" s="20"/>
       <c r="AF113" s="20"/>
@@ -15676,8 +16010,12 @@
       <c r="AI113" s="20"/>
       <c r="AJ113" s="20"/>
       <c r="AK113" s="20"/>
-      <c r="AL113" s="15"/>
-      <c r="AM113" s="20"/>
+      <c r="AL113" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM113" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="AN113" s="20"/>
       <c r="AO113" s="20"/>
       <c r="AP113" s="20"/>
@@ -15698,34 +16036,73 @@
       <c r="BE113" s="25"/>
     </row>
     <row r="114" spans="1:57" ht="16.5" customHeight="1">
-      <c r="A114" s="14"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="20"/>
-      <c r="I114" s="20"/>
-      <c r="J114" s="21"/>
+      <c r="A114" s="14">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="B114" s="23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D114" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F114" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G114" s="19" t="s">
+        <v>896</v>
+      </c>
+      <c r="H114" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="I114" s="20" t="s">
+        <v>897</v>
+      </c>
+      <c r="J114" s="21" t="s">
+        <v>898</v>
+      </c>
       <c r="K114" s="20"/>
       <c r="L114" s="20"/>
       <c r="M114" s="20"/>
       <c r="N114" s="22"/>
-      <c r="O114" s="4"/>
-      <c r="P114" s="15"/>
-      <c r="Q114" s="20"/>
-      <c r="R114" s="20"/>
-      <c r="S114" s="19"/>
-      <c r="T114" s="20"/>
-      <c r="U114" s="20"/>
+      <c r="O114" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P114" s="23" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q114" s="20">
+        <v>32</v>
+      </c>
+      <c r="R114" s="20">
+        <v>77.8</v>
+      </c>
+      <c r="S114" s="23" t="s">
+        <v>892</v>
+      </c>
+      <c r="T114" s="20">
+        <v>131</v>
+      </c>
+      <c r="U114" s="20">
+        <v>176.4</v>
+      </c>
       <c r="V114" s="19"/>
       <c r="W114" s="20"/>
       <c r="X114" s="24"/>
       <c r="Y114" s="20"/>
       <c r="Z114" s="20"/>
       <c r="AA114" s="20"/>
-      <c r="AB114" s="15"/>
+      <c r="AB114" s="15" t="s">
+        <v>893</v>
+      </c>
       <c r="AC114" s="20"/>
       <c r="AD114" s="20"/>
       <c r="AE114" s="20"/>
@@ -15735,8 +16112,12 @@
       <c r="AI114" s="20"/>
       <c r="AJ114" s="20"/>
       <c r="AK114" s="20"/>
-      <c r="AL114" s="15"/>
-      <c r="AM114" s="20"/>
+      <c r="AL114" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="AM114" s="20" t="s">
+        <v>895</v>
+      </c>
       <c r="AN114" s="20"/>
       <c r="AO114" s="20"/>
       <c r="AP114" s="20"/>
@@ -15757,45 +16138,94 @@
       <c r="BE114" s="25"/>
     </row>
     <row r="115" spans="1:57" ht="16.5" customHeight="1">
-      <c r="A115" s="14"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="21"/>
+      <c r="A115" s="14">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="B115" s="23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="D115" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="E115" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="G115" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="H115" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="I115" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J115" s="31" t="s">
+        <v>252</v>
+      </c>
       <c r="K115" s="20"/>
       <c r="L115" s="20"/>
       <c r="M115" s="20"/>
       <c r="N115" s="22"/>
-      <c r="O115" s="4"/>
-      <c r="P115" s="15"/>
-      <c r="Q115" s="20"/>
-      <c r="R115" s="20"/>
-      <c r="S115" s="19"/>
-      <c r="T115" s="20"/>
-      <c r="U115" s="20"/>
+      <c r="O115" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P115" s="23" t="s">
+        <v>899</v>
+      </c>
+      <c r="Q115" s="20">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="R115" s="20">
+        <v>94.3</v>
+      </c>
+      <c r="S115" s="23" t="s">
+        <v>899</v>
+      </c>
+      <c r="T115" s="20">
+        <v>115.8</v>
+      </c>
+      <c r="U115" s="20">
+        <v>162.5</v>
+      </c>
       <c r="V115" s="19"/>
       <c r="W115" s="20"/>
       <c r="X115" s="24"/>
       <c r="Y115" s="20"/>
       <c r="Z115" s="20"/>
       <c r="AA115" s="20"/>
-      <c r="AB115" s="15"/>
-      <c r="AC115" s="20"/>
-      <c r="AD115" s="20"/>
-      <c r="AE115" s="20"/>
+      <c r="AB115" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC115" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD115" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE115" s="20" t="s">
+        <v>352</v>
+      </c>
       <c r="AF115" s="20"/>
       <c r="AG115" s="20"/>
       <c r="AH115" s="20"/>
       <c r="AI115" s="20"/>
       <c r="AJ115" s="20"/>
       <c r="AK115" s="20"/>
-      <c r="AL115" s="15"/>
-      <c r="AM115" s="20"/>
+      <c r="AL115" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="AM115" s="20" t="s">
+        <v>901</v>
+      </c>
       <c r="AN115" s="20"/>
       <c r="AO115" s="20"/>
       <c r="AP115" s="20"/>
@@ -15816,35 +16246,72 @@
       <c r="BE115" s="25"/>
     </row>
     <row r="116" spans="1:57" ht="16.5" customHeight="1">
-      <c r="A116" s="14"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
+      <c r="A116" s="14">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="B116" s="23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>904</v>
+      </c>
       <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="19"/>
+      <c r="E116" s="20" t="s">
+        <v>905</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="G116" s="26" t="s">
+        <v>436</v>
+      </c>
       <c r="H116" s="20"/>
-      <c r="I116" s="20"/>
-      <c r="J116" s="21"/>
+      <c r="I116" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="J116" s="27" t="s">
+        <v>437</v>
+      </c>
       <c r="K116" s="20"/>
       <c r="L116" s="20"/>
       <c r="M116" s="20"/>
       <c r="N116" s="22"/>
-      <c r="O116" s="4"/>
-      <c r="P116" s="15"/>
-      <c r="Q116" s="20"/>
-      <c r="R116" s="20"/>
-      <c r="S116" s="19"/>
-      <c r="T116" s="20"/>
-      <c r="U116" s="20"/>
+      <c r="O116" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P116" s="23" t="s">
+        <v>902</v>
+      </c>
+      <c r="Q116" s="20">
+        <v>28.6</v>
+      </c>
+      <c r="R116" s="20">
+        <v>78.8</v>
+      </c>
+      <c r="S116" s="23" t="s">
+        <v>902</v>
+      </c>
+      <c r="T116" s="20">
+        <v>85.9</v>
+      </c>
+      <c r="U116" s="20">
+        <v>135.30000000000001</v>
+      </c>
       <c r="V116" s="19"/>
       <c r="W116" s="20"/>
       <c r="X116" s="24"/>
       <c r="Y116" s="20"/>
       <c r="Z116" s="20"/>
       <c r="AA116" s="20"/>
-      <c r="AB116" s="15"/>
-      <c r="AC116" s="20"/>
+      <c r="AB116" s="15" t="s">
+        <v>903</v>
+      </c>
+      <c r="AC116" s="20" t="s">
+        <v>904</v>
+      </c>
       <c r="AD116" s="20"/>
       <c r="AE116" s="20"/>
       <c r="AF116" s="20"/>
@@ -15853,8 +16320,12 @@
       <c r="AI116" s="20"/>
       <c r="AJ116" s="20"/>
       <c r="AK116" s="20"/>
-      <c r="AL116" s="15"/>
-      <c r="AM116" s="20"/>
+      <c r="AL116" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="AM116" s="20" t="s">
+        <v>436</v>
+      </c>
       <c r="AN116" s="20"/>
       <c r="AO116" s="20"/>
       <c r="AP116" s="20"/>
@@ -15875,34 +16346,73 @@
       <c r="BE116" s="25"/>
     </row>
     <row r="117" spans="1:57" ht="16.5" customHeight="1">
-      <c r="A117" s="14"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="20"/>
-      <c r="J117" s="21"/>
+      <c r="A117" s="14">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="B117" s="23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="E117" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F117" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="G117" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="H117" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="I117" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="J117" s="27" t="s">
+        <v>388</v>
+      </c>
       <c r="K117" s="20"/>
       <c r="L117" s="20"/>
       <c r="M117" s="20"/>
       <c r="N117" s="22"/>
-      <c r="O117" s="4"/>
-      <c r="P117" s="15"/>
-      <c r="Q117" s="20"/>
-      <c r="R117" s="20"/>
-      <c r="S117" s="19"/>
-      <c r="T117" s="20"/>
-      <c r="U117" s="20"/>
+      <c r="O117" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P117" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q117" s="20">
+        <v>29.2</v>
+      </c>
+      <c r="R117" s="20">
+        <v>72.7</v>
+      </c>
+      <c r="S117" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="T117" s="20">
+        <v>84</v>
+      </c>
+      <c r="U117" s="20">
+        <v>143</v>
+      </c>
       <c r="V117" s="19"/>
       <c r="W117" s="20"/>
       <c r="X117" s="24"/>
       <c r="Y117" s="20"/>
       <c r="Z117" s="20"/>
       <c r="AA117" s="20"/>
-      <c r="AB117" s="15"/>
+      <c r="AB117" s="15" t="s">
+        <v>908</v>
+      </c>
       <c r="AC117" s="20"/>
       <c r="AD117" s="20"/>
       <c r="AE117" s="20"/>
@@ -15912,7 +16422,9 @@
       <c r="AI117" s="20"/>
       <c r="AJ117" s="20"/>
       <c r="AK117" s="20"/>
-      <c r="AL117" s="15"/>
+      <c r="AL117" s="15" t="s">
+        <v>909</v>
+      </c>
       <c r="AM117" s="20"/>
       <c r="AN117" s="20"/>
       <c r="AO117" s="20"/>
@@ -15934,35 +16446,76 @@
       <c r="BE117" s="25"/>
     </row>
     <row r="118" spans="1:57" ht="16.5" customHeight="1">
-      <c r="A118" s="14"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="20"/>
-      <c r="I118" s="20"/>
-      <c r="J118" s="21"/>
+      <c r="A118" s="14">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="B118" s="23">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="C118" s="58" t="s">
+        <v>910</v>
+      </c>
+      <c r="D118" s="20" t="s">
+        <v>911</v>
+      </c>
+      <c r="E118" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="G118" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="H118" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="I118" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="J118" s="31" t="s">
+        <v>466</v>
+      </c>
       <c r="K118" s="20"/>
       <c r="L118" s="20"/>
       <c r="M118" s="20"/>
       <c r="N118" s="22"/>
-      <c r="O118" s="4"/>
-      <c r="P118" s="15"/>
-      <c r="Q118" s="20"/>
-      <c r="R118" s="20"/>
-      <c r="S118" s="19"/>
-      <c r="T118" s="20"/>
-      <c r="U118" s="20"/>
+      <c r="O118" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P118" s="23" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q118" s="20">
+        <v>34.5</v>
+      </c>
+      <c r="R118" s="20">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="S118" s="23" t="s">
+        <v>914</v>
+      </c>
+      <c r="T118" s="20">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="U118" s="20">
+        <v>188.4</v>
+      </c>
       <c r="V118" s="19"/>
       <c r="W118" s="20"/>
       <c r="X118" s="24"/>
       <c r="Y118" s="20"/>
       <c r="Z118" s="20"/>
       <c r="AA118" s="20"/>
-      <c r="AB118" s="15"/>
-      <c r="AC118" s="20"/>
+      <c r="AB118" s="15" t="s">
+        <v>911</v>
+      </c>
+      <c r="AC118" s="20" t="s">
+        <v>913</v>
+      </c>
       <c r="AD118" s="20"/>
       <c r="AE118" s="20"/>
       <c r="AF118" s="20"/>
@@ -15971,8 +16524,12 @@
       <c r="AI118" s="20"/>
       <c r="AJ118" s="20"/>
       <c r="AK118" s="20"/>
-      <c r="AL118" s="15"/>
-      <c r="AM118" s="20"/>
+      <c r="AL118" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="AM118" s="20" t="s">
+        <v>468</v>
+      </c>
       <c r="AN118" s="20"/>
       <c r="AO118" s="20"/>
       <c r="AP118" s="20"/>
@@ -68059,8 +68616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE4DC10-EF45-46E3-8482-CAFC42ADC8B1}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76:H99"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -68078,12 +68635,12 @@
         <f>CONCATENATE("총 ", MAX($A$3:$A$12711),"곡")</f>
         <v>총 1곡</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>824</v>
-      </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="68" t="s">
+        <v>822</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
@@ -68093,37 +68650,37 @@
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1">
       <c r="A2" s="40" t="s">
+        <v>722</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>825</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>823</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>824</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>826</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>723</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>827</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>825</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>826</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>828</v>
-      </c>
-      <c r="F2" s="42" t="s">
+      <c r="G2" s="43" t="s">
         <v>724</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="H2" s="44" t="s">
         <v>725</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="I2" s="45" t="s">
         <v>726</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="J2" s="44" t="s">
         <v>727</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="K2" s="45" t="s">
         <v>728</v>
-      </c>
-      <c r="K2" s="45" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5">
@@ -68139,20 +68696,20 @@
         <v>339</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I4" s="52"/>
       <c r="J4" s="39" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5">
@@ -68171,19 +68728,19 @@
         <v>641</v>
       </c>
       <c r="F5" s="39" t="s">
+        <v>730</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>729</v>
+      </c>
+      <c r="H5" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="G5" s="46" t="s">
-        <v>730</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>732</v>
-      </c>
       <c r="J5" s="53" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5">
@@ -68202,22 +68759,22 @@
         <v>74</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5">
@@ -68236,22 +68793,22 @@
         <v>196</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H7" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="I7" s="39" t="s">
         <v>734</v>
       </c>
-      <c r="I7" s="39" t="s">
-        <v>735</v>
-      </c>
       <c r="J7" s="53" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5">
@@ -68270,19 +68827,19 @@
         <v>621</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5">
@@ -68301,22 +68858,22 @@
         <v>140</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H9" s="39" t="s">
+        <v>736</v>
+      </c>
+      <c r="I9" s="39" t="s">
         <v>737</v>
       </c>
-      <c r="I9" s="39" t="s">
-        <v>738</v>
-      </c>
       <c r="J9" s="53" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5">
@@ -68335,22 +68892,22 @@
         <v>714</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H10" s="39" t="s">
+        <v>738</v>
+      </c>
+      <c r="I10" s="39" t="s">
         <v>739</v>
       </c>
-      <c r="I10" s="39" t="s">
-        <v>740</v>
-      </c>
       <c r="J10" s="53" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K10" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5">
@@ -68369,22 +68926,22 @@
         <v>922</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H11" s="39" t="s">
+        <v>740</v>
+      </c>
+      <c r="I11" s="39" t="s">
         <v>741</v>
       </c>
-      <c r="I11" s="39" t="s">
-        <v>742</v>
-      </c>
       <c r="J11" s="53" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K11" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M11" s="57"/>
     </row>
@@ -68404,19 +68961,19 @@
         <v>745</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M12" s="57"/>
     </row>
@@ -68436,19 +68993,19 @@
         <v>293</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H13" s="51" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K13" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M13" s="57"/>
     </row>
@@ -68468,19 +69025,19 @@
         <v>965</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K14" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M14" s="57"/>
     </row>
@@ -68500,19 +69057,19 @@
         <v>513</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H15" s="51" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="J15" s="53" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K15" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M15" s="57"/>
     </row>
@@ -68532,19 +69089,19 @@
         <v>195</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K16" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M16" s="57"/>
     </row>
@@ -68564,19 +69121,19 @@
         <v>776</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H17" s="51" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K17" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M17" s="57"/>
     </row>
@@ -68596,19 +69153,19 @@
         <v>429</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K18" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M18" s="57"/>
     </row>
@@ -68628,19 +69185,19 @@
         <v>970</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H19" s="51" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K19" s="47" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5">
@@ -68659,19 +69216,19 @@
         <v>790</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="K20" s="47" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5">
@@ -68690,22 +69247,22 @@
         <v>345</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H21" s="39" t="s">
+        <v>742</v>
+      </c>
+      <c r="I21" s="39" t="s">
         <v>743</v>
       </c>
-      <c r="I21" s="39" t="s">
-        <v>744</v>
-      </c>
       <c r="J21" s="53" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="K21" s="47" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5">
@@ -68724,22 +69281,22 @@
         <v>836</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H22" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="I22" s="39" t="s">
         <v>745</v>
       </c>
-      <c r="I22" s="39" t="s">
-        <v>746</v>
-      </c>
       <c r="J22" s="53" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="K22" s="47" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5">
@@ -68758,22 +69315,22 @@
         <v>784</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H23" s="39" t="s">
+        <v>746</v>
+      </c>
+      <c r="I23" s="39" t="s">
         <v>747</v>
       </c>
-      <c r="I23" s="39" t="s">
-        <v>748</v>
-      </c>
       <c r="J23" s="53" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="K23" s="47" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5">
@@ -68792,22 +69349,22 @@
         <v>303</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H24" s="39" t="s">
+        <v>748</v>
+      </c>
+      <c r="I24" s="39" t="s">
         <v>749</v>
       </c>
-      <c r="I24" s="39" t="s">
-        <v>750</v>
-      </c>
       <c r="J24" s="53" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="K24" s="47" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5">
@@ -68826,22 +69383,22 @@
         <v>826</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H25" s="39" t="s">
+        <v>750</v>
+      </c>
+      <c r="I25" s="39" t="s">
         <v>751</v>
       </c>
-      <c r="I25" s="39" t="s">
-        <v>752</v>
-      </c>
       <c r="J25" s="53" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="K25" s="47" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.5">
@@ -68860,22 +69417,22 @@
         <v>602</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H26" s="39" t="s">
+        <v>752</v>
+      </c>
+      <c r="I26" s="39" t="s">
         <v>753</v>
       </c>
-      <c r="I26" s="39" t="s">
-        <v>754</v>
-      </c>
       <c r="J26" s="53" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="K26" s="47" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5">
@@ -68894,19 +69451,19 @@
         <v>908</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K27" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5">
@@ -68925,19 +69482,19 @@
         <v>420</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J28" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K28" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5">
@@ -68956,19 +69513,19 @@
         <v>128</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="J29" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K29" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.5">
@@ -68987,19 +69544,19 @@
         <v>489</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G30" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="J30" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K30" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.5">
@@ -69018,19 +69575,19 @@
         <v>799</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G31" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K31" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="16.5">
@@ -69049,19 +69606,22 @@
         <v>427</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G32" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>868</v>
+        <v>916</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>866</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K32" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5">
@@ -69080,19 +69640,22 @@
         <v>755</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G33" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>867</v>
+        <v>916</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>865</v>
       </c>
       <c r="J33" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K33" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.5">
@@ -69111,19 +69674,22 @@
         <v>62</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G34" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>866</v>
+        <v>916</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>864</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K34" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.5">
@@ -69142,19 +69708,22 @@
         <v>387</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G35" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>865</v>
+        <v>916</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>863</v>
       </c>
       <c r="J35" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K35" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.5">
@@ -69173,19 +69742,22 @@
         <v>693</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G36" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H36" s="39" t="s">
-        <v>864</v>
+        <v>916</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>862</v>
       </c>
       <c r="J36" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K36" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.5">
@@ -69204,19 +69776,22 @@
         <v>15</v>
       </c>
       <c r="F37" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G37" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H37" s="39" t="s">
-        <v>863</v>
+        <v>916</v>
+      </c>
+      <c r="I37" s="39" t="s">
+        <v>861</v>
       </c>
       <c r="J37" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K37" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.5">
@@ -69235,19 +69810,22 @@
         <v>328</v>
       </c>
       <c r="F38" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G38" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>862</v>
+        <v>916</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>860</v>
       </c>
       <c r="J38" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K38" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5">
@@ -69266,19 +69844,19 @@
         <v>942</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G39" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H39" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J39" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K39" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5">
@@ -69297,19 +69875,19 @@
         <v>469</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G40" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H40" s="39" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J40" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K40" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16.5">
@@ -69328,19 +69906,19 @@
         <v>194</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="J41" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K41" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.5">
@@ -69359,19 +69937,19 @@
         <v>504</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G42" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H42" s="39" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J42" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K42" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16.5">
@@ -69390,19 +69968,19 @@
         <v>826</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G43" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J43" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K43" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16.5">
@@ -69421,19 +69999,22 @@
         <v>471</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G44" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H44" s="39" t="s">
-        <v>875</v>
+        <v>917</v>
+      </c>
+      <c r="I44" s="39" t="s">
+        <v>873</v>
       </c>
       <c r="J44" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K44" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5">
@@ -69452,19 +70033,22 @@
         <v>807</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G45" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H45" s="39" t="s">
-        <v>874</v>
+        <v>917</v>
+      </c>
+      <c r="I45" s="39" t="s">
+        <v>872</v>
       </c>
       <c r="J45" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K45" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.5">
@@ -69483,19 +70067,22 @@
         <v>114</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G46" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>873</v>
+        <v>917</v>
+      </c>
+      <c r="I46" s="39" t="s">
+        <v>871</v>
       </c>
       <c r="J46" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K46" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.5">
@@ -69514,19 +70101,22 @@
         <v>424</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G47" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>872</v>
+        <v>917</v>
+      </c>
+      <c r="I47" s="39" t="s">
+        <v>870</v>
       </c>
       <c r="J47" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K47" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16.5">
@@ -69545,19 +70135,19 @@
         <v>738</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G48" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H48" s="39" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J48" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K48" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16.5">
@@ -69576,19 +70166,19 @@
         <v>983</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G49" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="J49" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K49" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.5">
@@ -69607,19 +70197,19 @@
         <v>312</v>
       </c>
       <c r="F50" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G50" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H50" s="39" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J50" s="53" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K50" s="47" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16.5">
@@ -69638,22 +70228,22 @@
         <v>969</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G51" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H51" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="I51" s="39" t="s">
         <v>757</v>
       </c>
-      <c r="I51" s="39" t="s">
-        <v>758</v>
-      </c>
       <c r="J51" s="47" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="K51" s="47" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16.5">
@@ -69675,22 +70265,22 @@
         <v>988</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G52" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H52" s="39" t="s">
+        <v>758</v>
+      </c>
+      <c r="I52" s="39" t="s">
         <v>759</v>
       </c>
-      <c r="I52" s="39" t="s">
-        <v>760</v>
-      </c>
       <c r="J52" s="47" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="K52" s="47" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16.5">
@@ -69712,22 +70302,22 @@
         <v>29</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G53" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H53" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="I53" s="39" t="s">
         <v>761</v>
       </c>
-      <c r="I53" s="39" t="s">
-        <v>762</v>
-      </c>
       <c r="J53" s="47" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="K53" s="47" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16.5">
@@ -69749,22 +70339,22 @@
         <v>471</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G54" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H54" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="I54" s="39" t="s">
         <v>763</v>
       </c>
-      <c r="I54" s="39" t="s">
-        <v>764</v>
-      </c>
       <c r="J54" s="47" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="K54" s="47" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="16.5">
@@ -69786,22 +70376,22 @@
         <v>662</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G55" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H55" s="39" t="s">
+        <v>764</v>
+      </c>
+      <c r="I55" s="39" t="s">
         <v>765</v>
       </c>
-      <c r="I55" s="39" t="s">
-        <v>766</v>
-      </c>
       <c r="J55" s="47" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="K55" s="47" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16.5">
@@ -69823,22 +70413,22 @@
         <v>213</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G56" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H56" s="39" t="s">
+        <v>766</v>
+      </c>
+      <c r="I56" s="39" t="s">
         <v>767</v>
       </c>
-      <c r="I56" s="39" t="s">
-        <v>768</v>
-      </c>
       <c r="J56" s="47" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="K56" s="47" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.5">
@@ -69860,22 +70450,22 @@
         <v>678</v>
       </c>
       <c r="F57" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G57" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H57" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="I57" s="39" t="s">
         <v>769</v>
       </c>
-      <c r="I57" s="39" t="s">
-        <v>770</v>
-      </c>
       <c r="J57" s="47" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="K57" s="47" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16.5">
@@ -69897,22 +70487,22 @@
         <v>793</v>
       </c>
       <c r="F58" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G58" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H58" s="39" t="s">
+        <v>766</v>
+      </c>
+      <c r="I58" s="39" t="s">
         <v>767</v>
       </c>
-      <c r="I58" s="39" t="s">
-        <v>768</v>
-      </c>
       <c r="J58" s="47" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="K58" s="47" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16.5">
@@ -69934,22 +70524,22 @@
         <v>200</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G59" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H59" s="39" t="s">
+        <v>770</v>
+      </c>
+      <c r="I59" s="39" t="s">
         <v>771</v>
       </c>
-      <c r="I59" s="39" t="s">
-        <v>772</v>
-      </c>
       <c r="J59" s="47" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="K59" s="47" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16.5">
@@ -69971,22 +70561,22 @@
         <v>250</v>
       </c>
       <c r="F60" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G60" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H60" s="39" t="s">
+        <v>766</v>
+      </c>
+      <c r="I60" s="39" t="s">
         <v>767</v>
       </c>
-      <c r="I60" s="39" t="s">
-        <v>768</v>
-      </c>
       <c r="J60" s="47" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="K60" s="47" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.5">
@@ -70008,22 +70598,22 @@
         <v>784</v>
       </c>
       <c r="F61" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G61" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H61" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="I61" s="39" t="s">
         <v>769</v>
       </c>
-      <c r="I61" s="39" t="s">
-        <v>770</v>
-      </c>
       <c r="J61" s="47" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="K61" s="47" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.5">
@@ -70045,22 +70635,22 @@
         <v>805</v>
       </c>
       <c r="F62" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G62" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H62" s="39" t="s">
+        <v>766</v>
+      </c>
+      <c r="I62" s="39" t="s">
         <v>767</v>
       </c>
-      <c r="I62" s="39" t="s">
-        <v>768</v>
-      </c>
       <c r="J62" s="47" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="K62" s="47" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.5">
@@ -70082,22 +70672,22 @@
         <v>317</v>
       </c>
       <c r="F63" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G63" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H63" s="39" t="s">
+        <v>772</v>
+      </c>
+      <c r="I63" s="39" t="s">
         <v>773</v>
       </c>
-      <c r="I63" s="39" t="s">
-        <v>774</v>
-      </c>
       <c r="J63" s="47" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="K63" s="47" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.5">
@@ -70119,19 +70709,19 @@
         <v>320</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G64" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H64" s="39" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J64" s="47" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="K64" s="47" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16.5">
@@ -70153,22 +70743,22 @@
         <v>363</v>
       </c>
       <c r="F65" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G65" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H65" s="39" t="s">
+        <v>774</v>
+      </c>
+      <c r="I65" s="39" t="s">
         <v>775</v>
       </c>
-      <c r="I65" s="39" t="s">
-        <v>776</v>
-      </c>
       <c r="J65" s="39" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="K65" s="47" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16.5">
@@ -70190,22 +70780,22 @@
         <v>802</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G66" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H66" s="39" t="s">
+        <v>776</v>
+      </c>
+      <c r="I66" s="39" t="s">
         <v>777</v>
       </c>
-      <c r="I66" s="39" t="s">
-        <v>778</v>
-      </c>
       <c r="J66" s="39" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="K66" s="47" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16.5">
@@ -70227,22 +70817,22 @@
         <v>371</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G67" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H67" s="39" t="s">
+        <v>778</v>
+      </c>
+      <c r="I67" s="39" t="s">
         <v>779</v>
       </c>
-      <c r="I67" s="39" t="s">
-        <v>780</v>
-      </c>
       <c r="J67" s="39" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="K67" s="47" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16.5">
@@ -70264,22 +70854,22 @@
         <v>915</v>
       </c>
       <c r="F68" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G68" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H68" s="39" t="s">
+        <v>780</v>
+      </c>
+      <c r="I68" s="39" t="s">
         <v>781</v>
       </c>
-      <c r="I68" s="39" t="s">
-        <v>782</v>
-      </c>
       <c r="J68" s="39" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="K68" s="47" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16.5">
@@ -70301,19 +70891,19 @@
         <v>492</v>
       </c>
       <c r="F69" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G69" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H69" s="39" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J69" s="47" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="K69" s="53" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16.5">
@@ -70335,22 +70925,22 @@
         <v>936</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G70" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H70" s="39" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J70" s="47" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="K70" s="53" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="16.5">
@@ -70372,22 +70962,22 @@
         <v>58</v>
       </c>
       <c r="F71" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G71" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H71" s="39" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="I71" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J71" s="47" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="K71" s="53" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="16.5">
@@ -70409,22 +70999,22 @@
         <v>584</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G72" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H72" s="39" t="s">
+        <v>746</v>
+      </c>
+      <c r="I72" s="39" t="s">
         <v>747</v>
       </c>
-      <c r="I72" s="39" t="s">
-        <v>748</v>
-      </c>
       <c r="J72" s="47" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="K72" s="47" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="16.5">
@@ -70446,22 +71036,22 @@
         <v>17</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G73" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H73" s="39" t="s">
-        <v>791</v>
-      </c>
-      <c r="I73" s="39" t="s">
-        <v>786</v>
+        <v>789</v>
+      </c>
+      <c r="I73" s="49" t="s">
+        <v>915</v>
       </c>
       <c r="J73" s="47" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="K73" s="47" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="16.5">
@@ -70483,22 +71073,22 @@
         <v>586</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G74" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H74" s="39" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="I74" s="50" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="J74" s="47" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="K74" s="47" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="16.5">
@@ -70520,22 +71110,22 @@
         <v>239</v>
       </c>
       <c r="F75" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G75" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H75" s="39" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I75" s="39" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="J75" s="47" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="K75" s="47" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="16.5">
@@ -70557,19 +71147,19 @@
         <v>614</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G76" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H76" s="39" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J76" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K76" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="16.5">
@@ -70591,19 +71181,19 @@
         <v>256</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G77" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H77" s="39" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J77" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K77" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16.5">
@@ -70625,19 +71215,19 @@
         <v>909</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G78" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H78" s="39" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="J78" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K78" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="16.5">
@@ -70659,19 +71249,19 @@
         <v>184</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G79" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H79" s="39" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="J79" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K79" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="16.5">
@@ -70693,19 +71283,19 @@
         <v>472</v>
       </c>
       <c r="F80" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G80" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H80" s="39" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="J80" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K80" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="16.5">
@@ -70727,19 +71317,22 @@
         <v>39</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G81" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H81" s="39" t="s">
-        <v>868</v>
+        <v>916</v>
+      </c>
+      <c r="I81" s="39" t="s">
+        <v>866</v>
       </c>
       <c r="J81" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K81" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="16.5">
@@ -70761,19 +71354,22 @@
         <v>407</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G82" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H82" s="39" t="s">
-        <v>867</v>
+        <v>916</v>
+      </c>
+      <c r="I82" s="39" t="s">
+        <v>865</v>
       </c>
       <c r="J82" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K82" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="16.5">
@@ -70795,19 +71391,22 @@
         <v>771</v>
       </c>
       <c r="F83" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G83" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H83" s="39" t="s">
-        <v>866</v>
+        <v>916</v>
+      </c>
+      <c r="I83" s="39" t="s">
+        <v>864</v>
       </c>
       <c r="J83" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K83" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="16.5">
@@ -70829,19 +71428,22 @@
         <v>75</v>
       </c>
       <c r="F84" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G84" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H84" s="39" t="s">
-        <v>865</v>
+        <v>916</v>
+      </c>
+      <c r="I84" s="39" t="s">
+        <v>863</v>
       </c>
       <c r="J84" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K84" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="16.5">
@@ -70863,19 +71465,22 @@
         <v>417</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G85" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H85" s="39" t="s">
-        <v>864</v>
+        <v>916</v>
+      </c>
+      <c r="I85" s="39" t="s">
+        <v>862</v>
       </c>
       <c r="J85" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K85" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="16.5">
@@ -70897,19 +71502,22 @@
         <v>713</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G86" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H86" s="39" t="s">
-        <v>863</v>
+        <v>916</v>
+      </c>
+      <c r="I86" s="39" t="s">
+        <v>861</v>
       </c>
       <c r="J86" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K86" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="16.5">
@@ -70931,19 +71539,22 @@
         <v>49</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G87" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H87" s="39" t="s">
-        <v>862</v>
+        <v>916</v>
+      </c>
+      <c r="I87" s="39" t="s">
+        <v>860</v>
       </c>
       <c r="J87" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K87" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="16.5">
@@ -70965,19 +71576,19 @@
         <v>644</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G88" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H88" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J88" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K88" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="16.5">
@@ -70999,19 +71610,19 @@
         <v>287</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G89" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H89" s="39" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J89" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K89" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="16.5">
@@ -71033,19 +71644,19 @@
         <v>932</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G90" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H90" s="39" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="J90" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K90" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="16.5">
@@ -71067,19 +71678,19 @@
         <v>268</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G91" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H91" s="39" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J91" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K91" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="16.5">
@@ -71101,19 +71712,19 @@
         <v>593</v>
       </c>
       <c r="F92" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G92" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H92" s="39" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J92" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K92" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="16.5">
@@ -71135,19 +71746,22 @@
         <v>185</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G93" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H93" s="39" t="s">
-        <v>875</v>
+        <v>917</v>
+      </c>
+      <c r="I93" s="39" t="s">
+        <v>873</v>
       </c>
       <c r="J93" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K93" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="16.5">
@@ -71169,19 +71783,22 @@
         <v>531</v>
       </c>
       <c r="F94" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G94" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H94" s="39" t="s">
-        <v>874</v>
+        <v>917</v>
+      </c>
+      <c r="I94" s="39" t="s">
+        <v>872</v>
       </c>
       <c r="J94" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K94" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="16.5">
@@ -71203,19 +71820,22 @@
         <v>863</v>
       </c>
       <c r="F95" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G95" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H95" s="39" t="s">
-        <v>873</v>
+        <v>917</v>
+      </c>
+      <c r="I95" s="39" t="s">
+        <v>871</v>
       </c>
       <c r="J95" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K95" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="16.5">
@@ -71237,19 +71857,22 @@
         <v>163</v>
       </c>
       <c r="F96" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G96" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H96" s="39" t="s">
-        <v>872</v>
+        <v>917</v>
+      </c>
+      <c r="I96" s="39" t="s">
+        <v>870</v>
       </c>
       <c r="J96" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K96" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="16.5">
@@ -71271,19 +71894,19 @@
         <v>534</v>
       </c>
       <c r="F97" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G97" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H97" s="39" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J97" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K97" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="16.5">
@@ -71305,19 +71928,19 @@
         <v>758</v>
       </c>
       <c r="F98" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G98" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H98" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="J98" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K98" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="16.5">
@@ -71339,19 +71962,19 @@
         <v>54</v>
       </c>
       <c r="F99" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G99" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H99" s="39" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J99" s="54" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="K99" s="47" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="16.5">
@@ -71373,22 +71996,22 @@
         <v>743</v>
       </c>
       <c r="F100" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G100" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H100" s="39" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="I100" s="39" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="J100" s="39" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="K100" s="47" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="16.5">
@@ -71410,22 +72033,22 @@
         <v>755</v>
       </c>
       <c r="F101" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G101" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H101" s="39" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="I101" s="39" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="J101" s="39" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="K101" s="47" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="16.5">
@@ -71447,22 +72070,22 @@
         <v>847</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G102" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H102" s="39" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="I102" s="39" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="J102" s="39" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="K102" s="47" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="16.5">
@@ -71484,22 +72107,22 @@
         <v>138</v>
       </c>
       <c r="F103" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G103" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H103" s="39" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="I103" s="39" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J103" s="39" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="K103" s="47" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="16.5">
@@ -71521,22 +72144,22 @@
         <v>447</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G104" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H104" s="39" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="I104" s="39" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="J104" s="39" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="K104" s="47" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="16.5">
@@ -71558,22 +72181,22 @@
         <v>940</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G105" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H105" s="39" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I105" s="39" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="J105" s="39" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="K105" s="47" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="16.5">
@@ -71595,22 +72218,22 @@
         <v>931</v>
       </c>
       <c r="F106" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G106" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H106" s="39" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="I106" s="39" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J106" s="39" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="K106" s="47" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="16.5">
@@ -71632,22 +72255,22 @@
         <v>782</v>
       </c>
       <c r="F107" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G107" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H107" s="39" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="I107" s="39" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="J107" s="39" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="K107" s="47" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="16.5">
@@ -71669,22 +72292,22 @@
         <v>30</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G108" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H108" s="39" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I108" s="39" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="J108" s="39" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="K108" s="47" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="16.5">
@@ -71706,22 +72329,22 @@
         <v>548</v>
       </c>
       <c r="F109" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G109" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H109" s="39" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I109" s="39" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="J109" s="39" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="K109" s="47" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="16.5">
@@ -71743,22 +72366,22 @@
         <v>454</v>
       </c>
       <c r="F110" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G110" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H110" s="39" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I110" s="39" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J110" s="39" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="K110" s="47" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="16.5">
@@ -71780,22 +72403,22 @@
         <v>651</v>
       </c>
       <c r="F111" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G111" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H111" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I111" s="39" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J111" s="39" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="K111" s="47" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="16.5">
@@ -71817,22 +72440,22 @@
         <v>173</v>
       </c>
       <c r="F112" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G112" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H112" s="39" t="s">
+        <v>766</v>
+      </c>
+      <c r="I112" s="39" t="s">
         <v>767</v>
       </c>
-      <c r="I112" s="39" t="s">
-        <v>768</v>
-      </c>
       <c r="J112" s="47" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="K112" s="47" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="16.5">
@@ -71854,22 +72477,22 @@
         <v>674</v>
       </c>
       <c r="F113" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G113" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H113" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="I113" s="39" t="s">
         <v>769</v>
       </c>
-      <c r="I113" s="39" t="s">
-        <v>770</v>
-      </c>
       <c r="J113" s="47" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="K113" s="47" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="16.5">
@@ -71891,22 +72514,22 @@
         <v>707</v>
       </c>
       <c r="F114" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G114" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H114" s="39" t="s">
+        <v>766</v>
+      </c>
+      <c r="I114" s="39" t="s">
         <v>767</v>
       </c>
-      <c r="I114" s="39" t="s">
-        <v>768</v>
-      </c>
       <c r="J114" s="47" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="K114" s="47" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="16.5">
@@ -71928,22 +72551,22 @@
         <v>262</v>
       </c>
       <c r="F115" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G115" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H115" s="39" t="s">
+        <v>770</v>
+      </c>
+      <c r="I115" s="39" t="s">
         <v>771</v>
       </c>
-      <c r="I115" s="39" t="s">
-        <v>772</v>
-      </c>
       <c r="J115" s="47" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="K115" s="47" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="16.5">
@@ -71965,22 +72588,22 @@
         <v>222</v>
       </c>
       <c r="F116" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G116" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H116" s="39" t="s">
+        <v>766</v>
+      </c>
+      <c r="I116" s="39" t="s">
         <v>767</v>
       </c>
-      <c r="I116" s="39" t="s">
-        <v>768</v>
-      </c>
       <c r="J116" s="47" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="K116" s="47" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="16.5">
@@ -72002,22 +72625,22 @@
         <v>766</v>
       </c>
       <c r="F117" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G117" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H117" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="I117" s="39" t="s">
         <v>769</v>
       </c>
-      <c r="I117" s="39" t="s">
-        <v>770</v>
-      </c>
       <c r="J117" s="47" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="K117" s="47" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="16.5">
@@ -72039,22 +72662,22 @@
         <v>758</v>
       </c>
       <c r="F118" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G118" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H118" s="39" t="s">
+        <v>766</v>
+      </c>
+      <c r="I118" s="39" t="s">
         <v>767</v>
       </c>
-      <c r="I118" s="39" t="s">
-        <v>768</v>
-      </c>
       <c r="J118" s="47" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="K118" s="47" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="16.5">
@@ -72076,22 +72699,22 @@
         <v>224</v>
       </c>
       <c r="F119" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G119" s="46" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H119" s="39" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I119" s="39" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="J119" s="47" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="K119" s="47" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
